--- a/Assets/Data/SpawnData.xlsx
+++ b/Assets/Data/SpawnData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2312004\Documents\FLUFF_SWING\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2312029\Documents\FLUFF_SWING\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA737F01-0A75-4FD9-9C28-55D977AE1780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E8C8C8-78AC-410E-B521-C19C9758DC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4C33777-1E58-4483-B30F-52CA6AAB0A77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E4C33777-1E58-4483-B30F-52CA6AAB0A77}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage1" sheetId="7" r:id="rId1"/>
@@ -460,7 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -690,7 +690,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -699,10 +699,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553F9048-7187-494B-B9A0-C39A0FBB121D}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F11"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -711,7 +711,7 @@
     <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
     <col min="3" max="3" width="44.3845040457589" customWidth="1" style="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1" style="1"/>
-    <col min="5" max="5" width="9.16957909720285" customWidth="1" style="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1">
-        <v>4.5859999656677246</v>
+        <v>6.5</v>
       </c>
       <c r="E2" s="1">
-        <v>-1.6239999532699585</v>
+        <v>-1</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -760,16 +760,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>5.8299999237060547</v>
+        <v>8.5</v>
       </c>
       <c r="E3" s="1">
-        <v>-1.6239999532699585</v>
+        <v>-1</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
-        <v>3.4392979145050049</v>
+        <v>10.5</v>
       </c>
       <c r="E4" s="1">
-        <v>0.534288227558136</v>
+        <v>-1</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -800,16 +800,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>30</v>
+        <v>21.5</v>
       </c>
       <c r="E5" s="1">
-        <v>-1.3919999599456787</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -820,16 +820,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1">
-        <v>11.5600004196167</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -846,10 +846,10 @@
         <v>13</v>
       </c>
       <c r="D7" s="1">
-        <v>8</v>
+        <v>24.5</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -866,10 +866,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="1">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -886,10 +886,10 @@
         <v>13</v>
       </c>
       <c r="D9" s="1">
-        <v>5.9000000953674316</v>
+        <v>27.5</v>
       </c>
       <c r="E9" s="1">
-        <v>1.8200000524520874</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>24.590000152587891</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>-24.5</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -926,18 +926,1139 @@
         <v>13</v>
       </c>
       <c r="D11" s="1">
-        <v>-1.4299999475479126</v>
+        <v>26.090000152587891</v>
       </c>
       <c r="E11" s="1">
-        <v>0.4699999988079071</v>
+        <v>-24.5</v>
       </c>
       <c r="F11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
+        <v>27.590000152587891</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-24.5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
+        <v>25.239999771118164</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-17.5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
+        <v>26.739999771118164</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-17.5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1">
+        <v>32.650001525878906</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-22.5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1">
+        <v>34.150001525878906</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-22.5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>35.650001525878906</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-22.5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>33.650001525878906</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-14.300000190734863</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
+        <v>38.560001373291016</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-12.399999618530273</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
+        <v>40.060001373291016</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-12.399999618530273</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1">
+        <v>40.369998931884766</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-20.399999618530273</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1">
+        <v>41.869998931884766</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-20.399999618530273</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1">
+        <v>43.369998931884766</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-20.399999618530273</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1">
+        <v>85.5999984741211</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-17.399999618530273</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1">
+        <v>87.0999984741211</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-17.399999618530273</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1">
+        <v>88.5999984741211</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-17.399999618530273</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1">
+        <v>67.0999984741211</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-12.399999618530273</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1">
+        <v>68.5999984741211</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-12.399999618530273</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1">
+        <v>57.909999847412109</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-11.300000190734863</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1">
+        <v>59.409999847412109</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-11.300000190734863</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3.4000000953674316</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1">
+        <v>23</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3.4000000953674316</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3.4000000953674316</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1">
+        <v>26</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3.4000000953674316</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3.4000000953674316</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1">
+        <v>29</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3.4000000953674316</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-9</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="1">
+        <v>87.0999984741211</v>
+      </c>
+      <c r="E38" s="1">
+        <v>-16</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="1">
+        <v>88.5999984741211</v>
+      </c>
+      <c r="E39" s="1">
+        <v>-16</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="1">
+        <v>52.310001373291016</v>
+      </c>
+      <c r="E40" s="1">
+        <v>-9.3000001907348633</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="1">
+        <v>53.810001373291016</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-9.3000001907348633</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1">
+        <v>71.160003662109375</v>
+      </c>
+      <c r="E42" s="1">
+        <v>-7.3000001907348633</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="1">
+        <v>72.660003662109375</v>
+      </c>
+      <c r="E43" s="1">
+        <v>-7.3000001907348633</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="1">
+        <v>66.3499984741211</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1.8999999761581421</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="1">
+        <v>67.8499984741211</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1.8999999761581421</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="1">
+        <v>69.3499984741211</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1.8999999761581421</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="1">
+        <v>77.040000915527344</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="1">
+        <v>86.8499984741211</v>
+      </c>
+      <c r="E48" s="1">
+        <v>-0.039999999105930328</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="1">
+        <v>93.339996337890625</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="1">
+        <v>98.470001220703125</v>
+      </c>
+      <c r="E50" s="1">
+        <v>3.059999942779541</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="1">
+        <v>81.050003051757813</v>
+      </c>
+      <c r="E51" s="1">
+        <v>3.8199999332427979</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1">
+        <v>12.269000053405762</v>
+      </c>
+      <c r="E52" s="1">
+        <v>5.630000114440918</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="1">
+        <v>28.790000915527344</v>
+      </c>
+      <c r="E53" s="1">
+        <v>-25</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="1">
+        <v>89.040000915527344</v>
+      </c>
+      <c r="E54" s="1">
+        <v>-17.856000900268555</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="1">
+        <v>121.59999847412109</v>
+      </c>
+      <c r="E55" s="1">
+        <v>-6.6100001335144043</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="1">
+        <v>13.430000305175781</v>
+      </c>
+      <c r="E56" s="1">
+        <v>-1.5399999618530273</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1">
+        <v>44</v>
+      </c>
+      <c r="E57" s="1">
+        <v>-20.899999618530273</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="1">
+        <v>19.700000762939453</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2.2200000286102295</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="1">
+        <v>102.13999938964844</v>
+      </c>
+      <c r="E59" s="1">
+        <v>-3.6500000953674316</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="1">
+        <v>77.5199966430664</v>
+      </c>
+      <c r="E60" s="1">
+        <v>-10.729999542236328</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="E61" s="1">
+        <v>-2.5499999523162842</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="1">
+        <v>28.299999237060547</v>
+      </c>
+      <c r="E62" s="1">
+        <v>-2.0299999713897705</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="1">
+        <v>29.600000381469727</v>
+      </c>
+      <c r="E63" s="1">
+        <v>-2.0299999713897705</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="1">
+        <v>30.899999618530273</v>
+      </c>
+      <c r="E64" s="1">
+        <v>-2.0299999713897705</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="1">
+        <v>28.299999237060547</v>
+      </c>
+      <c r="E65" s="1">
+        <v>-3.3299999237060547</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="1">
+        <v>29.600000381469727</v>
+      </c>
+      <c r="E66" s="1">
+        <v>-3.3299999237060547</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="1">
+        <v>30.899999618530273</v>
+      </c>
+      <c r="E67" s="1">
+        <v>-3.3299999237060547</v>
+      </c>
+      <c r="F67" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -952,12 +2073,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="5"/>
-    <col min="2" max="2" width="9.140625" customWidth="1" style="5"/>
-    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="5"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="5"/>
-    <col min="5" max="5" width="9.16957909720285" customWidth="1" style="5"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="5"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="5"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="5"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1197,12 +2315,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="4"/>
-    <col min="2" max="2" width="9.140625" customWidth="1" style="4"/>
-    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="4"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="4"/>
-    <col min="5" max="5" width="9.16957909720285" customWidth="1" style="4"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="4"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="4"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="4"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1442,12 +2557,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="3"/>
-    <col min="2" max="2" width="9.140625" customWidth="1" style="3"/>
-    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="3"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="3"/>
-    <col min="5" max="5" width="9.16957909720285" customWidth="1" style="3"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="3"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="3"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="3"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1687,12 +2799,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
-    <col min="2" max="2" width="9.140625" customWidth="1" style="2"/>
-    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="2"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
-    <col min="5" max="5" width="9.16957909720285" customWidth="1" style="2"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="2"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="2"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Assets/Data/SpawnData.xlsx
+++ b/Assets/Data/SpawnData.xlsx
@@ -1746,7 +1746,7 @@
         <v>7</v>
       </c>
       <c r="D52" s="1">
-        <v>12.269000053405762</v>
+        <v>10.779999732971191</v>
       </c>
       <c r="E52" s="1">
         <v>5.630000114440918</v>

--- a/Assets/Data/SpawnData.xlsx
+++ b/Assets/Data/SpawnData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2312029\Documents\FLUFF_SWING\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2312004\Documents\FLUFF_SWING\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E8C8C8-78AC-410E-B521-C19C9758DC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296BE77B-1C38-44D1-8AEA-E6376E16DB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E4C33777-1E58-4483-B30F-52CA6AAB0A77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4C33777-1E58-4483-B30F-52CA6AAB0A77}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage1" sheetId="7" r:id="rId1"/>
@@ -458,234 +458,979 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="6"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="6"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="6"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="1"/>
+    <col min="4" max="4" width="11.569690159389" customWidth="1" style="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6">
-        <v>4.5859999656677246</v>
-      </c>
-      <c r="E2" s="6">
-        <v>-1.6239999532699585</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="D2" s="1">
+        <v>45.569999694824219</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-1.5499999523162842</v>
+      </c>
+      <c r="F2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6">
-        <v>5.8299999237060547</v>
-      </c>
-      <c r="E3" s="6">
-        <v>-1.6239999532699585</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="D3" s="1">
+        <v>46.909999847412109</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1.5560001134872437</v>
+      </c>
+      <c r="F3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6">
-        <v>3.4392979145050049</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.534288227558136</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="D4" s="1">
+        <v>96.0999984741211</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="F4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="1">
+        <v>43.139999389648438</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-1.5299999713897705</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>59.270000457763672</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-2.0299999713897705</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.2699999809265137</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-0.99000000953674316</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6.7100000381469727</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-1.1599999666213989</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>13.779999732971191</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-1.2799999713897705</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
+        <v>18.799999237060547</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-0.2199999988079071</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>24.260000228881836</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-1.0700000524520874</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
+        <v>35.020000457763672</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-1.0499999523162842</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
+        <v>39.700000762939453</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-0.99000000953674316</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
+        <v>56.400001525878906</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-0.949999988079071</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1">
+        <v>68.319999694824219</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-0.51999998092651367</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1">
+        <v>72.199996948242188</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-1.1799999475479126</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>80.529998779296875</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-0.05000000074505806</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>85.699996948242188</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7.1700000762939453</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
+        <v>90.830001831054688</v>
+      </c>
+      <c r="E19" s="1">
+        <v>9.9799995422363281</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
+        <v>101.44000244140625</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7.820000171661377</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1">
+        <v>195.96000671386719</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3.869999885559082</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1">
+        <v>197.00999450683594</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.9800000190734863</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1">
+        <v>194.89999389648438</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.8000001907348633</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1">
+        <v>193.41000366210938</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5.46999979019165</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1">
+        <v>193.55999755859375</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3.7300000190734863</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1">
+        <v>195.00999450683594</v>
+      </c>
+      <c r="E26" s="1">
+        <v>6.4899997711181641</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1">
+        <v>193.67999267578125</v>
+      </c>
+      <c r="E27" s="1">
+        <v>6.8400001525878906</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1">
+        <v>196.6300048828125</v>
+      </c>
+      <c r="E28" s="1">
+        <v>6.2300000190734863</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1">
+        <v>198.11000061035156</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.0299999713897705</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1">
+        <v>129.05999755859375</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-5.5799999237060547</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="E5" s="6">
-        <v>-1.3919999599456787</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1">
+        <v>130.22999572753906</v>
+      </c>
+      <c r="E31" s="1">
+        <v>8.1899995803833</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1">
+        <v>171.30000305175781</v>
+      </c>
+      <c r="E32" s="1">
+        <v>8</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1">
+        <v>203.27999877929688</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1">
+        <v>190.69999694824219</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8.6000003814697266</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1">
+        <v>181.80000305175781</v>
+      </c>
+      <c r="E35" s="1">
+        <v>10.300000190734863</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1">
+        <v>177.5</v>
+      </c>
+      <c r="E36" s="1">
+        <v>8.1000003814697266</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1">
+        <v>96.879997253417969</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-1.5499999523162842</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1">
+        <v>125.33000183105469</v>
+      </c>
+      <c r="E38" s="1">
+        <v>-7.6100001335144043</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1">
+        <v>197.89999389648438</v>
+      </c>
+      <c r="E39" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1">
+        <v>94.639999389648438</v>
+      </c>
+      <c r="E40" s="1">
+        <v>-1.5499999523162842</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1">
+        <v>145.19000244140625</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-4.630000114440918</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1">
+        <v>153.30000305175781</v>
+      </c>
+      <c r="E42" s="1">
+        <v>14.899999618530273</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="1">
+        <v>115.59999847412109</v>
+      </c>
+      <c r="E43" s="1">
+        <v>14.739999771118164</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1">
+        <v>141.80000305175781</v>
+      </c>
+      <c r="E44" s="1">
+        <v>7.619999885559082</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="1">
+        <v>168.19999694824219</v>
+      </c>
+      <c r="E45" s="1">
+        <v>-1.5</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6">
-        <v>11.5600004196167</v>
-      </c>
-      <c r="E6" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6">
-        <v>6.25</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1.5299999713897705</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="6">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1.0199999809265137</v>
-      </c>
-      <c r="E9" s="6">
-        <v>-2.8399999141693115</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6">
+      <c r="D46" s="1">
+        <v>106.40000152587891</v>
+      </c>
+      <c r="E46" s="1">
+        <v>7.25</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="1">
+        <v>185.47000122070313</v>
+      </c>
+      <c r="E47" s="1">
+        <v>-0.86000001430511475</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.090000003576278687</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1.1100000143051147</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="6">
-        <v>-3</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="D48" s="1">
+        <v>158.39999389648438</v>
+      </c>
+      <c r="E48" s="1">
+        <v>9</v>
+      </c>
+      <c r="F48" s="1">
         <v>0</v>
       </c>
     </row>
@@ -701,1357 +1446,1354 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553F9048-7187-494B-B9A0-C39A0FBB121D}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
-    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="2"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="2"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2">
         <v>6.5</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>-1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2">
         <v>8.5</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>-1</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
         <v>10.5</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>-1</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
         <v>21.5</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
         <v>23</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
         <v>24.5</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
         <v>26</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
         <v>27.5</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
         <v>24.590000152587891</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>-24.5</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
         <v>26.090000152587891</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>-24.5</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
         <v>27.590000152587891</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>-24.5</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
         <v>25.239999771118164</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>-17.5</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
         <v>26.739999771118164</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>-17.5</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
         <v>32.650001525878906</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>-22.5</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
         <v>34.150001525878906</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>-22.5</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
         <v>35.650001525878906</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>-22.5</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
         <v>33.650001525878906</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>-14.300000190734863</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
         <v>38.560001373291016</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2">
         <v>40.060001373291016</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2">
         <v>40.369998931884766</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2">
         <v>41.869998931884766</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2">
         <v>43.369998931884766</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2">
         <v>85.5999984741211</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
         <v>87.0999984741211</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2">
         <v>88.5999984741211</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2">
         <v>67.0999984741211</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
         <v>68.5999984741211</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2">
         <v>57.909999847412109</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>-11.300000190734863</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2">
         <v>59.409999847412109</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>-11.300000190734863</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2">
         <v>21.5</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2">
         <v>23</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2">
         <v>24.5</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2">
         <v>26</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2">
         <v>27.5</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2">
         <v>29</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2">
         <v>18.5</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>-9</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2">
         <v>87.0999984741211</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <v>-16</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="2">
         <v>88.5999984741211</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>-16</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2">
         <v>52.310001373291016</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <v>-9.3000001907348633</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="2">
         <v>53.810001373291016</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>-9.3000001907348633</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2">
         <v>71.160003662109375</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>-7.3000001907348633</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2">
         <v>72.660003662109375</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>-7.3000001907348633</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2">
         <v>66.3499984741211</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="2">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="2">
         <v>67.8499984741211</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="2">
         <v>69.3499984741211</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="2">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2">
         <v>77.040000915527344</v>
       </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="B48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2">
         <v>86.8499984741211</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="2">
         <v>-0.039999999105930328</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="B49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="2">
         <v>93.339996337890625</v>
       </c>
-      <c r="E49" s="1">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="2">
         <v>98.470001220703125</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="2">
         <v>3.059999942779541</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="2">
         <v>81.050003051757813</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="2">
         <v>3.8199999332427979</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <v>10.779999732971191</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="2">
         <v>5.630000114440918</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="2">
         <v>28.790000915527344</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="2">
         <v>-25</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="2">
         <v>89.040000915527344</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="2">
         <v>-17.856000900268555</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="2">
         <v>121.59999847412109</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="2">
         <v>-6.6100001335144043</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="2">
         <v>13.430000305175781</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="2">
         <v>-1.5399999618530273</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="2">
         <v>44</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="2">
         <v>-20.899999618530273</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="2">
         <v>19.700000762939453</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="2">
         <v>2.2200000286102295</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="2">
         <v>102.13999938964844</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="2">
         <v>-3.6500000953674316</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="B60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="2">
         <v>77.5199966430664</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="2">
         <v>-10.729999542236328</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="B61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="2">
         <v>59.5</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="2">
         <v>-2.5499999523162842</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="1">
+      <c r="B62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="2">
         <v>28.299999237060547</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="2">
         <v>-2.0299999713897705</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1">
+      <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="1">
+      <c r="B63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="2">
         <v>29.600000381469727</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="2">
         <v>-2.0299999713897705</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="B64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="2">
         <v>30.899999618530273</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="2">
         <v>-2.0299999713897705</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="1">
+      <c r="B65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="2">
         <v>28.299999237060547</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="2">
         <v>-3.3299999237060547</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="1">
+      <c r="B66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="2">
         <v>29.600000381469727</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="2">
         <v>-3.3299999237060547</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="1">
+      <c r="B67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="2">
         <v>30.899999618530273</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="2">
         <v>-3.3299999237060547</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2073,228 +2815,228 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="5"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="5"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="5"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="6"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="6"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="6"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>4.5859999656677246</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>5.8299999237060547</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>3.4392979145050049</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>0.534288227558136</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>30</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>-1.3919999599456787</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>11.5600004196167</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>-2</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6">
         <v>8</v>
       </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6">
         <v>10</v>
       </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6">
         <v>0.8399999737739563</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>2.8299999237060547</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6">
         <v>1</v>
       </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6">
         <v>-3</v>
       </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2315,228 +3057,228 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="4"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="4"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="4"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="5"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="5"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>4.5859999656677246</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>5.8299999237060547</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>3.4392979145050049</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>0.534288227558136</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>30</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>-1.3919999599456787</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>11.5600004196167</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5">
         <v>8</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5">
         <v>10</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5">
         <v>2</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5">
         <v>-3</v>
       </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2557,228 +3299,228 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="3"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="3"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="3"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="4"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="4"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>4.5859999656677246</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>5.8299999237060547</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>3.4392979145050049</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>0.534288227558136</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>30</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>-1.3919999599456787</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>11.5600004196167</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>-2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4">
         <v>8</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4">
         <v>10</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4">
         <v>-3</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2799,228 +3541,228 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="2"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="2"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="2"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="3"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="3"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>4.5859999656677246</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>5.8299999237060547</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>3.4392979145050049</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>0.534288227558136</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>30</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>-1.3919999599456787</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>11.5600004196167</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>-2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3">
         <v>8</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3">
         <v>10</v>
       </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3">
         <v>-3</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/SpawnData.xlsx
+++ b/Assets/Data/SpawnData.xlsx
@@ -568,7 +568,7 @@
         <v>43.139999389648438</v>
       </c>
       <c r="E5" s="1">
-        <v>-1.5299999713897705</v>
+        <v>-1.4420000314712524</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>59.270000457763672</v>
       </c>
       <c r="E6" s="1">
-        <v>-2.0299999713897705</v>
+        <v>-1.9809999465942383</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>115.59999847412109</v>
       </c>
       <c r="E43" s="1">
-        <v>14.739999771118164</v>
+        <v>14.831999778747559</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>141.80000305175781</v>
       </c>
       <c r="E44" s="1">
-        <v>7.619999885559082</v>
+        <v>7.7399997711181641</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -1368,7 +1368,7 @@
         <v>168.19999694824219</v>
       </c>
       <c r="E45" s="1">
-        <v>-1.5</v>
+        <v>-1.4500000476837158</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>106.40000152587891</v>
       </c>
       <c r="E46" s="1">
-        <v>7.25</v>
+        <v>7.1869997978210449</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>185.47000122070313</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.86000001430511475</v>
+        <v>-0.99500000476837158</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -1428,7 +1428,7 @@
         <v>158.39999389648438</v>
       </c>
       <c r="E48" s="1">
-        <v>9</v>
+        <v>10.569999694824219</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>

--- a/Assets/Data/SpawnData.xlsx
+++ b/Assets/Data/SpawnData.xlsx
@@ -466,971 +466,971 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
-    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="1"/>
-    <col min="4" max="4" width="11.569690159389" customWidth="1" style="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
+    <col min="2" max="2" width="9.140625" customWidth="1" style="2"/>
+    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="2"/>
+    <col min="4" max="4" width="11.569690159389" customWidth="1" style="2"/>
+    <col min="5" max="5" width="9.140625" customWidth="1" style="2"/>
+    <col min="6" max="6" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>45.569999694824219</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>46.909999847412109</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>-1.5560001134872437</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>96.0999984741211</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>6.5</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>43.139999389648438</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>-1.4420000314712524</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>59.270000457763672</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>-1.9809999465942383</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
         <v>1.2699999809265137</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>-0.99000000953674316</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
         <v>6.7100000381469727</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>-1.1599999666213989</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
         <v>13.779999732971191</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>-1.2799999713897705</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
         <v>18.799999237060547</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>-0.2199999988079071</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
         <v>24.260000228881836</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>-1.0700000524520874</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
         <v>35.020000457763672</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>-1.0499999523162842</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
         <v>39.700000762939453</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>-0.99000000953674316</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
         <v>56.400001525878906</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>-0.949999988079071</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
         <v>68.319999694824219</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>-0.51999998092651367</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
         <v>72.199996948242188</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>-1.1799999475479126</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
         <v>80.529998779296875</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>-0.05000000074505806</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
         <v>85.699996948242188</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>7.1700000762939453</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
         <v>90.830001831054688</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>9.9799995422363281</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2">
         <v>101.44000244140625</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>7.820000171661377</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2">
         <v>195.96000671386719</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>3.869999885559082</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2">
         <v>197.00999450683594</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>2.9800000190734863</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2">
         <v>194.89999389648438</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>4.8000001907348633</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2">
         <v>193.41000366210938</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>5.46999979019165</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
         <v>193.55999755859375</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>3.7300000190734863</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2">
         <v>195.00999450683594</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>6.4899997711181641</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2">
         <v>193.67999267578125</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>6.8400001525878906</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
         <v>196.6300048828125</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>6.2300000190734863</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2">
         <v>198.11000061035156</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>2.0299999713897705</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2">
         <v>129.05999755859375</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>-5.5799999237060547</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2">
         <v>130.22999572753906</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>8.1899995803833</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2">
         <v>171.30000305175781</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>8</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2">
         <v>203.27999877929688</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>3</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2">
         <v>190.69999694824219</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>8.6000003814697266</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2">
         <v>181.80000305175781</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>10.300000190734863</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2">
         <v>177.5</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>8.1000003814697266</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>96.879997253417969</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>125.33000183105469</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <v>-7.6100001335144043</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>197.89999389648438</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>-0.5</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <v>94.639999389648438</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>145.19000244140625</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>-4.630000114440918</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>153.30000305175781</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>14.899999618530273</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="2">
         <v>115.59999847412109</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>14.831999778747559</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="2">
         <v>141.80000305175781</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="2">
         <v>7.7399997711181641</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <v>168.19999694824219</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2">
         <v>-1.4500000476837158</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="2">
         <v>106.40000152587891</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="2">
         <v>7.1869997978210449</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <v>185.47000122070313</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="2">
         <v>-0.99500000476837158</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="2">
         <v>158.39999389648438</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="2">
         <v>10.569999694824219</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1452,1348 +1452,1348 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="2"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="2"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="2"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="3"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="3"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
         <v>6.5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>-1</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3">
         <v>8.5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>-1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3">
         <v>10.5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>-1</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3">
         <v>21.5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
         <v>23</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3">
         <v>24.5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3">
         <v>26</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3">
         <v>27.5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3">
         <v>24.590000152587891</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>-24.5</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3">
         <v>26.090000152587891</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>-24.5</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3">
         <v>27.590000152587891</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>-24.5</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3">
         <v>25.239999771118164</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>-17.5</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3">
         <v>26.739999771118164</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>-17.5</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3">
         <v>32.650001525878906</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>-22.5</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
         <v>34.150001525878906</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>-22.5</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
         <v>35.650001525878906</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>-22.5</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
         <v>33.650001525878906</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>-14.300000190734863</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3">
         <v>38.560001373291016</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3">
         <v>40.060001373291016</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3">
         <v>40.369998931884766</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3">
         <v>41.869998931884766</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3">
         <v>43.369998931884766</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3">
         <v>85.5999984741211</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="3">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3">
         <v>87.0999984741211</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3">
         <v>88.5999984741211</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="3">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3">
         <v>67.0999984741211</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3">
         <v>68.5999984741211</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="3">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3">
         <v>57.909999847412109</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="3">
         <v>-11.300000190734863</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3">
         <v>59.409999847412109</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="3">
         <v>-11.300000190734863</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3">
         <v>21.5</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="B32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3">
         <v>23</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="3">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="B33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3">
         <v>24.5</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="3">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="B34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3">
         <v>26</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="3">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3">
         <v>27.5</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="3">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="B36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3">
         <v>29</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="3">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="B37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3">
         <v>18.5</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="3">
         <v>-9</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="B38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="3">
         <v>87.0999984741211</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="3">
         <v>-16</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2">
+      <c r="B39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="3">
         <v>88.5999984741211</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="3">
         <v>-16</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="2">
+      <c r="B40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="3">
         <v>52.310001373291016</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="3">
         <v>-9.3000001907348633</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="3">
         <v>53.810001373291016</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="3">
         <v>-9.3000001907348633</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="2">
+      <c r="B42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="3">
         <v>71.160003662109375</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="3">
         <v>-7.3000001907348633</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="2">
+      <c r="B43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="3">
         <v>72.660003662109375</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="3">
         <v>-7.3000001907348633</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="B44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="3">
         <v>66.3499984741211</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="3">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="2">
+      <c r="B45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="3">
         <v>67.8499984741211</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="3">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="B46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="3">
         <v>69.3499984741211</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="3">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="2">
+      <c r="B47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="3">
         <v>77.040000915527344</v>
       </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2">
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="2">
+      <c r="B48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="3">
         <v>86.8499984741211</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="3">
         <v>-0.039999999105930328</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="2">
+      <c r="B49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="3">
         <v>93.339996337890625</v>
       </c>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-      <c r="F49" s="2">
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="2">
+      <c r="B50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="3">
         <v>98.470001220703125</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="3">
         <v>3.059999942779541</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="2">
+      <c r="B51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="3">
         <v>81.050003051757813</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="3">
         <v>3.8199999332427979</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="B52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="3">
         <v>10.779999732971191</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="3">
         <v>5.630000114440918</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="3">
         <v>28.790000915527344</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="3">
         <v>-25</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="B54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="3">
         <v>89.040000915527344</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="3">
         <v>-17.856000900268555</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="B55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="3">
         <v>121.59999847412109</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="3">
         <v>-6.6100001335144043</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="B56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="3">
         <v>13.430000305175781</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="3">
         <v>-1.5399999618530273</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="3">
         <v>44</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="3">
         <v>-20.899999618530273</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="B58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="3">
         <v>19.700000762939453</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="3">
         <v>2.2200000286102295</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="B59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="3">
         <v>102.13999938964844</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="3">
         <v>-3.6500000953674316</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="B60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="3">
         <v>77.5199966430664</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="3">
         <v>-10.729999542236328</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="B61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="3">
         <v>59.5</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="3">
         <v>-2.5499999523162842</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="2">
+      <c r="B62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="3">
         <v>28.299999237060547</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="3">
         <v>-2.0299999713897705</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="2">
+      <c r="B63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="3">
         <v>29.600000381469727</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="3">
         <v>-2.0299999713897705</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="2">
+      <c r="B64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="3">
         <v>30.899999618530273</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="3">
         <v>-2.0299999713897705</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="2">
+      <c r="B65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="3">
         <v>28.299999237060547</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="3">
         <v>-3.3299999237060547</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="2">
+      <c r="B66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="3">
         <v>29.600000381469727</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="3">
         <v>-3.3299999237060547</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="2">
+      <c r="B67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="3">
         <v>30.899999618530273</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="3">
         <v>-3.3299999237060547</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3299,228 +3299,231 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="4"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="4"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="4"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1" style="1"/>
+    <col min="5" max="5" width="9.16957909720285" customWidth="1" style="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>4.5859999656677246</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="1">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>5.8299999237060547</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>3.4392979145050049</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <v>0.534288227558136</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4">
-        <v>-1.3919999599456787</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="D5" s="1">
+        <v>28.239999771118164</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-3.6500000953674316</v>
+      </c>
+      <c r="F5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>11.5600004196167</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
         <v>8</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
         <v>10</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
         <v>-3</v>
       </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3541,228 +3544,228 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="3"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="3"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="3"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="4"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="4"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>4.5859999656677246</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>5.8299999237060547</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>3.4392979145050049</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>0.534288227558136</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>30</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>-1.3919999599456787</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>11.5600004196167</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>-2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4">
         <v>8</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4">
         <v>10</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4">
         <v>-3</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/SpawnData.xlsx
+++ b/Assets/Data/SpawnData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2312004\Documents\FLUFF_SWING\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2312029\Documents\FLUFF_SWING\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296BE77B-1C38-44D1-8AEA-E6376E16DB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452C945A-0AF9-447E-B882-1A0D9E5A2DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4C33777-1E58-4483-B30F-52CA6AAB0A77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E4C33777-1E58-4483-B30F-52CA6AAB0A77}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage1" sheetId="7" r:id="rId1"/>
@@ -460,977 +460,975 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
-    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="1"/>
-    <col min="4" max="4" width="11.569690159389" customWidth="1" style="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="2"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="2"/>
+    <col min="4" max="4" width="11.625" customWidth="1" style="2"/>
+    <col min="5" max="6" width="9.125" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>45.569999694824219</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>46.909999847412109</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>-1.5560001134872437</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>96.0999984741211</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>6.5</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>43.139999389648438</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>-1.4420000314712524</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>59.270000457763672</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>-1.9809999465942383</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
         <v>1.2699999809265137</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>-0.99000000953674316</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
         <v>6.7100000381469727</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>-1.1599999666213989</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
         <v>13.779999732971191</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>-1.2799999713897705</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
         <v>18.799999237060547</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>-0.2199999988079071</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
         <v>24.260000228881836</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>-1.0700000524520874</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
         <v>35.020000457763672</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>-1.0499999523162842</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
         <v>39.700000762939453</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>-0.99000000953674316</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
         <v>56.400001525878906</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>-0.949999988079071</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
         <v>68.319999694824219</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>-0.51999998092651367</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
         <v>72.199996948242188</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>-1.1799999475479126</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
         <v>80.529998779296875</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>-0.05000000074505806</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
         <v>85.699996948242188</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>7.1700000762939453</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
         <v>90.830001831054688</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>9.9799995422363281</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2">
         <v>101.44000244140625</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>7.820000171661377</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2">
         <v>195.96000671386719</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>3.869999885559082</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2">
         <v>197.00999450683594</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>2.9800000190734863</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2">
         <v>194.89999389648438</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>4.8000001907348633</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2">
         <v>193.41000366210938</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>5.46999979019165</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
         <v>193.55999755859375</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>3.7300000190734863</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2">
         <v>195.00999450683594</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>6.4899997711181641</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2">
         <v>193.67999267578125</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>6.8400001525878906</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
         <v>196.6300048828125</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>6.2300000190734863</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2">
         <v>198.11000061035156</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>2.0299999713897705</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2">
         <v>129.05999755859375</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>-5.5799999237060547</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2">
         <v>130.22999572753906</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>8.1899995803833</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2">
         <v>171.30000305175781</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>8</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2">
         <v>203.27999877929688</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>3</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2">
         <v>190.69999694824219</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>8.6000003814697266</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2">
         <v>181.80000305175781</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>10.300000190734863</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2">
         <v>177.5</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>8.1000003814697266</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>96.879997253417969</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>125.33000183105469</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <v>-7.6100001335144043</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>197.89999389648438</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>-0.5</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <v>94.639999389648438</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>145.19000244140625</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>-4.630000114440918</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>153.30000305175781</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>14.899999618530273</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="2">
         <v>115.59999847412109</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>14.831999778747559</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="2">
         <v>141.80000305175781</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="2">
         <v>7.7399997711181641</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <v>168.19999694824219</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2">
         <v>-1.4500000476837158</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="2">
         <v>106.40000152587891</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="2">
         <v>7.1869997978210449</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <v>185.47000122070313</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="2">
         <v>-0.99500000476837158</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="2">
         <v>158.39999389648438</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="2">
         <v>10.569999694824219</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1452,1348 +1450,1348 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="2"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="2"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="2"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="3"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="3"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
         <v>6.5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>-1</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3">
         <v>8.5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>-1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3">
         <v>10.5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>-1</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3">
         <v>21.5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
         <v>23</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3">
         <v>24.5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3">
         <v>26</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3">
         <v>27.5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3">
         <v>24.590000152587891</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>-24.5</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3">
         <v>26.090000152587891</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>-24.5</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3">
         <v>27.590000152587891</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>-24.5</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3">
         <v>25.239999771118164</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>-17.5</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3">
         <v>26.739999771118164</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>-17.5</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3">
         <v>32.650001525878906</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>-22.5</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
         <v>34.150001525878906</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>-22.5</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
         <v>35.650001525878906</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>-22.5</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
         <v>33.650001525878906</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>-14.300000190734863</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3">
         <v>38.560001373291016</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3">
         <v>40.060001373291016</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3">
         <v>40.369998931884766</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3">
         <v>41.869998931884766</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3">
         <v>43.369998931884766</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3">
         <v>85.5999984741211</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="3">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3">
         <v>87.0999984741211</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3">
         <v>88.5999984741211</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="3">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3">
         <v>67.0999984741211</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3">
         <v>68.5999984741211</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="3">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3">
         <v>57.909999847412109</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="3">
         <v>-11.300000190734863</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3">
         <v>59.409999847412109</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="3">
         <v>-11.300000190734863</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3">
         <v>21.5</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="B32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3">
         <v>23</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="3">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="B33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3">
         <v>24.5</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="3">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="B34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3">
         <v>26</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="3">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3">
         <v>27.5</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="3">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="B36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3">
         <v>29</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="3">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="B37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3">
         <v>18.5</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="3">
         <v>-9</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="B38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="3">
         <v>87.0999984741211</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="3">
         <v>-16</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2">
+      <c r="B39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="3">
         <v>88.5999984741211</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="3">
         <v>-16</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="2">
+      <c r="B40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="3">
         <v>52.310001373291016</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="3">
         <v>-9.3000001907348633</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="3">
         <v>53.810001373291016</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="3">
         <v>-9.3000001907348633</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="2">
+      <c r="B42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="3">
         <v>71.160003662109375</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="3">
         <v>-7.3000001907348633</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="2">
+      <c r="B43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="3">
         <v>72.660003662109375</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="3">
         <v>-7.3000001907348633</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="B44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="3">
         <v>66.3499984741211</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="3">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="2">
+      <c r="B45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="3">
         <v>67.8499984741211</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="3">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="B46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="3">
         <v>69.3499984741211</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="3">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="2">
+      <c r="B47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="3">
         <v>77.040000915527344</v>
       </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2">
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="2">
+      <c r="B48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="3">
         <v>86.8499984741211</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="3">
         <v>-0.039999999105930328</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="2">
+      <c r="B49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="3">
         <v>93.339996337890625</v>
       </c>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-      <c r="F49" s="2">
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="2">
+      <c r="B50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="3">
         <v>98.470001220703125</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="3">
         <v>3.059999942779541</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="2">
+      <c r="B51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="3">
         <v>81.050003051757813</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="3">
         <v>3.8199999332427979</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="B52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="3">
         <v>10.779999732971191</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="3">
         <v>5.630000114440918</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="3">
         <v>28.790000915527344</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="3">
         <v>-25</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="B54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="3">
         <v>89.040000915527344</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="3">
         <v>-17.856000900268555</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="B55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="3">
         <v>121.59999847412109</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="3">
         <v>-6.6100001335144043</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="B56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="3">
         <v>13.430000305175781</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="3">
         <v>-1.5399999618530273</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="3">
         <v>44</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="3">
         <v>-20.899999618530273</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="B58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="3">
         <v>19.700000762939453</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="3">
         <v>2.2200000286102295</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="B59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="3">
         <v>102.13999938964844</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="3">
         <v>-3.6500000953674316</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="B60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="3">
         <v>77.5199966430664</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="3">
         <v>-10.729999542236328</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="B61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="3">
         <v>59.5</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="3">
         <v>-2.5499999523162842</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="2">
+      <c r="B62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="3">
         <v>28.299999237060547</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="3">
         <v>-2.0299999713897705</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="2">
+      <c r="B63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="3">
         <v>29.600000381469727</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="3">
         <v>-2.0299999713897705</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="2">
+      <c r="B64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="3">
         <v>30.899999618530273</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="3">
         <v>-2.0299999713897705</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="2">
+      <c r="B65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="3">
         <v>28.299999237060547</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="3">
         <v>-3.3299999237060547</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="2">
+      <c r="B66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="3">
         <v>29.600000381469727</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="3">
         <v>-3.3299999237060547</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="2">
+      <c r="B67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="3">
         <v>30.899999618530273</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="3">
         <v>-3.3299999237060547</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3049,6 +3047,2072 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE56395-929E-4EF5-8509-E4B0C3500A90}">
+  <dimension ref="A1:F102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="I101" sqref="I101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="1"/>
+    <col min="4" max="4" width="11.569690159389" customWidth="1" style="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-13.359999656677246</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-6.1999998092651367</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-12.059999465942383</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-6.1999998092651367</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-10.75999927520752</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-6.1999998092651367</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-9.4600000381469727</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-6.1999998092651367</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-8.15999984741211</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-6.1999998092651367</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9.7100000381469727</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-9.1499996185302734</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>11.210000038146973</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-9.1499996185302734</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>12.710000038146973</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-9.1499996185302734</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20.819999694824219</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-9.1499996185302734</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>22.319999694824219</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-9.1499996185302734</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
+        <v>23.819999694824219</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-9.1499996185302734</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
+        <v>33.2400016784668</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-9.1499996185302734</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
+        <v>34.7400016784668</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-9.1499996185302734</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1">
+        <v>40</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-15</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-17</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-19</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>49</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-32</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
+        <v>51</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-32</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
+        <v>53</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-32</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1">
+        <v>58.5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-33.799999237060547</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1">
+        <v>67.739997863769531</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-33.700000762939453</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1">
+        <v>69.239997863769531</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-33.700000762939453</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1">
+        <v>78.830001831054688</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-31.770000457763672</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1">
+        <v>80.330001831054688</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-31.770000457763672</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1">
+        <v>81.830001831054688</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-31.770000457763672</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1">
+        <v>86.44000244140625</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-33.700000762939453</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1">
+        <v>88.44000244140625</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-33.700000762939453</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1">
+        <v>90.44000244140625</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-33.700000762939453</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1">
+        <v>99.419998168945313</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-31.1299991607666</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1">
+        <v>105.19999694824219</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-29.25</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1">
+        <v>106.69999694824219</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-29.25</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1">
+        <v>108.19999694824219</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-29.25</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1">
+        <v>123.94999694824219</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-33.700000762939453</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1">
+        <v>125.94999694824219</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-33.700000762939453</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1">
+        <v>127.94999694824219</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-33.700000762939453</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="1">
+        <v>135.83999633789063</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-34.479999542236328</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="1">
+        <v>137.33999633789063</v>
+      </c>
+      <c r="E38" s="1">
+        <v>-34.479999542236328</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="1">
+        <v>138.83999633789063</v>
+      </c>
+      <c r="E39" s="1">
+        <v>-34.479999542236328</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="1">
+        <v>147.25</v>
+      </c>
+      <c r="E40" s="1">
+        <v>-31.530000686645508</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="1">
+        <v>148.75</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-31.530000686645508</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1">
+        <v>150.25</v>
+      </c>
+      <c r="E42" s="1">
+        <v>-31.530000686645508</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="1">
+        <v>157.66000366210938</v>
+      </c>
+      <c r="E43" s="1">
+        <v>-33.700000762939453</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="1">
+        <v>159.66000366210938</v>
+      </c>
+      <c r="E44" s="1">
+        <v>-33.700000762939453</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="1">
+        <v>167</v>
+      </c>
+      <c r="E45" s="1">
+        <v>-37</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="1">
+        <v>169</v>
+      </c>
+      <c r="E46" s="1">
+        <v>-37</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="1">
+        <v>167</v>
+      </c>
+      <c r="E47" s="1">
+        <v>-39</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="1">
+        <v>169</v>
+      </c>
+      <c r="E48" s="1">
+        <v>-39</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="1">
+        <v>167</v>
+      </c>
+      <c r="E49" s="1">
+        <v>-41</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="1">
+        <v>169</v>
+      </c>
+      <c r="E50" s="1">
+        <v>-41</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="1">
+        <v>50.930000305175781</v>
+      </c>
+      <c r="E51" s="1">
+        <v>-38.049999237060547</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="1">
+        <v>50.220001220703125</v>
+      </c>
+      <c r="E52" s="1">
+        <v>-40.049999237060547</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="1">
+        <v>49.349998474121094</v>
+      </c>
+      <c r="E53" s="1">
+        <v>-42.049999237060547</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="1">
+        <v>59</v>
+      </c>
+      <c r="E54" s="1">
+        <v>-53.5</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="1">
+        <v>61</v>
+      </c>
+      <c r="E55" s="1">
+        <v>-53.5</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="1">
+        <v>63</v>
+      </c>
+      <c r="E56" s="1">
+        <v>-53.5</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="1">
+        <v>65</v>
+      </c>
+      <c r="E57" s="1">
+        <v>-53.5</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="1">
+        <v>67</v>
+      </c>
+      <c r="E58" s="1">
+        <v>-54.299999237060547</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="1">
+        <v>68.5</v>
+      </c>
+      <c r="E59" s="1">
+        <v>-55.799999237060547</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="1">
+        <v>70</v>
+      </c>
+      <c r="E60" s="1">
+        <v>-57.299999237060547</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="1">
+        <v>80</v>
+      </c>
+      <c r="E61" s="1">
+        <v>-60</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="1">
+        <v>81.5</v>
+      </c>
+      <c r="E62" s="1">
+        <v>-60</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="1">
+        <v>89.2300033569336</v>
+      </c>
+      <c r="E63" s="1">
+        <v>-66.300003051757813</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="1">
+        <v>91.2300033569336</v>
+      </c>
+      <c r="E64" s="1">
+        <v>-66.300003051757813</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="1">
+        <v>100</v>
+      </c>
+      <c r="E65" s="1">
+        <v>-64.9000015258789</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="1">
+        <v>101.5</v>
+      </c>
+      <c r="E66" s="1">
+        <v>-64.9000015258789</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="1">
+        <v>103</v>
+      </c>
+      <c r="E67" s="1">
+        <v>-64.9000015258789</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="1">
+        <v>103</v>
+      </c>
+      <c r="E68" s="1">
+        <v>-64.9000015258789</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="1">
+        <v>108.04000091552734</v>
+      </c>
+      <c r="E69" s="1">
+        <v>-61.479999542236328</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="1">
+        <v>109.54000091552734</v>
+      </c>
+      <c r="E70" s="1">
+        <v>-61.479999542236328</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="1">
+        <v>111.04000091552734</v>
+      </c>
+      <c r="E71" s="1">
+        <v>-61.479999542236328</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="1">
+        <v>120.12000274658203</v>
+      </c>
+      <c r="E72" s="1">
+        <v>-63.709999084472656</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="1">
+        <v>121.62000274658203</v>
+      </c>
+      <c r="E73" s="1">
+        <v>-63.709999084472656</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="1">
+        <v>123.12000274658203</v>
+      </c>
+      <c r="E74" s="1">
+        <v>-63.709999084472656</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="1">
+        <v>137.57000732421875</v>
+      </c>
+      <c r="E75" s="1">
+        <v>-61.159999847412109</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="1">
+        <v>139.07000732421875</v>
+      </c>
+      <c r="E76" s="1">
+        <v>-61.159999847412109</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="1">
+        <v>140.57000732421875</v>
+      </c>
+      <c r="E77" s="1">
+        <v>-61.159999847412109</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="1">
+        <v>142.07000732421875</v>
+      </c>
+      <c r="E78" s="1">
+        <v>-61.159999847412109</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="1">
+        <v>151.36000061035156</v>
+      </c>
+      <c r="E79" s="1">
+        <v>-59</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="1">
+        <v>153.36000061035156</v>
+      </c>
+      <c r="E80" s="1">
+        <v>-59</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="1">
+        <v>158.92999267578125</v>
+      </c>
+      <c r="E81" s="1">
+        <v>-54.520000457763672</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="1">
+        <v>164.02999877929688</v>
+      </c>
+      <c r="E82" s="1">
+        <v>-51.689998626708984</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="1">
+        <v>168.22999572753906</v>
+      </c>
+      <c r="E83" s="1">
+        <v>-48.75</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="1">
+        <v>108.48000335693359</v>
+      </c>
+      <c r="E84" s="1">
+        <v>-46.889999389648438</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="1">
+        <v>109.98000335693359</v>
+      </c>
+      <c r="E85" s="1">
+        <v>-46.889999389648438</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="1">
+        <v>111.48000335693359</v>
+      </c>
+      <c r="E86" s="1">
+        <v>-46.889999389648438</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="1">
+        <v>5.679999828338623</v>
+      </c>
+      <c r="E87" s="1">
+        <v>-9.65999984741211</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="1">
+        <v>27.1299991607666</v>
+      </c>
+      <c r="E88" s="1">
+        <v>-9.65999984741211</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="1">
+        <v>76.040000915527344</v>
+      </c>
+      <c r="E89" s="1">
+        <v>-34.130001068115234</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="1">
+        <v>97</v>
+      </c>
+      <c r="E90" s="1">
+        <v>-34.169998168945313</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="1">
+        <v>111.19000244140625</v>
+      </c>
+      <c r="E91" s="1">
+        <v>-39.369998931884766</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="1">
+        <v>123.48999786376953</v>
+      </c>
+      <c r="E92" s="1">
+        <v>-45.279998779296875</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="1">
+        <v>144.58999633789063</v>
+      </c>
+      <c r="E93" s="1">
+        <v>-50.430000305175781</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="1">
+        <v>92.319999694824219</v>
+      </c>
+      <c r="E94" s="1">
+        <v>-46.419998168945313</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="1">
+        <v>144.5</v>
+      </c>
+      <c r="E95" s="1">
+        <v>-41.279998779296875</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="1">
+        <v>135.53999328613281</v>
+      </c>
+      <c r="E96" s="1">
+        <v>-64.709999084472656</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="1">
+        <v>117.90000152587891</v>
+      </c>
+      <c r="E97" s="1">
+        <v>-66.4000015258789</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="1">
+        <v>85.330001831054688</v>
+      </c>
+      <c r="E98" s="1">
+        <v>-30.950000762939453</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="1">
+        <v>132.69999694824219</v>
+      </c>
+      <c r="E99" s="1">
+        <v>-30.950000762939453</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="1">
+        <v>146.58000183105469</v>
+      </c>
+      <c r="E100" s="1">
+        <v>-61.630001068115234</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="1">
+        <v>110.80000305175781</v>
+      </c>
+      <c r="E101" s="1">
+        <v>-32.099998474121094</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="1">
+        <v>81.319999694824219</v>
+      </c>
+      <c r="E102" s="1">
+        <v>-46.330001831054688</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4707741F-BFD4-4FF4-A1EB-A627D15E0B90}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3279,248 +5343,6 @@
         <v>0</v>
       </c>
       <c r="F11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4707741F-BFD4-4FF4-A1EB-A627D15E0B90}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="4"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="4"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4">
-        <v>4.5859999656677246</v>
-      </c>
-      <c r="E2" s="4">
-        <v>-1.6239999532699585</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4">
-        <v>5.8299999237060547</v>
-      </c>
-      <c r="E3" s="4">
-        <v>-1.6239999532699585</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3.4392979145050049</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.534288227558136</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4">
-        <v>-1.3919999599456787</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4">
-        <v>11.5600004196167</v>
-      </c>
-      <c r="E6" s="4">
-        <v>-2</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4">
-        <v>-3</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3541,228 +5363,228 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="3"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="3"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="3"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="4"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="4"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>4.5859999656677246</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>5.8299999237060547</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>3.4392979145050049</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>0.534288227558136</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>30</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>-1.3919999599456787</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>11.5600004196167</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>-2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4">
         <v>8</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4">
         <v>10</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4">
         <v>-3</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/SpawnData.xlsx
+++ b/Assets/Data/SpawnData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2312004\Documents\FLUFF_SWING\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2312029\Documents\FLUFF_SWING\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296BE77B-1C38-44D1-8AEA-E6376E16DB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EC41E8-2727-43BD-A638-9DC67A893B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4C33777-1E58-4483-B30F-52CA6AAB0A77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E4C33777-1E58-4483-B30F-52CA6AAB0A77}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage1" sheetId="7" r:id="rId1"/>
@@ -460,977 +460,975 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
-    <col min="2" max="2" width="9.140625" customWidth="1" style="2"/>
-    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="2"/>
-    <col min="4" max="4" width="11.569690159389" customWidth="1" style="2"/>
-    <col min="5" max="5" width="9.140625" customWidth="1" style="2"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="3"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="3"/>
+    <col min="4" max="4" width="11.625" customWidth="1" style="3"/>
+    <col min="5" max="6" width="9.125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>45.569999694824219</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>46.909999847412109</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>-1.5560001134872437</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>96.0999984741211</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>6.5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>43.139999389648438</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>-1.4420000314712524</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>59.270000457763672</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>-1.9809999465942383</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3">
         <v>1.2699999809265137</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>-0.99000000953674316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3">
         <v>6.7100000381469727</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>-1.1599999666213989</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3">
         <v>13.779999732971191</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>-1.2799999713897705</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3">
         <v>18.799999237060547</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>-0.2199999988079071</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3">
         <v>24.260000228881836</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>-1.0700000524520874</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3">
         <v>35.020000457763672</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>-1.0499999523162842</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3">
         <v>39.700000762939453</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>-0.99000000953674316</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3">
         <v>56.400001525878906</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>-0.949999988079071</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3">
         <v>68.319999694824219</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>-0.51999998092651367</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
         <v>72.199996948242188</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>-1.1799999475479126</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
         <v>80.529998779296875</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>-0.05000000074505806</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
         <v>85.699996948242188</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>7.1700000762939453</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3">
         <v>90.830001831054688</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>9.9799995422363281</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3">
         <v>101.44000244140625</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>7.820000171661377</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3">
         <v>195.96000671386719</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>3.869999885559082</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3">
         <v>197.00999450683594</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>2.9800000190734863</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3">
         <v>194.89999389648438</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <v>4.8000001907348633</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3">
         <v>193.41000366210938</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="3">
         <v>5.46999979019165</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3">
         <v>193.55999755859375</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <v>3.7300000190734863</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3">
         <v>195.00999450683594</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="3">
         <v>6.4899997711181641</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3">
         <v>193.67999267578125</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <v>6.8400001525878906</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3">
         <v>196.6300048828125</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="3">
         <v>6.2300000190734863</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3">
         <v>198.11000061035156</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="3">
         <v>2.0299999713897705</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3">
         <v>129.05999755859375</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="3">
         <v>-5.5799999237060547</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3">
         <v>130.22999572753906</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <v>8.1899995803833</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="B32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3">
         <v>171.30000305175781</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="3">
         <v>8</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="B33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3">
         <v>203.27999877929688</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="3">
         <v>3</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="B34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3">
         <v>190.69999694824219</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="3">
         <v>8.6000003814697266</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3">
         <v>181.80000305175781</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="3">
         <v>10.300000190734863</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="B36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3">
         <v>177.5</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="3">
         <v>8.1000003814697266</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="3">
         <v>96.879997253417969</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="3">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="3">
         <v>125.33000183105469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="3">
         <v>-7.6100001335144043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="3">
         <v>197.89999389648438</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="3">
         <v>-0.5</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="3">
         <v>94.639999389648438</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="3">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="3">
         <v>145.19000244140625</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="3">
         <v>-4.630000114440918</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="3">
         <v>153.30000305175781</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="3">
         <v>14.899999618530273</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="3">
         <v>115.59999847412109</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="3">
         <v>14.831999778747559</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="3">
         <v>141.80000305175781</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="3">
         <v>7.7399997711181641</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="3">
         <v>168.19999694824219</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="3">
         <v>-1.4500000476837158</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="B46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="3">
         <v>106.40000152587891</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="3">
         <v>7.1869997978210449</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="B47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="3">
         <v>185.47000122070313</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="3">
         <v>-0.99500000476837158</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="B48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="3">
         <v>158.39999389648438</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="3">
         <v>10.569999694824219</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1452,1348 +1450,1348 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="3"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="3"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="3"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="4"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="4"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4">
         <v>6.5</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>-1</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4">
         <v>8.5</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>-1</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4">
         <v>10.5</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>-1</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4">
         <v>21.5</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4">
         <v>23</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4">
         <v>24.5</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4">
         <v>26</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4">
         <v>27.5</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>2</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4">
         <v>24.590000152587891</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>-24.5</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4">
         <v>26.090000152587891</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>-24.5</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4">
         <v>27.590000152587891</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>-24.5</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4">
         <v>25.239999771118164</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>-17.5</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4">
         <v>26.739999771118164</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>-17.5</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4">
         <v>32.650001525878906</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>-22.5</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4">
         <v>34.150001525878906</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>-22.5</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4">
         <v>35.650001525878906</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <v>-22.5</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4">
         <v>33.650001525878906</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <v>-14.300000190734863</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="4">
         <v>38.560001373291016</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="4">
         <v>40.060001373291016</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="4">
         <v>40.369998931884766</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="4">
         <v>41.869998931884766</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="4">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="4">
         <v>43.369998931884766</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="B24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="4">
         <v>85.5999984741211</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="4">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="B25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="4">
         <v>87.0999984741211</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="4">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="B26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="4">
         <v>88.5999984741211</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="4">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="4">
         <v>67.0999984741211</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="4">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="B28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="4">
         <v>68.5999984741211</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="4">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="B29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="4">
         <v>57.909999847412109</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="4">
         <v>-11.300000190734863</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="B30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="4">
         <v>59.409999847412109</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="4">
         <v>-11.300000190734863</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="B31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="4">
         <v>21.5</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="4">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="B32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="4">
         <v>23</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="4">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="B33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="4">
         <v>24.5</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="4">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="B34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="4">
         <v>26</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="4">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="B35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="4">
         <v>27.5</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="4">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="B36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="4">
         <v>29</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="4">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="B37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="4">
         <v>18.5</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="4">
         <v>-9</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="B38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="4">
         <v>87.0999984741211</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="4">
         <v>-16</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="B39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="4">
         <v>88.5999984741211</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="4">
         <v>-16</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="B40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="4">
         <v>52.310001373291016</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="4">
         <v>-9.3000001907348633</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="B41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="4">
         <v>53.810001373291016</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="4">
         <v>-9.3000001907348633</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="3">
+      <c r="B42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="4">
         <v>71.160003662109375</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="4">
         <v>-7.3000001907348633</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="3">
+      <c r="B43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="4">
         <v>72.660003662109375</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="4">
         <v>-7.3000001907348633</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="3">
+      <c r="B44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="4">
         <v>66.3499984741211</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="4">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="3">
+      <c r="B45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="4">
         <v>67.8499984741211</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="4">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="3">
+      <c r="B46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="4">
         <v>69.3499984741211</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="4">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="3">
+      <c r="B47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="4">
         <v>77.040000915527344</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="3">
+      <c r="B48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="4">
         <v>86.8499984741211</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="4">
         <v>-0.039999999105930328</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="3">
+      <c r="B49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="4">
         <v>93.339996337890625</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="3">
+      <c r="B50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="4">
         <v>98.470001220703125</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="4">
         <v>3.059999942779541</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="3">
+      <c r="B51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="4">
         <v>81.050003051757813</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="4">
         <v>3.8199999332427979</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="B52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="4">
         <v>10.779999732971191</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="4">
         <v>5.630000114440918</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="B53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="4">
         <v>28.790000915527344</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="4">
         <v>-25</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="B54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="4">
         <v>89.040000915527344</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="4">
         <v>-17.856000900268555</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="B55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="4">
         <v>121.59999847412109</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="4">
         <v>-6.6100001335144043</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3">
+      <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="B56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="4">
         <v>13.430000305175781</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="4">
         <v>-1.5399999618530273</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="B57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="4">
         <v>44</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="4">
         <v>-20.899999618530273</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="B58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="4">
         <v>19.700000762939453</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="4">
         <v>2.2200000286102295</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="B59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="4">
         <v>102.13999938964844</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="4">
         <v>-3.6500000953674316</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3">
+      <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="B60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="4">
         <v>77.5199966430664</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="4">
         <v>-10.729999542236328</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3">
+      <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="B61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="4">
         <v>59.5</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="4">
         <v>-2.5499999523162842</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3">
+      <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="3">
+      <c r="B62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="4">
         <v>28.299999237060547</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="4">
         <v>-2.0299999713897705</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="3">
+      <c r="B63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="4">
         <v>29.600000381469727</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="4">
         <v>-2.0299999713897705</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3">
+      <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="3">
+      <c r="B64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="4">
         <v>30.899999618530273</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="4">
         <v>-2.0299999713897705</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="3">
+      <c r="B65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="4">
         <v>28.299999237060547</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="4">
         <v>-3.3299999237060547</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3">
+      <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="3">
+      <c r="B66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="4">
         <v>29.600000381469727</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="4">
         <v>-3.3299999237060547</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3">
+      <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="3">
+      <c r="B67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="4">
         <v>30.899999618530273</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="4">
         <v>-3.3299999237060547</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2810,7 +2808,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F11"/>
+      <selection activeCell="B11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3049,242 +3047,1366 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE56395-929E-4EF5-8509-E4B0C3500A90}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F11"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="5"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="5"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="5"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="1"/>
+    <col min="4" max="4" width="11.569690159389" customWidth="1" style="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5">
-        <v>4.5859999656677246</v>
-      </c>
-      <c r="E2" s="5">
-        <v>-1.6239999532699585</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="D2" s="1">
+        <v>12.819999694824219</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-9.5200004577636719</v>
+      </c>
+      <c r="F2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>27.799999237060547</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-9.5699996948242188</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>110.40000152587891</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-38.799999237060547</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>58.400001525878906</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-33.799999237060547</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>95.4000015258789</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-33.799999237060547</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5">
-        <v>5.8299999237060547</v>
-      </c>
-      <c r="E3" s="5">
-        <v>-1.6239999532699585</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D7" s="1">
+        <v>126.98000335693359</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-34.080001831054688</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>121.70999908447266</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-45.360000610351563</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>145.49000549316406</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-41.2599983215332</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="D4" s="5">
-        <v>3.4392979145050049</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.534288227558136</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>118.80000305175781</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-65.9000015258789</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="D5" s="5">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>155.10000610351563</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-31.899999618530273</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1">
+        <v>138</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-51.5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1">
+        <v>79.055000305175781</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-47.428001403808594</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-13.329999923706055</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-6.3000001907348633</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-12.029999732971191</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-6.3000001907348633</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-10.729999542236328</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-6.3000001907348633</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-9.4300003051757813</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-6.3000001907348633</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-8.130000114440918</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-6.3000001907348633</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
+        <v>10.079999923706055</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-9.2200002670288086</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
+        <v>12.079999923706055</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-9.2200002670288086</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1">
+        <v>22.420000076293945</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-9.2200002670288086</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1">
+        <v>24.420000076293945</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-9.2200002670288086</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1">
+        <v>39.540000915527344</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-13.289999961853027</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1">
+        <v>41.540000915527344</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-13.289999961853027</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1">
+        <v>39.069999694824219</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-15.789999961853027</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1">
+        <v>41.069999694824219</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-15.789999961853027</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1">
+        <v>38.459999084472656</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-18.290000915527344</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1">
+        <v>40.459999084472656</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-18.290000915527344</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1">
+        <v>57.049999237060547</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-33.830001831054688</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1">
+        <v>59.049999237060547</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-33.830001831054688</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="E5" s="5">
-        <v>-1.3919999599456787</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="5">
-        <v>11.5600004196167</v>
-      </c>
-      <c r="E6" s="5">
-        <v>-2</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="5">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="5">
-        <v>-3</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1">
+        <v>63.369998931884766</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-53.069999694824219</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1">
+        <v>65.870002746582031</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-54.0099983215332</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1">
+        <v>68.370002746582031</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-55.180000305175781</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1">
+        <v>78.800003051757813</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-31.989999771118164</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1">
+        <v>80.800003051757813</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-31.989999771118164</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1">
+        <v>82.800003051757813</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-31.989999771118164</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="1">
+        <v>82.080001831054688</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-46.090000152587891</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="1">
+        <v>84.080001831054688</v>
+      </c>
+      <c r="E38" s="1">
+        <v>-46.090000152587891</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="1">
+        <v>81.870002746582031</v>
+      </c>
+      <c r="E39" s="1">
+        <v>-60.599998474121094</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="1">
+        <v>84.370002746582031</v>
+      </c>
+      <c r="E40" s="1">
+        <v>-61.459999084472656</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="1">
+        <v>86.870002746582031</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-62.650001525878906</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1">
+        <v>100.58999633789063</v>
+      </c>
+      <c r="E42" s="1">
+        <v>-65.2699966430664</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="1">
+        <v>102.58999633789063</v>
+      </c>
+      <c r="E43" s="1">
+        <v>-65.2699966430664</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="1">
+        <v>118.80999755859375</v>
+      </c>
+      <c r="E44" s="1">
+        <v>-65.2699966430664</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="1">
+        <v>120.80999755859375</v>
+      </c>
+      <c r="E45" s="1">
+        <v>-65.2699966430664</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="1">
+        <v>120.33999633789063</v>
+      </c>
+      <c r="E46" s="1">
+        <v>-44.970001220703125</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="1">
+        <v>122.33999633789063</v>
+      </c>
+      <c r="E47" s="1">
+        <v>-44.970001220703125</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="1">
+        <v>108.19000244140625</v>
+      </c>
+      <c r="E48" s="1">
+        <v>-31.8799991607666</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="1">
+        <v>110.19000244140625</v>
+      </c>
+      <c r="E49" s="1">
+        <v>-31.8799991607666</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="1">
+        <v>135.35000610351563</v>
+      </c>
+      <c r="E50" s="1">
+        <v>-35.060001373291016</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="1">
+        <v>137.35000610351563</v>
+      </c>
+      <c r="E51" s="1">
+        <v>-35.060001373291016</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="1">
+        <v>139.35000610351563</v>
+      </c>
+      <c r="E52" s="1">
+        <v>-35.060001373291016</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="1">
+        <v>140.75999450683594</v>
+      </c>
+      <c r="E53" s="1">
+        <v>-50.229999542236328</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="1">
+        <v>142.75999450683594</v>
+      </c>
+      <c r="E54" s="1">
+        <v>-50.229999542236328</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="1">
+        <v>144.75999450683594</v>
+      </c>
+      <c r="E55" s="1">
+        <v>-50.229999542236328</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="1">
+        <v>139.17999267578125</v>
+      </c>
+      <c r="E56" s="1">
+        <v>-61.569999694824219</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="1">
+        <v>141.17999267578125</v>
+      </c>
+      <c r="E57" s="1">
+        <v>-61.569999694824219</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="1">
+        <v>143.17999267578125</v>
+      </c>
+      <c r="E58" s="1">
+        <v>-61.569999694824219</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="1">
+        <v>167.22999572753906</v>
+      </c>
+      <c r="E59" s="1">
+        <v>-36.900001525878906</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="1">
+        <v>169.72999572753906</v>
+      </c>
+      <c r="E60" s="1">
+        <v>-36.900001525878906</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="1">
+        <v>172.22999572753906</v>
+      </c>
+      <c r="E61" s="1">
+        <v>-36.900001525878906</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="1">
+        <v>168.16999816894531</v>
+      </c>
+      <c r="E62" s="1">
+        <v>-39.400001525878906</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="1">
+        <v>170.66999816894531</v>
+      </c>
+      <c r="E63" s="1">
+        <v>-39.400001525878906</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="1">
+        <v>173.16999816894531</v>
+      </c>
+      <c r="E64" s="1">
+        <v>-39.400001525878906</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="1">
+        <v>158.63999938964844</v>
+      </c>
+      <c r="E65" s="1">
+        <v>-54.439998626708984</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="1">
+        <v>163.86000061035156</v>
+      </c>
+      <c r="E66" s="1">
+        <v>-51.430000305175781</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="1">
+        <v>168.13999938964844</v>
+      </c>
+      <c r="E67" s="1">
+        <v>-48.700000762939453</v>
+      </c>
+      <c r="F67" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3299,231 +4421,228 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
-    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="1"/>
-    <col min="5" max="5" width="9.16957909720285" customWidth="1" style="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="2"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="2"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>4.5859999656677246</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>5.8299999237060547</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>3.4392979145050049</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>0.534288227558136</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>28.239999771118164</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>-3.6500000953674316</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>11.5600004196167</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>-2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
         <v>8</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
         <v>10</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
         <v>-3</v>
       </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3544,228 +4663,228 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="4"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="4"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="4"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="5"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="5"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>4.5859999656677246</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>5.8299999237060547</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>3.4392979145050049</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>0.534288227558136</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>30</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>-1.3919999599456787</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>11.5600004196167</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5">
         <v>8</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5">
         <v>10</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5">
         <v>2</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5">
         <v>-3</v>
       </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/SpawnData.xlsx
+++ b/Assets/Data/SpawnData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2312029\Documents\FLUFF_SWING\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EC41E8-2727-43BD-A638-9DC67A893B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A44140-89C5-4F1F-AB20-B053E621670A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E4C33777-1E58-4483-B30F-52CA6AAB0A77}"/>
+    <workbookView xWindow="4260" yWindow="2805" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{E4C33777-1E58-4483-B30F-52CA6AAB0A77}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage1" sheetId="7" r:id="rId1"/>
@@ -466,969 +466,969 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="3"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="3"/>
-    <col min="4" max="4" width="11.625" customWidth="1" style="3"/>
-    <col min="5" max="6" width="9.125" customWidth="1" style="3"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="4"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="4"/>
+    <col min="4" max="4" width="11.625" customWidth="1" style="4"/>
+    <col min="5" max="6" width="9.125" customWidth="1" style="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>45.569999694824219</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>46.909999847412109</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>-1.5560001134872437</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>96.0999984741211</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>6.5</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>43.139999389648438</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>-1.4420000314712524</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>59.270000457763672</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>-1.9809999465942383</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4">
         <v>1.2699999809265137</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>-0.99000000953674316</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4">
         <v>6.7100000381469727</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>-1.1599999666213989</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4">
         <v>13.779999732971191</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>-1.2799999713897705</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4">
         <v>18.799999237060547</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>-0.2199999988079071</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4">
         <v>24.260000228881836</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>-1.0700000524520874</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4">
         <v>35.020000457763672</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>-1.0499999523162842</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4">
         <v>39.700000762939453</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>-0.99000000953674316</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4">
         <v>56.400001525878906</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>-0.949999988079071</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4">
         <v>68.319999694824219</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>-0.51999998092651367</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4">
         <v>72.199996948242188</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>-1.1799999475479126</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4">
         <v>80.529998779296875</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <v>-0.05000000074505806</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4">
         <v>85.699996948242188</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <v>7.1700000762939453</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="4">
         <v>90.830001831054688</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>9.9799995422363281</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="4">
         <v>101.44000244140625</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <v>7.820000171661377</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="4">
         <v>195.96000671386719</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>3.869999885559082</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="4">
         <v>197.00999450683594</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="4">
         <v>2.9800000190734863</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="4">
         <v>194.89999389648438</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>4.8000001907348633</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="B24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="4">
         <v>193.41000366210938</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="4">
         <v>5.46999979019165</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="B25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="4">
         <v>193.55999755859375</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="4">
         <v>3.7300000190734863</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="B26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="4">
         <v>195.00999450683594</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="4">
         <v>6.4899997711181641</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="4">
         <v>193.67999267578125</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="4">
         <v>6.8400001525878906</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="B28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="4">
         <v>196.6300048828125</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="4">
         <v>6.2300000190734863</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="B29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="4">
         <v>198.11000061035156</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="4">
         <v>2.0299999713897705</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="B30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="4">
         <v>129.05999755859375</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="4">
         <v>-5.5799999237060547</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="B31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="4">
         <v>130.22999572753906</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="4">
         <v>8.1899995803833</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="B32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="4">
         <v>171.30000305175781</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="4">
         <v>8</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="B33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="4">
         <v>203.27999877929688</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="4">
         <v>3</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="B34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="4">
         <v>190.69999694824219</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="4">
         <v>8.6000003814697266</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="B35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="4">
         <v>181.80000305175781</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="4">
         <v>10.300000190734863</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="B36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="4">
         <v>177.5</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="4">
         <v>8.1000003814697266</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="4">
         <v>96.879997253417969</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="4">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="4">
         <v>125.33000183105469</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="4">
         <v>-7.6100001335144043</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="4">
         <v>197.89999389648438</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="4">
         <v>-0.5</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="4">
         <v>94.639999389648438</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="4">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="4">
         <v>145.19000244140625</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="4">
         <v>-4.630000114440918</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="4">
         <v>153.30000305175781</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="4">
         <v>14.899999618530273</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="4">
         <v>115.59999847412109</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="4">
         <v>14.831999778747559</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="4">
         <v>141.80000305175781</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="4">
         <v>7.7399997711181641</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="4">
         <v>168.19999694824219</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="4">
         <v>-1.4500000476837158</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="4">
         <v>106.40000152587891</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="4">
         <v>7.1869997978210449</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="4">
         <v>185.47000122070313</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="4">
         <v>-0.99500000476837158</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="B48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="4">
         <v>158.39999389648438</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="4">
         <v>10.569999694824219</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1442,1356 +1442,1439 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553F9048-7187-494B-B9A0-C39A0FBB121D}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="4"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="4"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="4"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1" style="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
         <v>6.5</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="1">
         <v>-1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
         <v>8.5</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>-1</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
         <v>10.5</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <v>-1</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
         <v>21.5</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
         <v>23</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
         <v>24.5</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
         <v>26</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
         <v>27.5</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
         <v>24.590000152587891</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="1">
         <v>-24.5</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
         <v>26.090000152587891</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <v>-24.5</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
         <v>27.590000152587891</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="1">
         <v>-24.5</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
         <v>25.239999771118164</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="1">
         <v>-17.5</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
         <v>26.739999771118164</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="1">
         <v>-17.5</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1">
         <v>32.650001525878906</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="1">
         <v>-22.5</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1">
         <v>34.150001525878906</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="1">
         <v>-22.5</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
         <v>35.650001525878906</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="1">
         <v>-22.5</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
         <v>33.650001525878906</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="1">
         <v>-14.300000190734863</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
         <v>38.560001373291016</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="1">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
         <v>40.060001373291016</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="1">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1">
         <v>40.369998931884766</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="1">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1">
         <v>41.869998931884766</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="1">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1">
         <v>43.369998931884766</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="1">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1">
         <v>85.5999984741211</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="1">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1">
         <v>87.0999984741211</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="1">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1">
         <v>88.5999984741211</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="1">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1">
         <v>67.0999984741211</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="1">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="4">
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1">
         <v>68.5999984741211</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="1">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="4">
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1">
         <v>57.909999847412109</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="1">
         <v>-11.300000190734863</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="4">
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1">
         <v>59.409999847412109</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="1">
         <v>-11.300000190734863</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1">
         <v>21.5</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="1">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1">
         <v>23</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="1">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="4">
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1">
         <v>24.5</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="1">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="4">
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1">
         <v>26</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="1">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="4">
+      <c r="B35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1">
         <v>27.5</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="1">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1">
         <v>29</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="1">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="4">
+      <c r="B37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="1">
         <v>18.5</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="1">
         <v>-9</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="4">
+      <c r="B38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="1">
         <v>87.0999984741211</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="1">
         <v>-16</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="4">
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="1">
         <v>88.5999984741211</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="1">
         <v>-16</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="4">
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="1">
         <v>52.310001373291016</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="1">
         <v>-9.3000001907348633</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="4">
+      <c r="B41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="1">
         <v>53.810001373291016</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="1">
         <v>-9.3000001907348633</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="4">
+      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1">
         <v>71.160003662109375</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="1">
         <v>-7.3000001907348633</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="4">
+      <c r="B43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="1">
         <v>72.660003662109375</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="1">
         <v>-7.3000001907348633</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="4">
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="1">
         <v>66.3499984741211</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="1">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="4">
+      <c r="B45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="1">
         <v>67.8499984741211</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="1">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="4">
+      <c r="B46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="1">
         <v>69.3499984741211</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="1">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="4">
+      <c r="B47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="1">
         <v>77.040000915527344</v>
       </c>
-      <c r="E47" s="4">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4">
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="4">
+      <c r="B48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="1">
         <v>86.8499984741211</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="1">
         <v>-0.039999999105930328</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="4">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="4">
+      <c r="B49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="1">
         <v>93.339996337890625</v>
       </c>
-      <c r="E49" s="4">
-        <v>0</v>
-      </c>
-      <c r="F49" s="4">
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="4">
+      <c r="B50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="1">
         <v>98.470001220703125</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="1">
         <v>3.059999942779541</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="4">
+      <c r="B51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="1">
         <v>81.050003051757813</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="1">
         <v>3.8199999332427979</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="4" t="s">
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="1">
         <v>10.779999732971191</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="1">
         <v>5.630000114440918</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="4">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="4" t="s">
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="1">
         <v>28.790000915527344</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="1">
         <v>-25</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="4">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="4" t="s">
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="1">
         <v>89.040000915527344</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="1">
         <v>-17.856000900268555</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="4">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="4" t="s">
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="1">
         <v>121.59999847412109</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="1">
         <v>-6.6100001335144043</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="4">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="4" t="s">
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="1">
         <v>13.430000305175781</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="1">
         <v>-1.5399999618530273</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="4">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="4" t="s">
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="1">
         <v>44</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="1">
         <v>-20.899999618530273</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="4">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="4" t="s">
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="1">
         <v>19.700000762939453</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="1">
         <v>2.2200000286102295</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="4">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="4" t="s">
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="1">
         <v>102.13999938964844</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="1">
         <v>-3.6500000953674316</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="4">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="4" t="s">
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="1">
         <v>77.5199966430664</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="1">
         <v>-10.729999542236328</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="4">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="4" t="s">
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="1">
         <v>59.5</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="1">
         <v>-2.5499999523162842</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="4">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="4">
-        <v>28.299999237060547</v>
-      </c>
-      <c r="E62" s="4">
-        <v>-2.0299999713897705</v>
-      </c>
-      <c r="F62" s="4">
+      <c r="B62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="1">
+        <v>41</v>
+      </c>
+      <c r="E62" s="1">
+        <v>-4.0199999809265137</v>
+      </c>
+      <c r="F62" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="4">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="4">
-        <v>29.600000381469727</v>
-      </c>
-      <c r="E63" s="4">
-        <v>-2.0299999713897705</v>
-      </c>
-      <c r="F63" s="4">
+      <c r="B63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="1">
+        <v>43</v>
+      </c>
+      <c r="E63" s="1">
+        <v>-4.0199999809265137</v>
+      </c>
+      <c r="F63" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="4">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="4">
-        <v>30.899999618530273</v>
-      </c>
-      <c r="E64" s="4">
-        <v>-2.0299999713897705</v>
-      </c>
-      <c r="F64" s="4">
+      <c r="B64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="1">
+        <v>42</v>
+      </c>
+      <c r="E64" s="1">
+        <v>-5.4200000762939453</v>
+      </c>
+      <c r="F64" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="4">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="4">
-        <v>28.299999237060547</v>
-      </c>
-      <c r="E65" s="4">
-        <v>-3.3299999237060547</v>
-      </c>
-      <c r="F65" s="4">
+      <c r="B65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="1">
+        <v>44</v>
+      </c>
+      <c r="E65" s="1">
+        <v>-5.4200000762939453</v>
+      </c>
+      <c r="F65" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="4">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="4">
-        <v>29.600000381469727</v>
-      </c>
-      <c r="E66" s="4">
-        <v>-3.3299999237060547</v>
-      </c>
-      <c r="F66" s="4">
+      <c r="B66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="1">
+        <v>46</v>
+      </c>
+      <c r="E66" s="1">
+        <v>-5.4200000762939453</v>
+      </c>
+      <c r="F66" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="4">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="4">
-        <v>30.899999618530273</v>
-      </c>
-      <c r="E67" s="4">
-        <v>-3.3299999237060547</v>
-      </c>
-      <c r="F67" s="4">
+      <c r="B67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="1">
+        <v>43</v>
+      </c>
+      <c r="E67" s="1">
+        <v>-6.9200000762939453</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="1">
+        <v>45</v>
+      </c>
+      <c r="E68" s="1">
+        <v>-6.9200000762939453</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="1">
+        <v>47</v>
+      </c>
+      <c r="E69" s="1">
+        <v>-6.9200000762939453</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="1">
+        <v>48</v>
+      </c>
+      <c r="E70" s="1">
+        <v>-5.4200000762939453</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="1">
+        <v>49</v>
+      </c>
+      <c r="E71" s="1">
+        <v>-6.9200000762939453</v>
+      </c>
+      <c r="F71" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3049,1357 +3132,1355 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE56395-929E-4EF5-8509-E4B0C3500A90}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
-    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="1"/>
-    <col min="4" max="4" width="11.569690159389" customWidth="1" style="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="2"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="2"/>
+    <col min="4" max="4" width="11.625" customWidth="1" style="2"/>
+    <col min="5" max="6" width="9.125" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>12.819999694824219</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>-9.5200004577636719</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>27.799999237060547</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>-9.5699996948242188</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>110.40000152587891</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>-38.799999237060547</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>58.400001525878906</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>-33.799999237060547</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>95.4000015258789</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>-33.799999237060547</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>126.98000335693359</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>-34.080001831054688</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>121.70999908447266</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>-45.360000610351563</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>145.49000549316406</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>-41.2599983215332</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>118.80000305175781</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>-65.9000015258789</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>155.10000610351563</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>-31.899999618530273</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>138</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>-51.5</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>79.055000305175781</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>-47.428001403808594</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
         <v>-13.329999923706055</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
         <v>-12.029999732971191</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
         <v>-10.729999542236328</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
         <v>-9.4300003051757813</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
         <v>-8.130000114440918</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
         <v>10.079999923706055</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2">
         <v>12.079999923706055</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2">
         <v>22.420000076293945</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2">
         <v>24.420000076293945</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2">
         <v>39.540000915527344</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>-13.289999961853027</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2">
         <v>41.540000915527344</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>-13.289999961853027</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
         <v>39.069999694824219</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>-15.789999961853027</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2">
         <v>41.069999694824219</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>-15.789999961853027</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2">
         <v>38.459999084472656</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>-18.290000915527344</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
         <v>40.459999084472656</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>-18.290000915527344</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2">
         <v>57.049999237060547</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>-33.830001831054688</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2">
         <v>59.049999237060547</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>-33.830001831054688</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2">
         <v>63.369998931884766</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>-53.069999694824219</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2">
         <v>65.870002746582031</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>-54.0099983215332</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2">
         <v>68.370002746582031</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>-55.180000305175781</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2">
         <v>78.800003051757813</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>-31.989999771118164</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2">
         <v>80.800003051757813</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>-31.989999771118164</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2">
         <v>82.800003051757813</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>-31.989999771118164</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2">
         <v>82.080001831054688</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>-46.090000152587891</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2">
         <v>84.080001831054688</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <v>-46.090000152587891</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="2">
         <v>81.870002746582031</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>-60.599998474121094</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2">
         <v>84.370002746582031</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <v>-61.459999084472656</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="2">
         <v>86.870002746582031</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>-62.650001525878906</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2">
         <v>100.58999633789063</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2">
         <v>102.58999633789063</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2">
         <v>118.80999755859375</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="2">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="2">
         <v>120.80999755859375</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="2">
         <v>120.33999633789063</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="2">
         <v>-44.970001220703125</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2">
         <v>122.33999633789063</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="2">
         <v>-44.970001220703125</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="B48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2">
         <v>108.19000244140625</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="2">
         <v>-31.8799991607666</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="B49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="2">
         <v>110.19000244140625</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="2">
         <v>-31.8799991607666</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="2">
         <v>135.35000610351563</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="2">
         <v>-35.060001373291016</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="2">
         <v>137.35000610351563</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="2">
         <v>-35.060001373291016</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="1">
+      <c r="B52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="2">
         <v>139.35000610351563</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="2">
         <v>-35.060001373291016</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="B53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="2">
         <v>140.75999450683594</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="2">
         <v>-50.229999542236328</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="1">
+      <c r="B54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="2">
         <v>142.75999450683594</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="2">
         <v>-50.229999542236328</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="1">
+      <c r="B55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="2">
         <v>144.75999450683594</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="2">
         <v>-50.229999542236328</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="1">
+      <c r="B56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="2">
         <v>139.17999267578125</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="2">
         <v>-61.569999694824219</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="1">
+      <c r="B57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="2">
         <v>141.17999267578125</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="2">
         <v>-61.569999694824219</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="1">
+      <c r="B58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="2">
         <v>143.17999267578125</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="2">
         <v>-61.569999694824219</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="1">
+      <c r="B59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="2">
         <v>167.22999572753906</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="2">
         <v>-36.900001525878906</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="1">
+      <c r="B60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="2">
         <v>169.72999572753906</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="2">
         <v>-36.900001525878906</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="1">
+      <c r="B61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="2">
         <v>172.22999572753906</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="2">
         <v>-36.900001525878906</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="1">
+      <c r="B62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="2">
         <v>168.16999816894531</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="2">
         <v>-39.400001525878906</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1">
+      <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="1">
+      <c r="B63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="2">
         <v>170.66999816894531</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="2">
         <v>-39.400001525878906</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="B64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="2">
         <v>173.16999816894531</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="2">
         <v>-39.400001525878906</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="1">
+      <c r="B65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="2">
         <v>158.63999938964844</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="2">
         <v>-54.439998626708984</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="1">
+      <c r="B66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="2">
         <v>163.86000061035156</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="2">
         <v>-51.430000305175781</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="1">
+      <c r="B67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="2">
         <v>168.13999938964844</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="2">
         <v>-48.700000762939453</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4421,228 +4502,228 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="2"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="2"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="2"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="3"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="3"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>4.5859999656677246</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>5.8299999237060547</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>3.4392979145050049</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>0.534288227558136</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>28.239999771118164</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>-3.6500000953674316</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>11.5600004196167</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>-2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3">
         <v>8</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3">
         <v>10</v>
       </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3">
         <v>-3</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/SpawnData.xlsx
+++ b/Assets/Data/SpawnData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2312029\Documents\FLUFF_SWING\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2312004\Documents\FLUFF_SWING\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A44140-89C5-4F1F-AB20-B053E621670A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B439F46-5161-42ED-9982-EA0A036CF184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="2805" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{E4C33777-1E58-4483-B30F-52CA6AAB0A77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{E4C33777-1E58-4483-B30F-52CA6AAB0A77}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage1" sheetId="7" r:id="rId1"/>
@@ -1444,1437 +1444,1434 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553F9048-7187-494B-B9A0-C39A0FBB121D}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
-    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="2"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="2"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2">
         <v>6.5</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>-1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2">
         <v>8.5</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>-1</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
         <v>10.5</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>-1</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
         <v>21.5</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
         <v>23</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
         <v>24.5</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
         <v>26</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
         <v>27.5</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
         <v>24.590000152587891</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>-24.5</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
         <v>26.090000152587891</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>-24.5</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
         <v>27.590000152587891</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>-24.5</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
         <v>25.239999771118164</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>-17.5</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
         <v>26.739999771118164</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>-17.5</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
         <v>32.650001525878906</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>-22.5</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
         <v>34.150001525878906</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>-22.5</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
         <v>35.650001525878906</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>-22.5</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
         <v>33.650001525878906</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>-14.300000190734863</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
         <v>38.560001373291016</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2">
         <v>40.060001373291016</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2">
         <v>40.369998931884766</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2">
         <v>41.869998931884766</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2">
         <v>43.369998931884766</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2">
         <v>85.5999984741211</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
         <v>87.0999984741211</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2">
         <v>88.5999984741211</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2">
         <v>67.0999984741211</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
         <v>68.5999984741211</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2">
         <v>57.909999847412109</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>-11.300000190734863</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2">
         <v>59.409999847412109</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>-11.300000190734863</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2">
         <v>21.5</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2">
         <v>23</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2">
         <v>24.5</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2">
         <v>26</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2">
         <v>27.5</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2">
         <v>29</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2">
         <v>18.5</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>-9</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2">
         <v>87.0999984741211</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <v>-16</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="2">
         <v>88.5999984741211</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>-16</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2">
         <v>52.310001373291016</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <v>-9.3000001907348633</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="2">
         <v>53.810001373291016</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>-9.3000001907348633</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2">
         <v>71.160003662109375</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>-7.3000001907348633</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2">
         <v>72.660003662109375</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>-7.3000001907348633</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2">
         <v>66.3499984741211</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="2">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="2">
         <v>67.8499984741211</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="2">
         <v>69.3499984741211</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="2">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2">
         <v>77.040000915527344</v>
       </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="B48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2">
         <v>86.8499984741211</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="2">
         <v>-0.039999999105930328</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="B49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="2">
         <v>93.339996337890625</v>
       </c>
-      <c r="E49" s="1">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="2">
         <v>98.470001220703125</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="2">
         <v>3.059999942779541</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="2">
         <v>81.050003051757813</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="2">
         <v>3.8199999332427979</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <v>10.779999732971191</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="2">
         <v>5.630000114440918</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="2">
         <v>28.790000915527344</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="2">
         <v>-25</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="2">
         <v>89.040000915527344</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="2">
         <v>-17.856000900268555</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="2">
         <v>121.59999847412109</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="2">
         <v>-6.6100001335144043</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="2">
         <v>13.430000305175781</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="2">
         <v>-1.5399999618530273</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="2">
         <v>44</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="2">
         <v>-20.899999618530273</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="2">
         <v>19.700000762939453</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="2">
         <v>2.2200000286102295</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="2">
         <v>102.13999938964844</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="2">
         <v>-3.6500000953674316</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="B60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="2">
         <v>77.5199966430664</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="2">
         <v>-10.729999542236328</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="B61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="2">
         <v>59.5</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="2">
         <v>-2.5499999523162842</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="1">
+      <c r="B62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="2">
         <v>41</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="2">
         <v>-4.0199999809265137</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1">
+      <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="1">
+      <c r="B63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="2">
         <v>43</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="2">
         <v>-4.0199999809265137</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="B64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="2">
         <v>42</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="2">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="1">
+      <c r="B65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="2">
         <v>44</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="2">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="1">
+      <c r="B66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="2">
         <v>46</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="2">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="1">
+      <c r="B67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="2">
         <v>43</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="2">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="1">
+      <c r="B68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="2">
         <v>45</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="2">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1">
+      <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="1">
+      <c r="B69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="2">
         <v>47</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="2">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1">
+      <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="1">
+      <c r="B70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="2">
         <v>48</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="2">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1">
+      <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="1">
+      <c r="B71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="2">
         <v>49</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="2">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3138,1349 +3135,1349 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="2"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="2"/>
-    <col min="4" max="4" width="11.625" customWidth="1" style="2"/>
-    <col min="5" max="6" width="9.125" customWidth="1" style="2"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="3"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="3"/>
+    <col min="4" max="4" width="11.625" customWidth="1" style="3"/>
+    <col min="5" max="6" width="9.125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>12.819999694824219</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>-9.5200004577636719</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>27.799999237060547</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>-9.5699996948242188</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>110.40000152587891</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>-38.799999237060547</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>58.400001525878906</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>-33.799999237060547</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>95.4000015258789</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>-33.799999237060547</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>126.98000335693359</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>-34.080001831054688</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>121.70999908447266</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>-45.360000610351563</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>145.49000549316406</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>-41.2599983215332</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>118.80000305175781</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>-65.9000015258789</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>155.10000610351563</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>-31.899999618530273</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>138</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>-51.5</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>79.055000305175781</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>-47.428001403808594</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3">
         <v>-13.329999923706055</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3">
         <v>-12.029999732971191</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
         <v>-10.729999542236328</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
         <v>-9.4300003051757813</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
         <v>-8.130000114440918</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3">
         <v>10.079999923706055</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3">
         <v>12.079999923706055</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3">
         <v>22.420000076293945</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3">
         <v>24.420000076293945</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3">
         <v>39.540000915527344</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <v>-13.289999961853027</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3">
         <v>41.540000915527344</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="3">
         <v>-13.289999961853027</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3">
         <v>39.069999694824219</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <v>-15.789999961853027</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3">
         <v>41.069999694824219</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="3">
         <v>-15.789999961853027</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3">
         <v>38.459999084472656</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <v>-18.290000915527344</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3">
         <v>40.459999084472656</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="3">
         <v>-18.290000915527344</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3">
         <v>57.049999237060547</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="3">
         <v>-33.830001831054688</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3">
         <v>59.049999237060547</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="3">
         <v>-33.830001831054688</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3">
         <v>63.369998931884766</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <v>-53.069999694824219</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="B32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3">
         <v>65.870002746582031</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="3">
         <v>-54.0099983215332</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="B33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3">
         <v>68.370002746582031</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="3">
         <v>-55.180000305175781</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="B34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3">
         <v>78.800003051757813</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="3">
         <v>-31.989999771118164</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3">
         <v>80.800003051757813</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="3">
         <v>-31.989999771118164</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="B36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3">
         <v>82.800003051757813</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="3">
         <v>-31.989999771118164</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="B37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3">
         <v>82.080001831054688</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="3">
         <v>-46.090000152587891</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="B38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="3">
         <v>84.080001831054688</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="3">
         <v>-46.090000152587891</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2">
+      <c r="B39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="3">
         <v>81.870002746582031</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="3">
         <v>-60.599998474121094</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="2">
+      <c r="B40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="3">
         <v>84.370002746582031</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="3">
         <v>-61.459999084472656</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="3">
         <v>86.870002746582031</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="3">
         <v>-62.650001525878906</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="2">
+      <c r="B42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="3">
         <v>100.58999633789063</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="3">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="2">
+      <c r="B43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="3">
         <v>102.58999633789063</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="3">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="B44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="3">
         <v>118.80999755859375</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="3">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="2">
+      <c r="B45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="3">
         <v>120.80999755859375</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="3">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="B46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="3">
         <v>120.33999633789063</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="3">
         <v>-44.970001220703125</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="2">
+      <c r="B47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="3">
         <v>122.33999633789063</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="3">
         <v>-44.970001220703125</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="2">
+      <c r="B48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="3">
         <v>108.19000244140625</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="3">
         <v>-31.8799991607666</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="2">
+      <c r="B49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="3">
         <v>110.19000244140625</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="3">
         <v>-31.8799991607666</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="2">
+      <c r="B50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="3">
         <v>135.35000610351563</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="3">
         <v>-35.060001373291016</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="2">
+      <c r="B51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="3">
         <v>137.35000610351563</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="3">
         <v>-35.060001373291016</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="2">
+      <c r="B52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="3">
         <v>139.35000610351563</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="3">
         <v>-35.060001373291016</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="2">
+      <c r="B53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="3">
         <v>140.75999450683594</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="3">
         <v>-50.229999542236328</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="2">
+      <c r="B54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="3">
         <v>142.75999450683594</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="3">
         <v>-50.229999542236328</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="2">
+      <c r="B55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="3">
         <v>144.75999450683594</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="3">
         <v>-50.229999542236328</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="2">
+      <c r="B56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="3">
         <v>139.17999267578125</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="3">
         <v>-61.569999694824219</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="2">
+      <c r="B57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="3">
         <v>141.17999267578125</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="3">
         <v>-61.569999694824219</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="2">
+      <c r="B58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="3">
         <v>143.17999267578125</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="3">
         <v>-61.569999694824219</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="2">
+      <c r="B59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="3">
         <v>167.22999572753906</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="3">
         <v>-36.900001525878906</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="2">
+      <c r="B60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="3">
         <v>169.72999572753906</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="3">
         <v>-36.900001525878906</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="2">
+      <c r="B61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="3">
         <v>172.22999572753906</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="3">
         <v>-36.900001525878906</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="2">
+      <c r="B62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="3">
         <v>168.16999816894531</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="3">
         <v>-39.400001525878906</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="2">
+      <c r="B63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="3">
         <v>170.66999816894531</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="3">
         <v>-39.400001525878906</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="2">
+      <c r="B64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="3">
         <v>173.16999816894531</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="3">
         <v>-39.400001525878906</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="2">
+      <c r="B65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="3">
         <v>158.63999938964844</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="3">
         <v>-54.439998626708984</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="2">
+      <c r="B66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="3">
         <v>163.86000061035156</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="3">
         <v>-51.430000305175781</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="2">
+      <c r="B67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="3">
         <v>168.13999938964844</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="3">
         <v>-48.700000762939453</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4494,242 +4491,1066 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4707741F-BFD4-4FF4-A1EB-A627D15E0B90}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F11"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="3"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="3"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="3"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1" style="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>4.5859999656677246</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>5.8299999237060547</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
-        <v>3.4392979145050049</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.534288227558136</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="D4" s="1">
+        <v>41.799999237060547</v>
+      </c>
+      <c r="E4" s="1">
+        <v>79.800003051757813</v>
+      </c>
+      <c r="F4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3">
-        <v>28.239999771118164</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-3.6500000953674316</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="D5" s="1">
+        <v>13.350000381469727</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.6159999370574951</v>
+      </c>
+      <c r="F5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>11.5600004196167</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>-2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.52999997138977051</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.52999997138977051</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6.619999885559082</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.5800004005432129</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10.699999809265137</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5.5900001525878906</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.5899999141693115</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8.3600006103515625</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-0.85000002384185791</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7.9800000190734863</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-2.8299999237060547</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7.96999979019165</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-4.940000057220459</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8.0299997329711914</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-8.4399995803833</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10.079999923706055</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-6.6399998664855957</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10.119999885559082</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-2.5999999046325684</v>
+      </c>
+      <c r="E16" s="1">
+        <v>11.859999656677246</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>15.019998550415039</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3.7000000476837158</v>
+      </c>
+      <c r="E18" s="1">
+        <v>17.840000152587891</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.51999998092651367</v>
+      </c>
+      <c r="E19" s="1">
+        <v>20.75</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
+        <v>9.1499996185302734</v>
+      </c>
+      <c r="E20" s="1">
+        <v>23.200000762939453</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1">
+        <v>11.409999847412109</v>
+      </c>
+      <c r="E21" s="1">
+        <v>23.180000305175781</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3.630000114440918</v>
+      </c>
+      <c r="E22" s="1">
+        <v>23.170000076293945</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6.7100000381469727</v>
+      </c>
+      <c r="E23" s="1">
+        <v>28.360000610351563</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.51999998092651367</v>
+      </c>
+      <c r="E24" s="1">
+        <v>28.8799991607666</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-4.5799999237060547</v>
+      </c>
+      <c r="E25" s="1">
+        <v>30.940000534057617</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-0.550000011920929</v>
+      </c>
+      <c r="E26" s="1">
+        <v>34.3900032043457</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5.6399998664855957</v>
+      </c>
+      <c r="E27" s="1">
+        <v>36.570003509521484</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>40.570003509521484</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8.8900003433227539</v>
+      </c>
+      <c r="E29" s="1">
+        <v>47.889999389648438</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.6000000238418579</v>
+      </c>
+      <c r="E30" s="1">
+        <v>61.860000610351563</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1">
+        <v>46.450000762939453</v>
+      </c>
+      <c r="E31" s="1">
+        <v>87.260002136230469</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1">
+        <v>53.400001525878906</v>
+      </c>
+      <c r="E32" s="1">
+        <v>101.30000305175781</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-7.929999828338623</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1.6299999952316284</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-7.4499998092651367</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8.7700004577636719</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-8.6899995803833</v>
+      </c>
+      <c r="E35" s="1">
+        <v>31.200000762939453</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1">
+        <v>13.260000228881836</v>
+      </c>
+      <c r="E36" s="1">
+        <v>30.180000305175781</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1">
+        <v>12.800000190734863</v>
+      </c>
+      <c r="E37" s="1">
+        <v>38.354000091552734</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1">
+        <v>12.680000305175781</v>
+      </c>
+      <c r="E38" s="1">
+        <v>47.531002044677734</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3">
+      <c r="D39" s="1">
+        <v>-6.21999979019165</v>
+      </c>
+      <c r="E39" s="1">
+        <v>7.5799999237060547</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1">
+        <v>11.930000305175781</v>
+      </c>
+      <c r="E40" s="1">
+        <v>22.889999389648438</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-7.6500000953674316</v>
+      </c>
+      <c r="E41" s="1">
+        <v>26.8799991607666</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="1">
+        <v>-16.360000610351563</v>
+      </c>
+      <c r="E42" s="1">
+        <v>70.830001831054688</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1">
+        <v>19.069999694824219</v>
+      </c>
+      <c r="E43" s="1">
+        <v>70.80999755859375</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3">
+      <c r="D44" s="1">
+        <v>-4.8400001525878906</v>
+      </c>
+      <c r="E44" s="1">
+        <v>7.5500001907348633</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1">
+        <v>13.239999771118164</v>
+      </c>
+      <c r="E45" s="1">
+        <v>22.909999847412109</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1">
+        <v>-8.6700000762939453</v>
+      </c>
+      <c r="E46" s="1">
+        <v>27.940000534057617</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1">
+        <v>-17.569999694824219</v>
+      </c>
+      <c r="E47" s="1">
+        <v>70.830001831054688</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="E48" s="1">
+        <v>70.800003051757813</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-3</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="D49" s="1">
+        <v>56</v>
+      </c>
+      <c r="E49" s="1">
+        <v>103.5</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="1">
+        <v>10.489999771118164</v>
+      </c>
+      <c r="E50" s="1">
+        <v>46.930000305175781</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="1">
+        <v>-8.869999885559082</v>
+      </c>
+      <c r="E51" s="1">
+        <v>70.389999389648438</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="1">
+        <v>15.979999542236328</v>
+      </c>
+      <c r="E52" s="1">
+        <v>70.379997253417969</v>
+      </c>
+      <c r="F52" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>

--- a/Assets/Data/SpawnData.xlsx
+++ b/Assets/Data/SpawnData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2312029\Documents\FLUFF_SWING\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A44140-89C5-4F1F-AB20-B053E621670A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB96D7D-458D-427A-9948-CBE141204A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="2805" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{E4C33777-1E58-4483-B30F-52CA6AAB0A77}"/>
+    <workbookView xWindow="4260" yWindow="2805" windowWidth="21600" windowHeight="11295" activeTab="5" xr2:uid="{E4C33777-1E58-4483-B30F-52CA6AAB0A77}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage1" sheetId="7" r:id="rId1"/>
@@ -466,969 +466,969 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="4"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="4"/>
-    <col min="4" max="4" width="11.625" customWidth="1" style="4"/>
-    <col min="5" max="6" width="9.125" customWidth="1" style="4"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="5"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="5"/>
+    <col min="4" max="4" width="11.625" customWidth="1" style="5"/>
+    <col min="5" max="6" width="9.125" customWidth="1" style="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>45.569999694824219</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>46.909999847412109</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>-1.5560001134872437</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>96.0999984741211</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>6.5</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>43.139999389648438</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>-1.4420000314712524</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>59.270000457763672</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>-1.9809999465942383</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5">
         <v>1.2699999809265137</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>-0.99000000953674316</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5">
         <v>6.7100000381469727</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>-1.1599999666213989</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5">
         <v>13.779999732971191</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>-1.2799999713897705</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5">
         <v>18.799999237060547</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>-0.2199999988079071</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5">
         <v>24.260000228881836</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>-1.0700000524520874</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5">
         <v>35.020000457763672</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>-1.0499999523162842</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5">
         <v>39.700000762939453</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>-0.99000000953674316</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5">
         <v>56.400001525878906</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <v>-0.949999988079071</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5">
         <v>68.319999694824219</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <v>-0.51999998092651367</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5">
         <v>72.199996948242188</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <v>-1.1799999475479126</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5">
         <v>80.529998779296875</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <v>-0.05000000074505806</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5">
         <v>85.699996948242188</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
         <v>7.1700000762939453</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="5">
         <v>90.830001831054688</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="5">
         <v>9.9799995422363281</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5">
         <v>101.44000244140625</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
         <v>7.820000171661377</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="5">
         <v>195.96000671386719</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="5">
         <v>3.869999885559082</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="B22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="5">
         <v>197.00999450683594</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5">
         <v>2.9800000190734863</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="5">
         <v>194.89999389648438</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="5">
         <v>4.8000001907348633</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="B24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="5">
         <v>193.41000366210938</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="5">
         <v>5.46999979019165</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="B25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="5">
         <v>193.55999755859375</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="5">
         <v>3.7300000190734863</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="5">
         <v>195.00999450683594</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="5">
         <v>6.4899997711181641</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="B27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="5">
         <v>193.67999267578125</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="5">
         <v>6.8400001525878906</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="4">
+      <c r="B28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="5">
         <v>196.6300048828125</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="5">
         <v>6.2300000190734863</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="4">
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="5">
         <v>198.11000061035156</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="5">
         <v>2.0299999713897705</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="4">
+      <c r="B30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="5">
         <v>129.05999755859375</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="5">
         <v>-5.5799999237060547</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="B31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="5">
         <v>130.22999572753906</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="5">
         <v>8.1899995803833</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="B32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="5">
         <v>171.30000305175781</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="5">
         <v>8</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="4">
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="5">
         <v>203.27999877929688</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="5">
         <v>3</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="4">
+      <c r="B34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="5">
         <v>190.69999694824219</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="5">
         <v>8.6000003814697266</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="4">
+      <c r="B35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="5">
         <v>181.80000305175781</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="5">
         <v>10.300000190734863</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="B36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="5">
         <v>177.5</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="5">
         <v>8.1000003814697266</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="B37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="5">
         <v>96.879997253417969</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="5">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="B38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="5">
         <v>125.33000183105469</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="5">
         <v>-7.6100001335144043</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="B39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="5">
         <v>197.89999389648438</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="5">
         <v>-0.5</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="5">
         <v>94.639999389648438</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="5">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="B41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="5">
         <v>145.19000244140625</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="5">
         <v>-4.630000114440918</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="B42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="5">
         <v>153.30000305175781</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="5">
         <v>14.899999618530273</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="B43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="5">
         <v>115.59999847412109</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="5">
         <v>14.831999778747559</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="B44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="5">
         <v>141.80000305175781</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="5">
         <v>7.7399997711181641</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="4" t="s">
+      <c r="B45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="5">
         <v>168.19999694824219</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="5">
         <v>-1.4500000476837158</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="4" t="s">
+      <c r="B46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="5">
         <v>106.40000152587891</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="5">
         <v>7.1869997978210449</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="B47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="5">
         <v>185.47000122070313</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="5">
         <v>-0.99500000476837158</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="4" t="s">
+      <c r="B48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="5">
         <v>158.39999389648438</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="5">
         <v>10.569999694824219</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1444,1437 +1444,1434 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553F9048-7187-494B-B9A0-C39A0FBB121D}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
-    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="2"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="2"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2">
         <v>6.5</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>-1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2">
         <v>8.5</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>-1</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
         <v>10.5</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>-1</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
         <v>21.5</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
         <v>23</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
         <v>24.5</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
         <v>26</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
         <v>27.5</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
         <v>24.590000152587891</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>-24.5</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
         <v>26.090000152587891</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>-24.5</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
         <v>27.590000152587891</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>-24.5</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
         <v>25.239999771118164</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>-17.5</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
         <v>26.739999771118164</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>-17.5</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
         <v>32.650001525878906</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>-22.5</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
         <v>34.150001525878906</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>-22.5</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
         <v>35.650001525878906</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>-22.5</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
         <v>33.650001525878906</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>-14.300000190734863</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
         <v>38.560001373291016</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2">
         <v>40.060001373291016</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2">
         <v>40.369998931884766</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2">
         <v>41.869998931884766</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2">
         <v>43.369998931884766</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2">
         <v>85.5999984741211</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
         <v>87.0999984741211</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2">
         <v>88.5999984741211</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2">
         <v>67.0999984741211</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
         <v>68.5999984741211</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2">
         <v>57.909999847412109</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>-11.300000190734863</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2">
         <v>59.409999847412109</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>-11.300000190734863</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2">
         <v>21.5</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2">
         <v>23</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2">
         <v>24.5</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2">
         <v>26</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2">
         <v>27.5</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2">
         <v>29</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2">
         <v>18.5</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>-9</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2">
         <v>87.0999984741211</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <v>-16</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="2">
         <v>88.5999984741211</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>-16</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2">
         <v>52.310001373291016</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <v>-9.3000001907348633</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="2">
         <v>53.810001373291016</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>-9.3000001907348633</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2">
         <v>71.160003662109375</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>-7.3000001907348633</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2">
         <v>72.660003662109375</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>-7.3000001907348633</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2">
         <v>66.3499984741211</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="2">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="2">
         <v>67.8499984741211</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="2">
         <v>69.3499984741211</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="2">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2">
         <v>77.040000915527344</v>
       </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="B48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2">
         <v>86.8499984741211</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="2">
         <v>-0.039999999105930328</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="B49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="2">
         <v>93.339996337890625</v>
       </c>
-      <c r="E49" s="1">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="2">
         <v>98.470001220703125</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="2">
         <v>3.059999942779541</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="2">
         <v>81.050003051757813</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="2">
         <v>3.8199999332427979</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <v>10.779999732971191</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="2">
         <v>5.630000114440918</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="2">
         <v>28.790000915527344</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="2">
         <v>-25</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="2">
         <v>89.040000915527344</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="2">
         <v>-17.856000900268555</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="2">
         <v>121.59999847412109</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="2">
         <v>-6.6100001335144043</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="2">
         <v>13.430000305175781</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="2">
         <v>-1.5399999618530273</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="2">
         <v>44</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="2">
         <v>-20.899999618530273</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="2">
         <v>19.700000762939453</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="2">
         <v>2.2200000286102295</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="2">
         <v>102.13999938964844</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="2">
         <v>-3.6500000953674316</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="B60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="2">
         <v>77.5199966430664</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="2">
         <v>-10.729999542236328</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="B61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="2">
         <v>59.5</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="2">
         <v>-2.5499999523162842</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="1">
+      <c r="B62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="2">
         <v>41</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="2">
         <v>-4.0199999809265137</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1">
+      <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="1">
+      <c r="B63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="2">
         <v>43</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="2">
         <v>-4.0199999809265137</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="B64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="2">
         <v>42</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="2">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="1">
+      <c r="B65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="2">
         <v>44</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="2">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="1">
+      <c r="B66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="2">
         <v>46</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="2">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="1">
+      <c r="B67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="2">
         <v>43</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="2">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="1">
+      <c r="B68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="2">
         <v>45</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="2">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1">
+      <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="1">
+      <c r="B69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="2">
         <v>47</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="2">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1">
+      <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="1">
+      <c r="B70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="2">
         <v>48</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="2">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1">
+      <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="1">
+      <c r="B71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="2">
         <v>49</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="2">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3138,1349 +3135,1349 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="2"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="2"/>
-    <col min="4" max="4" width="11.625" customWidth="1" style="2"/>
-    <col min="5" max="6" width="9.125" customWidth="1" style="2"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="3"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="3"/>
+    <col min="4" max="4" width="11.625" customWidth="1" style="3"/>
+    <col min="5" max="6" width="9.125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>12.819999694824219</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>-9.5200004577636719</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>27.799999237060547</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>-9.5699996948242188</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>110.40000152587891</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>-38.799999237060547</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>58.400001525878906</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>-33.799999237060547</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>95.4000015258789</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>-33.799999237060547</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>126.98000335693359</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>-34.080001831054688</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>121.70999908447266</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>-45.360000610351563</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>145.49000549316406</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>-41.2599983215332</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>118.80000305175781</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>-65.9000015258789</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>155.10000610351563</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>-31.899999618530273</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>138</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>-51.5</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>79.055000305175781</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>-47.428001403808594</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3">
         <v>-13.329999923706055</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3">
         <v>-12.029999732971191</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
         <v>-10.729999542236328</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
         <v>-9.4300003051757813</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
         <v>-8.130000114440918</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3">
         <v>10.079999923706055</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3">
         <v>12.079999923706055</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3">
         <v>22.420000076293945</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3">
         <v>24.420000076293945</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3">
         <v>39.540000915527344</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <v>-13.289999961853027</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3">
         <v>41.540000915527344</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="3">
         <v>-13.289999961853027</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3">
         <v>39.069999694824219</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <v>-15.789999961853027</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3">
         <v>41.069999694824219</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="3">
         <v>-15.789999961853027</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3">
         <v>38.459999084472656</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <v>-18.290000915527344</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3">
         <v>40.459999084472656</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="3">
         <v>-18.290000915527344</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3">
         <v>57.049999237060547</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="3">
         <v>-33.830001831054688</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3">
         <v>59.049999237060547</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="3">
         <v>-33.830001831054688</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3">
         <v>63.369998931884766</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <v>-53.069999694824219</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="B32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3">
         <v>65.870002746582031</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="3">
         <v>-54.0099983215332</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="B33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3">
         <v>68.370002746582031</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="3">
         <v>-55.180000305175781</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="B34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3">
         <v>78.800003051757813</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="3">
         <v>-31.989999771118164</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3">
         <v>80.800003051757813</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="3">
         <v>-31.989999771118164</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="B36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3">
         <v>82.800003051757813</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="3">
         <v>-31.989999771118164</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="B37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3">
         <v>82.080001831054688</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="3">
         <v>-46.090000152587891</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="B38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="3">
         <v>84.080001831054688</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="3">
         <v>-46.090000152587891</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2">
+      <c r="B39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="3">
         <v>81.870002746582031</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="3">
         <v>-60.599998474121094</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="2">
+      <c r="B40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="3">
         <v>84.370002746582031</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="3">
         <v>-61.459999084472656</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="3">
         <v>86.870002746582031</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="3">
         <v>-62.650001525878906</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="2">
+      <c r="B42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="3">
         <v>100.58999633789063</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="3">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="2">
+      <c r="B43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="3">
         <v>102.58999633789063</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="3">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="B44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="3">
         <v>118.80999755859375</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="3">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="2">
+      <c r="B45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="3">
         <v>120.80999755859375</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="3">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="B46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="3">
         <v>120.33999633789063</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="3">
         <v>-44.970001220703125</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="2">
+      <c r="B47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="3">
         <v>122.33999633789063</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="3">
         <v>-44.970001220703125</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="2">
+      <c r="B48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="3">
         <v>108.19000244140625</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="3">
         <v>-31.8799991607666</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="2">
+      <c r="B49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="3">
         <v>110.19000244140625</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="3">
         <v>-31.8799991607666</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="2">
+      <c r="B50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="3">
         <v>135.35000610351563</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="3">
         <v>-35.060001373291016</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="2">
+      <c r="B51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="3">
         <v>137.35000610351563</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="3">
         <v>-35.060001373291016</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="2">
+      <c r="B52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="3">
         <v>139.35000610351563</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="3">
         <v>-35.060001373291016</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="2">
+      <c r="B53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="3">
         <v>140.75999450683594</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="3">
         <v>-50.229999542236328</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="2">
+      <c r="B54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="3">
         <v>142.75999450683594</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="3">
         <v>-50.229999542236328</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="2">
+      <c r="B55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="3">
         <v>144.75999450683594</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="3">
         <v>-50.229999542236328</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="2">
+      <c r="B56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="3">
         <v>139.17999267578125</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="3">
         <v>-61.569999694824219</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="2">
+      <c r="B57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="3">
         <v>141.17999267578125</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="3">
         <v>-61.569999694824219</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="2">
+      <c r="B58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="3">
         <v>143.17999267578125</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="3">
         <v>-61.569999694824219</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="2">
+      <c r="B59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="3">
         <v>167.22999572753906</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="3">
         <v>-36.900001525878906</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="2">
+      <c r="B60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="3">
         <v>169.72999572753906</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="3">
         <v>-36.900001525878906</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="2">
+      <c r="B61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="3">
         <v>172.22999572753906</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="3">
         <v>-36.900001525878906</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="2">
+      <c r="B62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="3">
         <v>168.16999816894531</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="3">
         <v>-39.400001525878906</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="2">
+      <c r="B63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="3">
         <v>170.66999816894531</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="3">
         <v>-39.400001525878906</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="2">
+      <c r="B64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="3">
         <v>173.16999816894531</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="3">
         <v>-39.400001525878906</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="2">
+      <c r="B65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="3">
         <v>158.63999938964844</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="3">
         <v>-54.439998626708984</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="2">
+      <c r="B66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="3">
         <v>163.86000061035156</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="3">
         <v>-51.430000305175781</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="2">
+      <c r="B67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="3">
         <v>168.13999938964844</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="3">
         <v>-48.700000762939453</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4502,228 +4499,228 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="3"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="3"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="3"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="4"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="4"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>4.5859999656677246</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>5.8299999237060547</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>3.4392979145050049</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>0.534288227558136</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>28.239999771118164</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>-3.6500000953674316</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>11.5600004196167</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>-2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4">
         <v>8</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4">
         <v>10</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4">
         <v>-3</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4736,242 +4733,146 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC3EC72-CD05-47A9-88E1-A68A610EEEE2}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="5"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="5"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="5"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="33.5737806047712" customWidth="1" style="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1" style="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5">
-        <v>4.5859999656677246</v>
-      </c>
-      <c r="E2" s="5">
-        <v>-1.6239999532699585</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5">
-        <v>5.8299999237060547</v>
-      </c>
-      <c r="E3" s="5">
-        <v>-1.6239999532699585</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
-        <v>3.4392979145050049</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.534288227558136</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5">
-        <v>30</v>
-      </c>
-      <c r="E5" s="5">
-        <v>-1.3919999599456787</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="5">
-        <v>11.5600004196167</v>
-      </c>
-      <c r="E6" s="5">
-        <v>-2</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="5">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="5">
-        <v>-3</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Data/SpawnData.xlsx
+++ b/Assets/Data/SpawnData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2312004\Documents\FLUFF_SWING\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2312029\Documents\FLUFF_SWING\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B439F46-5161-42ED-9982-EA0A036CF184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7895ED75-6F4A-4530-A52A-7FB2E040EE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{E4C33777-1E58-4483-B30F-52CA6AAB0A77}"/>
+    <workbookView xWindow="4260" yWindow="2805" windowWidth="21600" windowHeight="11295" activeTab="5" xr2:uid="{E4C33777-1E58-4483-B30F-52CA6AAB0A77}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage1" sheetId="7" r:id="rId1"/>
@@ -466,969 +466,969 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="4"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="4"/>
-    <col min="4" max="4" width="11.625" customWidth="1" style="4"/>
-    <col min="5" max="6" width="9.125" customWidth="1" style="4"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="5"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="5"/>
+    <col min="4" max="4" width="11.625" customWidth="1" style="5"/>
+    <col min="5" max="6" width="9.125" customWidth="1" style="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>45.569999694824219</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>46.909999847412109</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>-1.5560001134872437</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>96.0999984741211</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>6.5</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>43.139999389648438</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>-1.4420000314712524</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>59.270000457763672</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>-1.9809999465942383</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5">
         <v>1.2699999809265137</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>-0.99000000953674316</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5">
         <v>6.7100000381469727</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>-1.1599999666213989</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5">
         <v>13.779999732971191</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>-1.2799999713897705</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5">
         <v>18.799999237060547</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>-0.2199999988079071</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5">
         <v>24.260000228881836</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>-1.0700000524520874</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5">
         <v>35.020000457763672</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>-1.0499999523162842</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5">
         <v>39.700000762939453</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>-0.99000000953674316</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5">
         <v>56.400001525878906</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <v>-0.949999988079071</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5">
         <v>68.319999694824219</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <v>-0.51999998092651367</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5">
         <v>72.199996948242188</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <v>-1.1799999475479126</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5">
         <v>80.529998779296875</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <v>-0.05000000074505806</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5">
         <v>85.699996948242188</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
         <v>7.1700000762939453</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="5">
         <v>90.830001831054688</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="5">
         <v>9.9799995422363281</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5">
         <v>101.44000244140625</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
         <v>7.820000171661377</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="5">
         <v>195.96000671386719</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="5">
         <v>3.869999885559082</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="B22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="5">
         <v>197.00999450683594</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5">
         <v>2.9800000190734863</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="5">
         <v>194.89999389648438</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="5">
         <v>4.8000001907348633</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="B24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="5">
         <v>193.41000366210938</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="5">
         <v>5.46999979019165</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="B25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="5">
         <v>193.55999755859375</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="5">
         <v>3.7300000190734863</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="5">
         <v>195.00999450683594</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="5">
         <v>6.4899997711181641</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="B27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="5">
         <v>193.67999267578125</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="5">
         <v>6.8400001525878906</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="4">
+      <c r="B28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="5">
         <v>196.6300048828125</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="5">
         <v>6.2300000190734863</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="4">
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="5">
         <v>198.11000061035156</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="5">
         <v>2.0299999713897705</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="4">
+      <c r="B30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="5">
         <v>129.05999755859375</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="5">
         <v>-5.5799999237060547</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="B31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="5">
         <v>130.22999572753906</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="5">
         <v>8.1899995803833</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="B32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="5">
         <v>171.30000305175781</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="5">
         <v>8</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="4">
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="5">
         <v>203.27999877929688</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="5">
         <v>3</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="4">
+      <c r="B34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="5">
         <v>190.69999694824219</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="5">
         <v>8.6000003814697266</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="4">
+      <c r="B35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="5">
         <v>181.80000305175781</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="5">
         <v>10.300000190734863</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="B36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="5">
         <v>177.5</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="5">
         <v>8.1000003814697266</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="B37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="5">
         <v>96.879997253417969</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="5">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="B38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="5">
         <v>125.33000183105469</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="5">
         <v>-7.6100001335144043</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="B39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="5">
         <v>197.89999389648438</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="5">
         <v>-0.5</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="5">
         <v>94.639999389648438</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="5">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="B41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="5">
         <v>145.19000244140625</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="5">
         <v>-4.630000114440918</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="B42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="5">
         <v>153.30000305175781</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="5">
         <v>14.899999618530273</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="B43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="5">
         <v>115.59999847412109</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="5">
         <v>14.831999778747559</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="B44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="5">
         <v>141.80000305175781</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="5">
         <v>7.7399997711181641</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="4" t="s">
+      <c r="B45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="5">
         <v>168.19999694824219</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="5">
         <v>-1.4500000476837158</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="4" t="s">
+      <c r="B46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="5">
         <v>106.40000152587891</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="5">
         <v>7.1869997978210449</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="B47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="5">
         <v>185.47000122070313</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="5">
         <v>-0.99500000476837158</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="4" t="s">
+      <c r="B48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="5">
         <v>158.39999389648438</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="5">
         <v>10.569999694824219</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1450,1428 +1450,1428 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="2"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="2"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="2"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="3"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="3"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
         <v>6.5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>-1</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3">
         <v>8.5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>-1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3">
         <v>10.5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>-1</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3">
         <v>21.5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
         <v>23</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3">
         <v>24.5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3">
         <v>26</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3">
         <v>27.5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3">
         <v>24.590000152587891</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>-24.5</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3">
         <v>26.090000152587891</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>-24.5</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3">
         <v>27.590000152587891</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>-24.5</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3">
         <v>25.239999771118164</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>-17.5</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3">
         <v>26.739999771118164</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>-17.5</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3">
         <v>32.650001525878906</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>-22.5</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
         <v>34.150001525878906</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>-22.5</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
         <v>35.650001525878906</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>-22.5</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
         <v>33.650001525878906</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>-14.300000190734863</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3">
         <v>38.560001373291016</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3">
         <v>40.060001373291016</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3">
         <v>40.369998931884766</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3">
         <v>41.869998931884766</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3">
         <v>43.369998931884766</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3">
         <v>85.5999984741211</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="3">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3">
         <v>87.0999984741211</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3">
         <v>88.5999984741211</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="3">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3">
         <v>67.0999984741211</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3">
         <v>68.5999984741211</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="3">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3">
         <v>57.909999847412109</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="3">
         <v>-11.300000190734863</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3">
         <v>59.409999847412109</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="3">
         <v>-11.300000190734863</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3">
         <v>21.5</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="B32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3">
         <v>23</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="3">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="B33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3">
         <v>24.5</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="3">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="B34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3">
         <v>26</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="3">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3">
         <v>27.5</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="3">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="B36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3">
         <v>29</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="3">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="B37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3">
         <v>18.5</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="3">
         <v>-9</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="B38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="3">
         <v>87.0999984741211</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="3">
         <v>-16</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2">
+      <c r="B39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="3">
         <v>88.5999984741211</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="3">
         <v>-16</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="2">
+      <c r="B40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="3">
         <v>52.310001373291016</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="3">
         <v>-9.3000001907348633</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="3">
         <v>53.810001373291016</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="3">
         <v>-9.3000001907348633</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="2">
+      <c r="B42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="3">
         <v>71.160003662109375</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="3">
         <v>-7.3000001907348633</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="2">
+      <c r="B43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="3">
         <v>72.660003662109375</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="3">
         <v>-7.3000001907348633</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="B44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="3">
         <v>66.3499984741211</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="3">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="2">
+      <c r="B45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="3">
         <v>67.8499984741211</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="3">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="B46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="3">
         <v>69.3499984741211</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="3">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="2">
+      <c r="B47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="3">
         <v>77.040000915527344</v>
       </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2">
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="2">
+      <c r="B48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="3">
         <v>86.8499984741211</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="3">
         <v>-0.039999999105930328</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="2">
+      <c r="B49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="3">
         <v>93.339996337890625</v>
       </c>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-      <c r="F49" s="2">
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="2">
+      <c r="B50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="3">
         <v>98.470001220703125</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="3">
         <v>3.059999942779541</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="2">
+      <c r="B51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="3">
         <v>81.050003051757813</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="3">
         <v>3.8199999332427979</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="B52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="3">
         <v>10.779999732971191</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="3">
         <v>5.630000114440918</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="3">
         <v>28.790000915527344</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="3">
         <v>-25</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="B54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="3">
         <v>89.040000915527344</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="3">
         <v>-17.856000900268555</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="B55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="3">
         <v>121.59999847412109</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="3">
         <v>-6.6100001335144043</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="B56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="3">
         <v>13.430000305175781</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="3">
         <v>-1.5399999618530273</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="3">
         <v>44</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="3">
         <v>-20.899999618530273</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="B58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="3">
         <v>19.700000762939453</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="3">
         <v>2.2200000286102295</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="B59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="3">
         <v>102.13999938964844</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="3">
         <v>-3.6500000953674316</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="B60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="3">
         <v>77.5199966430664</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="3">
         <v>-10.729999542236328</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="B61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="3">
         <v>59.5</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="3">
         <v>-2.5499999523162842</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="2">
+      <c r="B62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="3">
         <v>41</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="3">
         <v>-4.0199999809265137</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="2">
+      <c r="B63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="3">
         <v>43</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="3">
         <v>-4.0199999809265137</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="2">
+      <c r="B64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="3">
         <v>42</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="3">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="2">
+      <c r="B65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="3">
         <v>44</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="3">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="2">
+      <c r="B66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="3">
         <v>46</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="3">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="2">
+      <c r="B67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="3">
         <v>43</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="3">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="2">
+      <c r="B68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="3">
         <v>45</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="3">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="2">
+      <c r="B69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="3">
         <v>47</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="3">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2">
+      <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="2">
+      <c r="B70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="3">
         <v>48</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="3">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="2">
+      <c r="B71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="3">
         <v>49</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="3">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3135,1349 +3135,1349 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="3"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="3"/>
-    <col min="4" max="4" width="11.625" customWidth="1" style="3"/>
-    <col min="5" max="6" width="9.125" customWidth="1" style="3"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="4"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="4"/>
+    <col min="4" max="4" width="11.625" customWidth="1" style="4"/>
+    <col min="5" max="6" width="9.125" customWidth="1" style="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>12.819999694824219</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>-9.5200004577636719</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>27.799999237060547</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>-9.5699996948242188</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>110.40000152587891</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>-38.799999237060547</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>58.400001525878906</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>-33.799999237060547</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>95.4000015258789</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>-33.799999237060547</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>126.98000335693359</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>-34.080001831054688</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>121.70999908447266</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>-45.360000610351563</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>145.49000549316406</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>-41.2599983215332</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>118.80000305175781</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>-65.9000015258789</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>155.10000610351563</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>-31.899999618530273</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>138</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>-51.5</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>79.055000305175781</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>-47.428001403808594</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4">
         <v>-13.329999923706055</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4">
         <v>-12.029999732971191</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4">
         <v>-10.729999542236328</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4">
         <v>-9.4300003051757813</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4">
         <v>-8.130000114440918</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="4">
         <v>10.079999923706055</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="4">
         <v>12.079999923706055</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="4">
         <v>22.420000076293945</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="4">
         <v>24.420000076293945</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="4">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="4">
         <v>39.540000915527344</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>-13.289999961853027</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="B24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="4">
         <v>41.540000915527344</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="4">
         <v>-13.289999961853027</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="B25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="4">
         <v>39.069999694824219</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="4">
         <v>-15.789999961853027</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="B26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="4">
         <v>41.069999694824219</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="4">
         <v>-15.789999961853027</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="4">
         <v>38.459999084472656</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="4">
         <v>-18.290000915527344</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="B28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="4">
         <v>40.459999084472656</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="4">
         <v>-18.290000915527344</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="B29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="4">
         <v>57.049999237060547</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="4">
         <v>-33.830001831054688</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="B30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="4">
         <v>59.049999237060547</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="4">
         <v>-33.830001831054688</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="B31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="4">
         <v>63.369998931884766</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="4">
         <v>-53.069999694824219</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="B32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="4">
         <v>65.870002746582031</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="4">
         <v>-54.0099983215332</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="B33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="4">
         <v>68.370002746582031</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="4">
         <v>-55.180000305175781</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="B34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="4">
         <v>78.800003051757813</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="4">
         <v>-31.989999771118164</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="B35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="4">
         <v>80.800003051757813</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="4">
         <v>-31.989999771118164</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="B36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="4">
         <v>82.800003051757813</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="4">
         <v>-31.989999771118164</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="B37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="4">
         <v>82.080001831054688</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="4">
         <v>-46.090000152587891</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="B38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="4">
         <v>84.080001831054688</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="4">
         <v>-46.090000152587891</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="B39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="4">
         <v>81.870002746582031</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="4">
         <v>-60.599998474121094</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="B40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="4">
         <v>84.370002746582031</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="4">
         <v>-61.459999084472656</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="B41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="4">
         <v>86.870002746582031</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="4">
         <v>-62.650001525878906</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="3">
+      <c r="B42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="4">
         <v>100.58999633789063</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="4">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="3">
+      <c r="B43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="4">
         <v>102.58999633789063</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="4">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="3">
+      <c r="B44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="4">
         <v>118.80999755859375</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="4">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="3">
+      <c r="B45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="4">
         <v>120.80999755859375</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="4">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="3">
+      <c r="B46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="4">
         <v>120.33999633789063</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="4">
         <v>-44.970001220703125</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="3">
+      <c r="B47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="4">
         <v>122.33999633789063</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="4">
         <v>-44.970001220703125</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="3">
+      <c r="B48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="4">
         <v>108.19000244140625</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="4">
         <v>-31.8799991607666</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="3">
+      <c r="B49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="4">
         <v>110.19000244140625</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="4">
         <v>-31.8799991607666</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="3">
+      <c r="B50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="4">
         <v>135.35000610351563</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="4">
         <v>-35.060001373291016</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="3">
+      <c r="B51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="4">
         <v>137.35000610351563</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="4">
         <v>-35.060001373291016</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="3">
+      <c r="B52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="4">
         <v>139.35000610351563</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="4">
         <v>-35.060001373291016</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="3">
+      <c r="B53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="4">
         <v>140.75999450683594</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="4">
         <v>-50.229999542236328</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="3">
+      <c r="B54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="4">
         <v>142.75999450683594</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="4">
         <v>-50.229999542236328</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="3">
+      <c r="B55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="4">
         <v>144.75999450683594</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="4">
         <v>-50.229999542236328</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3">
+      <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="3">
+      <c r="B56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="4">
         <v>139.17999267578125</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="4">
         <v>-61.569999694824219</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="3">
+      <c r="B57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="4">
         <v>141.17999267578125</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="4">
         <v>-61.569999694824219</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="3">
+      <c r="B58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="4">
         <v>143.17999267578125</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="4">
         <v>-61.569999694824219</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="3">
+      <c r="B59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="4">
         <v>167.22999572753906</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="4">
         <v>-36.900001525878906</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3">
+      <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="3">
+      <c r="B60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="4">
         <v>169.72999572753906</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="4">
         <v>-36.900001525878906</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3">
+      <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="3">
+      <c r="B61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="4">
         <v>172.22999572753906</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="4">
         <v>-36.900001525878906</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3">
+      <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="3">
+      <c r="B62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="4">
         <v>168.16999816894531</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="4">
         <v>-39.400001525878906</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="3">
+      <c r="B63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="4">
         <v>170.66999816894531</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="4">
         <v>-39.400001525878906</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3">
+      <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="3">
+      <c r="B64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="4">
         <v>173.16999816894531</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="4">
         <v>-39.400001525878906</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="3">
+      <c r="B65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="4">
         <v>158.63999938964844</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="4">
         <v>-54.439998626708984</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3">
+      <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="3">
+      <c r="B66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="4">
         <v>163.86000061035156</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="4">
         <v>-51.430000305175781</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3">
+      <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="3">
+      <c r="B67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="4">
         <v>168.13999938964844</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="4">
         <v>-48.700000762939453</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4493,1057 +4493,1054 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4707741F-BFD4-4FF4-A1EB-A627D15E0B90}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
-    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="2"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="2"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>4.5859999656677246</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>5.8299999237060547</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>41.799999237060547</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>79.800003051757813</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>13.350000381469727</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>3.6159999370574951</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>11.5600004196167</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>-2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
         <v>0.52999997138977051</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>0.52999997138977051</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
         <v>6.619999885559082</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>2.5800004005432129</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
         <v>10.699999809265137</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>5.5900001525878906</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
         <v>2.5899999141693115</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>8.3600006103515625</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
         <v>-0.85000002384185791</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>7.9800000190734863</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
         <v>-2.8299999237060547</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>7.96999979019165</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
         <v>-4.940000057220459</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>8.0299997329711914</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
         <v>-8.4399995803833</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>10.079999923706055</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
         <v>-6.6399998664855957</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>10.119999885559082</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
         <v>-2.5999999046325684</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>11.859999656677246</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
         <v>1.5</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>15.019998550415039</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
         <v>3.7000000476837158</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>17.840000152587891</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
         <v>0.51999998092651367</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>20.75</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2">
         <v>9.1499996185302734</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>23.200000762939453</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2">
         <v>11.409999847412109</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>23.180000305175781</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2">
         <v>3.630000114440918</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>23.170000076293945</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2">
         <v>6.7100000381469727</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>28.360000610351563</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2">
         <v>0.51999998092651367</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>28.8799991607666</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
         <v>-4.5799999237060547</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>30.940000534057617</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2">
         <v>-0.550000011920929</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>34.3900032043457</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2">
         <v>5.6399998664855957</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>36.570003509521484</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
         <v>0.5</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>40.570003509521484</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2">
         <v>8.8900003433227539</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>47.889999389648438</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2">
         <v>1.6000000238418579</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>61.860000610351563</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2">
         <v>46.450000762939453</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>87.260002136230469</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2">
         <v>53.400001525878906</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>101.30000305175781</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>-7.929999828338623</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>1.6299999952316284</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>-7.4499998092651367</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>8.7700004577636719</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>-8.6899995803833</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>31.200000762939453</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>13.260000228881836</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>30.180000305175781</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>12.800000190734863</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>38.354000091552734</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>12.680000305175781</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <v>47.531002044677734</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>-6.21999979019165</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>7.5799999237060547</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <v>11.930000305175781</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <v>22.889999389648438</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>-7.6500000953674316</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>26.8799991607666</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>-16.360000610351563</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>70.830001831054688</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="2">
         <v>19.069999694824219</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>70.80999755859375</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="2">
         <v>-4.8400001525878906</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="2">
         <v>7.5500001907348633</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <v>13.239999771118164</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2">
         <v>22.909999847412109</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="2">
         <v>-8.6700000762939453</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="2">
         <v>27.940000534057617</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <v>-17.569999694824219</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="2">
         <v>70.830001831054688</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="2">
         <v>20.5</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="2">
         <v>70.800003051757813</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="2">
         <v>56</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="2">
         <v>103.5</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="B50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="2">
         <v>10.489999771118164</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="2">
         <v>46.930000305175781</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="B51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <v>-8.869999885559082</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="2">
         <v>70.389999389648438</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <v>15.979999542236328</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="2">
         <v>70.379997253417969</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="2">
         <v>0</v>
       </c>
     </row>
@@ -5557,242 +5554,1446 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC3EC72-CD05-47A9-88E1-A68A610EEEE2}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="5"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="5"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="5"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="1"/>
+    <col min="4" max="4" width="11.569690159389" customWidth="1" style="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-3.6099998950958252</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.5800000429153442</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-8.6499996185302734</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.8199999332427979</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.029999999329447746</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-6.320000171661377</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.0299999713897705</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-6.320000171661377</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.0299997329711914</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-6.320000171661377</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.029999999329447746</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-10.340000152587891</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="D2" s="5">
-        <v>4.5859999656677246</v>
-      </c>
-      <c r="E2" s="5">
-        <v>-1.6239999532699585</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.0299999713897705</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-10.340000152587891</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="D3" s="5">
-        <v>5.8299999237060547</v>
-      </c>
-      <c r="E3" s="5">
-        <v>-1.6239999532699585</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4.03000020980835</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-10.340000152587891</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="D4" s="5">
-        <v>3.4392979145050049</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.534288227558136</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
+        <v>11.760000228881836</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-8.0500001907348633</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="D5" s="5">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>18.899999618530273</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-8.0500001907348633</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
+        <v>23.010000228881836</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-10.359999656677246</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
+        <v>25.010000228881836</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-10.359999656677246</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
+        <v>28.770000457763672</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-12.329999923706055</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1">
+        <v>32.340000152587891</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-13.409999847412109</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1">
+        <v>38.209999084472656</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-8.119999885559082</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>38.209999084472656</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-5.6199989318847656</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>38.209999084472656</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-3.6199989318847656</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
+        <v>57.590000152587891</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-6.1500000953674316</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
+        <v>59.590000152587891</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-6.1500000953674316</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1">
+        <v>73.970001220703125</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-7.119999885559082</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1">
+        <v>52.330001831054688</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6.96999979019165</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1">
+        <v>61.369998931884766</v>
+      </c>
+      <c r="E23" s="1">
+        <v>6.96999979019165</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1">
+        <v>63.369998931884766</v>
+      </c>
+      <c r="E24" s="1">
+        <v>6.96999979019165</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1">
+        <v>75.239997863769531</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5.0399999618530273</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1">
+        <v>46.400001525878906</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5.0399999618530273</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1">
+        <v>46.400001525878906</v>
+      </c>
+      <c r="E27" s="1">
+        <v>7.5399999618530273</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1">
+        <v>46.400001525878906</v>
+      </c>
+      <c r="E28" s="1">
+        <v>10.039999961853027</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1">
+        <v>57.659999847412109</v>
+      </c>
+      <c r="E29" s="1">
+        <v>9.2899999618530273</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1">
+        <v>69.879997253417969</v>
+      </c>
+      <c r="E30" s="1">
+        <v>6.130000114440918</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="E5" s="5">
-        <v>-1.3919999599456787</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="5">
-        <v>11.5600004196167</v>
-      </c>
-      <c r="E6" s="5">
-        <v>-2</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1">
+        <v>103.70999908447266</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-8.0799999237060547</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1">
+        <v>103.70999908447266</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-8.0799999237060547</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1">
+        <v>128.5</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-8.0799999237060547</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1">
+        <v>131</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-8.0799999237060547</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1">
+        <v>147.58999633789063</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-11.140000343322754</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1">
+        <v>150.08999633789063</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-11.140000343322754</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="1">
+        <v>152.58999633789063</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-11.140000343322754</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="1">
+        <v>169.07000732421875</v>
+      </c>
+      <c r="E38" s="1">
+        <v>-12.869999885559082</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="1">
+        <v>171.57000732421875</v>
+      </c>
+      <c r="E39" s="1">
+        <v>-12.869999885559082</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="1">
+        <v>174.07000732421875</v>
+      </c>
+      <c r="E40" s="1">
+        <v>-12.869999885559082</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="1">
+        <v>176.57000732421875</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-12.869999885559082</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1">
+        <v>115.69999694824219</v>
+      </c>
+      <c r="E42" s="1">
+        <v>-2.630000114440918</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="1">
+        <v>115.69999694824219</v>
+      </c>
+      <c r="E43" s="1">
+        <v>-0.12999999523162842</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="1">
+        <v>115.69999694824219</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2.369999885559082</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="1">
+        <v>133.11000061035156</v>
+      </c>
+      <c r="E45" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="1">
+        <v>150.52999877929688</v>
+      </c>
+      <c r="E46" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="1">
+        <v>153.02999877929688</v>
+      </c>
+      <c r="E47" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="1">
+        <v>161.14999389648438</v>
+      </c>
+      <c r="E48" s="1">
+        <v>5.3600001335144043</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="1">
+        <v>168.47999572753906</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2.1600000858306885</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="1">
+        <v>179.14999389648438</v>
+      </c>
+      <c r="E50" s="1">
+        <v>-2.7899999618530273</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="1">
+        <v>187.72999572753906</v>
+      </c>
+      <c r="E51" s="1">
+        <v>-2.7900002002716064</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="1">
+        <v>10.770000457763672</v>
+      </c>
+      <c r="E52" s="1">
+        <v>-3.5399999618530273</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="1">
+        <v>49.439998626708984</v>
+      </c>
+      <c r="E53" s="1">
+        <v>-8.65999984741211</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="1">
+        <v>67.889999389648438</v>
+      </c>
+      <c r="E54" s="1">
+        <v>-8.65999984741211</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="1">
+        <v>119.84600067138672</v>
+      </c>
+      <c r="E55" s="1">
+        <v>-4.5970001220703125</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="1">
+        <v>149.94099426269531</v>
+      </c>
+      <c r="E56" s="1">
+        <v>-6.619999885559082</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="1">
+        <v>169.33000183105469</v>
+      </c>
+      <c r="E57" s="1">
+        <v>-8.6700000762939453</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="1">
+        <v>176.44000244140625</v>
+      </c>
+      <c r="E58" s="1">
+        <v>-8.6700000762939453</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="1">
+        <v>243.30299377441406</v>
+      </c>
+      <c r="E59" s="1">
+        <v>-39.273998260498047</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="1">
+        <v>276.97100830078125</v>
+      </c>
+      <c r="E60" s="1">
+        <v>-41.316001892089844</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="5">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5">
+      <c r="D61" s="1">
+        <v>80.9000015258789</v>
+      </c>
+      <c r="E61" s="1">
+        <v>-8.6700000762939453</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="5">
-        <v>-3</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="D62" s="1">
+        <v>111.12000274658203</v>
+      </c>
+      <c r="E62" s="1">
+        <v>-10.710000038146973</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="1">
+        <v>200.1300048828125</v>
+      </c>
+      <c r="E63" s="1">
+        <v>-8.65999984741211</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1">
+        <v>251.44999694824219</v>
+      </c>
+      <c r="E64" s="1">
+        <v>-48.419998168945313</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="1">
+        <v>270.79000854492188</v>
+      </c>
+      <c r="E65" s="1">
+        <v>-48.419998168945313</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="1">
+        <v>209.33000183105469</v>
+      </c>
+      <c r="E66" s="1">
+        <v>-6.809999942779541</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="1">
+        <v>216.27999877929688</v>
+      </c>
+      <c r="E67" s="1">
+        <v>-7.8099989891052246</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="1">
+        <v>224.75</v>
+      </c>
+      <c r="E68" s="1">
+        <v>-8.8099994659423828</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="1">
+        <v>232.97999572753906</v>
+      </c>
+      <c r="E69" s="1">
+        <v>-9.8099994659423828</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="1">
+        <v>241.3699951171875</v>
+      </c>
+      <c r="E70" s="1">
+        <v>-10.809999465942383</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="1">
+        <v>249.52000427246094</v>
+      </c>
+      <c r="E71" s="1">
+        <v>-11.8100004196167</v>
+      </c>
+      <c r="F71" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Data/SpawnData.xlsx
+++ b/Assets/Data/SpawnData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2312004\Documents\FLUFF_SWING\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B439F46-5161-42ED-9982-EA0A036CF184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E3510D-EFEC-4D30-931D-8ED003459B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{E4C33777-1E58-4483-B30F-52CA6AAB0A77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E4C33777-1E58-4483-B30F-52CA6AAB0A77}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage1" sheetId="7" r:id="rId1"/>
@@ -466,969 +466,969 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="4"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="4"/>
-    <col min="4" max="4" width="11.625" customWidth="1" style="4"/>
-    <col min="5" max="6" width="9.125" customWidth="1" style="4"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="5"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="5"/>
+    <col min="4" max="4" width="11.625" customWidth="1" style="5"/>
+    <col min="5" max="6" width="9.125" customWidth="1" style="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>45.569999694824219</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>46.909999847412109</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>-1.5560001134872437</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>96.0999984741211</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>6.5</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>43.139999389648438</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>-1.4420000314712524</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>59.270000457763672</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>-1.9809999465942383</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5">
         <v>1.2699999809265137</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>-0.99000000953674316</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5">
         <v>6.7100000381469727</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>-1.1599999666213989</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5">
         <v>13.779999732971191</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>-1.2799999713897705</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5">
         <v>18.799999237060547</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>-0.2199999988079071</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5">
         <v>24.260000228881836</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>-1.0700000524520874</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5">
         <v>35.020000457763672</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>-1.0499999523162842</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5">
         <v>39.700000762939453</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>-0.99000000953674316</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5">
         <v>56.400001525878906</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <v>-0.949999988079071</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5">
         <v>68.319999694824219</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <v>-0.51999998092651367</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5">
         <v>72.199996948242188</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <v>-1.1799999475479126</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5">
         <v>80.529998779296875</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <v>-0.05000000074505806</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5">
         <v>85.699996948242188</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
         <v>7.1700000762939453</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="5">
         <v>90.830001831054688</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="5">
         <v>9.9799995422363281</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5">
         <v>101.44000244140625</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
         <v>7.820000171661377</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="5">
         <v>195.96000671386719</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="5">
         <v>3.869999885559082</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="B22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="5">
         <v>197.00999450683594</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5">
         <v>2.9800000190734863</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="5">
         <v>194.89999389648438</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="5">
         <v>4.8000001907348633</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="B24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="5">
         <v>193.41000366210938</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="5">
         <v>5.46999979019165</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="B25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="5">
         <v>193.55999755859375</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="5">
         <v>3.7300000190734863</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="5">
         <v>195.00999450683594</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="5">
         <v>6.4899997711181641</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="B27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="5">
         <v>193.67999267578125</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="5">
         <v>6.8400001525878906</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="4">
+      <c r="B28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="5">
         <v>196.6300048828125</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="5">
         <v>6.2300000190734863</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="4">
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="5">
         <v>198.11000061035156</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="5">
         <v>2.0299999713897705</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="4">
+      <c r="B30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="5">
         <v>129.05999755859375</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="5">
         <v>-5.5799999237060547</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="B31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="5">
         <v>130.22999572753906</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="5">
         <v>8.1899995803833</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="B32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="5">
         <v>171.30000305175781</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="5">
         <v>8</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="4">
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="5">
         <v>203.27999877929688</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="5">
         <v>3</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="4">
+      <c r="B34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="5">
         <v>190.69999694824219</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="5">
         <v>8.6000003814697266</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="4">
+      <c r="B35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="5">
         <v>181.80000305175781</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="5">
         <v>10.300000190734863</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="B36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="5">
         <v>177.5</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="5">
         <v>8.1000003814697266</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="B37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="5">
         <v>96.879997253417969</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="5">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="B38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="5">
         <v>125.33000183105469</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="5">
         <v>-7.6100001335144043</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="B39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="5">
         <v>197.89999389648438</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="5">
         <v>-0.5</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="5">
         <v>94.639999389648438</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="5">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="B41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="5">
         <v>145.19000244140625</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="5">
         <v>-4.630000114440918</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="B42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="5">
         <v>153.30000305175781</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="5">
         <v>14.899999618530273</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="B43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="5">
         <v>115.59999847412109</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="5">
         <v>14.831999778747559</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="B44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="5">
         <v>141.80000305175781</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="5">
         <v>7.7399997711181641</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="4" t="s">
+      <c r="B45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="5">
         <v>168.19999694824219</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="5">
         <v>-1.4500000476837158</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="4" t="s">
+      <c r="B46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="5">
         <v>106.40000152587891</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="5">
         <v>7.1869997978210449</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="B47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="5">
         <v>185.47000122070313</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="5">
         <v>-0.99500000476837158</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="4" t="s">
+      <c r="B48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="5">
         <v>158.39999389648438</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="5">
         <v>10.569999694824219</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1450,1428 +1450,1428 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="2"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="2"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="2"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="3"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="3"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
         <v>6.5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>-1</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3">
         <v>8.5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>-1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3">
         <v>10.5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>-1</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3">
         <v>21.5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
         <v>23</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3">
         <v>24.5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3">
         <v>26</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3">
         <v>27.5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3">
         <v>24.590000152587891</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>-24.5</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3">
         <v>26.090000152587891</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>-24.5</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3">
         <v>27.590000152587891</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>-24.5</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3">
         <v>25.239999771118164</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>-17.5</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3">
         <v>26.739999771118164</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>-17.5</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3">
         <v>32.650001525878906</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>-22.5</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
         <v>34.150001525878906</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>-22.5</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
         <v>35.650001525878906</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>-22.5</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
         <v>33.650001525878906</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>-14.300000190734863</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3">
         <v>38.560001373291016</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3">
         <v>40.060001373291016</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3">
         <v>40.369998931884766</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3">
         <v>41.869998931884766</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3">
         <v>43.369998931884766</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <v>-20.399999618530273</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3">
         <v>85.5999984741211</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="3">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3">
         <v>87.0999984741211</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3">
         <v>88.5999984741211</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="3">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3">
         <v>67.0999984741211</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3">
         <v>68.5999984741211</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="3">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3">
         <v>57.909999847412109</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="3">
         <v>-11.300000190734863</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3">
         <v>59.409999847412109</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="3">
         <v>-11.300000190734863</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3">
         <v>21.5</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="B32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3">
         <v>23</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="3">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="B33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3">
         <v>24.5</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="3">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="B34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3">
         <v>26</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="3">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3">
         <v>27.5</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="3">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="B36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3">
         <v>29</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="3">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="B37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3">
         <v>18.5</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="3">
         <v>-9</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="B38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="3">
         <v>87.0999984741211</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="3">
         <v>-16</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2">
+      <c r="B39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="3">
         <v>88.5999984741211</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="3">
         <v>-16</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="2">
+      <c r="B40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="3">
         <v>52.310001373291016</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="3">
         <v>-9.3000001907348633</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="3">
         <v>53.810001373291016</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="3">
         <v>-9.3000001907348633</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="2">
+      <c r="B42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="3">
         <v>71.160003662109375</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="3">
         <v>-7.3000001907348633</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="2">
+      <c r="B43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="3">
         <v>72.660003662109375</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="3">
         <v>-7.3000001907348633</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="B44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="3">
         <v>66.3499984741211</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="3">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="2">
+      <c r="B45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="3">
         <v>67.8499984741211</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="3">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="B46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="3">
         <v>69.3499984741211</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="3">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="2">
+      <c r="B47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="3">
         <v>77.040000915527344</v>
       </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2">
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="2">
+      <c r="B48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="3">
         <v>86.8499984741211</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="3">
         <v>-0.039999999105930328</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="2">
+      <c r="B49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="3">
         <v>93.339996337890625</v>
       </c>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-      <c r="F49" s="2">
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="2">
+      <c r="B50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="3">
         <v>98.470001220703125</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="3">
         <v>3.059999942779541</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="2">
+      <c r="B51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="3">
         <v>81.050003051757813</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="3">
         <v>3.8199999332427979</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="B52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="3">
         <v>10.779999732971191</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="3">
         <v>5.630000114440918</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="3">
         <v>28.790000915527344</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="3">
         <v>-25</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="B54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="3">
         <v>89.040000915527344</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="3">
         <v>-17.856000900268555</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="B55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="3">
         <v>121.59999847412109</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="3">
         <v>-6.6100001335144043</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="B56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="3">
         <v>13.430000305175781</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="3">
         <v>-1.5399999618530273</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="3">
         <v>44</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="3">
         <v>-20.899999618530273</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="B58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="3">
         <v>19.700000762939453</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="3">
         <v>2.2200000286102295</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="B59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="3">
         <v>102.13999938964844</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="3">
         <v>-3.6500000953674316</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="B60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="3">
         <v>77.5199966430664</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="3">
         <v>-10.729999542236328</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="B61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="3">
         <v>59.5</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="3">
         <v>-2.5499999523162842</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="2">
+      <c r="B62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="3">
         <v>41</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="3">
         <v>-4.0199999809265137</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="2">
+      <c r="B63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="3">
         <v>43</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="3">
         <v>-4.0199999809265137</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="2">
+      <c r="B64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="3">
         <v>42</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="3">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="2">
+      <c r="B65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="3">
         <v>44</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="3">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="2">
+      <c r="B66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="3">
         <v>46</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="3">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="2">
+      <c r="B67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="3">
         <v>43</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="3">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="2">
+      <c r="B68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="3">
         <v>45</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="3">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="2">
+      <c r="B69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="3">
         <v>47</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="3">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2">
+      <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="2">
+      <c r="B70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="3">
         <v>48</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="3">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="2">
+      <c r="B71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="3">
         <v>49</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="3">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2885,242 +2885,786 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0451ECB-537D-4FB2-A2D8-B602F91E52CB}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:F11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="6"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="6"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="6"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1" style="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6">
-        <v>4.5859999656677246</v>
-      </c>
-      <c r="E2" s="6">
-        <v>-1.6239999532699585</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="D2" s="1">
+        <v>59.7400016784668</v>
+      </c>
+      <c r="E2" s="1">
+        <v>80.0199966430664</v>
+      </c>
+      <c r="F2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6">
-        <v>5.8299999237060547</v>
-      </c>
-      <c r="E3" s="6">
-        <v>-1.6239999532699585</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="D3" s="1">
+        <v>58.659999847412109</v>
+      </c>
+      <c r="E3" s="1">
+        <v>80.0199966430664</v>
+      </c>
+      <c r="F3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6">
-        <v>3.4392979145050049</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.534288227558136</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="D4" s="1">
+        <v>125.69999694824219</v>
+      </c>
+      <c r="E4" s="1">
+        <v>82.8499984741211</v>
+      </c>
+      <c r="F4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="1">
+        <v>28.090000152587891</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-0.43000000715255737</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>55.7400016784668</v>
+      </c>
+      <c r="E6" s="1">
+        <v>79.569999694824219</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.47999998927116394</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-0.039999999105930328</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>13.819999694824219</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>27.6200008392334</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.6599999666213989</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45.790000915527344</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.059999942779541</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>48.479999542236328</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
+        <v>64.669998168945313</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.4700000286102295</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
+        <v>68.8499984741211</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
+        <v>75.889999389648438</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-0.60000002384185791</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1">
+        <v>75.7699966430664</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6.4000000953674316</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1">
+        <v>75.669998168945313</v>
+      </c>
+      <c r="E16" s="1">
+        <v>13.300000190734863</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>86</v>
+      </c>
+      <c r="E17" s="1">
+        <v>28.200000762939453</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>86</v>
+      </c>
+      <c r="E18" s="1">
+        <v>40.299999237060547</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
+        <v>76.0999984741211</v>
+      </c>
+      <c r="E19" s="1">
+        <v>51.599998474121094</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
+        <v>86.4000015258789</v>
+      </c>
+      <c r="E20" s="1">
+        <v>64.0999984741211</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1">
+        <v>76.120002746582031</v>
+      </c>
+      <c r="E21" s="1">
+        <v>73.470001220703125</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1">
+        <v>82.55999755859375</v>
+      </c>
+      <c r="E22" s="1">
+        <v>82.129997253417969</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1">
+        <v>74.989997863769531</v>
+      </c>
+      <c r="E23" s="1">
+        <v>81.860000610351563</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1">
+        <v>69.959999084472656</v>
+      </c>
+      <c r="E24" s="1">
+        <v>80.489997863769531</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1">
+        <v>67.930000305175781</v>
+      </c>
+      <c r="E25" s="1">
+        <v>80.459999084472656</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1">
+        <v>65.889999389648438</v>
+      </c>
+      <c r="E26" s="1">
+        <v>80.470001220703125</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1">
+        <v>36.680000305175781</v>
+      </c>
+      <c r="E27" s="1">
+        <v>80.44000244140625</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1">
+        <v>9.1899995803833</v>
+      </c>
+      <c r="E28" s="1">
+        <v>80.660003662109375</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-1.8999999761581421</v>
+      </c>
+      <c r="E29" s="1">
+        <v>76</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2.8999998569488525</v>
+      </c>
+      <c r="E30" s="1">
+        <v>72.199996948242188</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="E5" s="6">
-        <v>-1.3919999599456787</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="6">
-        <v>11.5600004196167</v>
-      </c>
-      <c r="E6" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1">
+        <v>17.100000381469727</v>
+      </c>
+      <c r="E31" s="1">
+        <v>40.720001220703125</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1">
+        <v>31.899999618530273</v>
+      </c>
+      <c r="E32" s="1">
+        <v>57.560001373291016</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="D33" s="1">
+        <v>32.930000305175781</v>
+      </c>
+      <c r="E33" s="1">
+        <v>57.560001373291016</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.8399999737739563</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2.8299999237060547</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6">
+      <c r="D34" s="1">
+        <v>94.279998779296875</v>
+      </c>
+      <c r="E34" s="1">
+        <v>73.040000915527344</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="6">
-        <v>-3</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="D35" s="1">
+        <v>71.279998779296875</v>
+      </c>
+      <c r="E35" s="1">
+        <v>27.1200008392334</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1">
+        <v>91.5</v>
+      </c>
+      <c r="E36" s="1">
+        <v>48.540000915527344</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1">
+        <v>72.489997863769531</v>
+      </c>
+      <c r="E37" s="1">
+        <v>64.860000610351563</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-7.0999999046325684</v>
+      </c>
+      <c r="E38" s="1">
+        <v>86.2699966430664</v>
+      </c>
+      <c r="F38" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3135,1349 +3679,1349 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="3"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="3"/>
-    <col min="4" max="4" width="11.625" customWidth="1" style="3"/>
-    <col min="5" max="6" width="9.125" customWidth="1" style="3"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="4"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="4"/>
+    <col min="4" max="4" width="11.625" customWidth="1" style="4"/>
+    <col min="5" max="6" width="9.125" customWidth="1" style="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>12.819999694824219</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>-9.5200004577636719</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>27.799999237060547</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>-9.5699996948242188</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>110.40000152587891</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>-38.799999237060547</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>58.400001525878906</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>-33.799999237060547</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>95.4000015258789</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>-33.799999237060547</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>126.98000335693359</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>-34.080001831054688</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>121.70999908447266</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>-45.360000610351563</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>145.49000549316406</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>-41.2599983215332</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>118.80000305175781</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>-65.9000015258789</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>155.10000610351563</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>-31.899999618530273</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>138</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>-51.5</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>79.055000305175781</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>-47.428001403808594</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4">
         <v>-13.329999923706055</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4">
         <v>-12.029999732971191</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4">
         <v>-10.729999542236328</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4">
         <v>-9.4300003051757813</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4">
         <v>-8.130000114440918</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="4">
         <v>10.079999923706055</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="4">
         <v>12.079999923706055</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="4">
         <v>22.420000076293945</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="4">
         <v>24.420000076293945</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="4">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="4">
         <v>39.540000915527344</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>-13.289999961853027</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="B24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="4">
         <v>41.540000915527344</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="4">
         <v>-13.289999961853027</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="B25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="4">
         <v>39.069999694824219</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="4">
         <v>-15.789999961853027</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="B26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="4">
         <v>41.069999694824219</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="4">
         <v>-15.789999961853027</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="4">
         <v>38.459999084472656</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="4">
         <v>-18.290000915527344</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="B28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="4">
         <v>40.459999084472656</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="4">
         <v>-18.290000915527344</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="B29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="4">
         <v>57.049999237060547</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="4">
         <v>-33.830001831054688</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="B30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="4">
         <v>59.049999237060547</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="4">
         <v>-33.830001831054688</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="B31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="4">
         <v>63.369998931884766</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="4">
         <v>-53.069999694824219</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="B32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="4">
         <v>65.870002746582031</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="4">
         <v>-54.0099983215332</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="B33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="4">
         <v>68.370002746582031</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="4">
         <v>-55.180000305175781</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="B34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="4">
         <v>78.800003051757813</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="4">
         <v>-31.989999771118164</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="B35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="4">
         <v>80.800003051757813</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="4">
         <v>-31.989999771118164</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="B36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="4">
         <v>82.800003051757813</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="4">
         <v>-31.989999771118164</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="B37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="4">
         <v>82.080001831054688</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="4">
         <v>-46.090000152587891</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="B38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="4">
         <v>84.080001831054688</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="4">
         <v>-46.090000152587891</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="B39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="4">
         <v>81.870002746582031</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="4">
         <v>-60.599998474121094</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="B40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="4">
         <v>84.370002746582031</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="4">
         <v>-61.459999084472656</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="B41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="4">
         <v>86.870002746582031</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="4">
         <v>-62.650001525878906</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="3">
+      <c r="B42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="4">
         <v>100.58999633789063</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="4">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="3">
+      <c r="B43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="4">
         <v>102.58999633789063</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="4">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="3">
+      <c r="B44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="4">
         <v>118.80999755859375</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="4">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="3">
+      <c r="B45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="4">
         <v>120.80999755859375</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="4">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="3">
+      <c r="B46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="4">
         <v>120.33999633789063</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="4">
         <v>-44.970001220703125</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="3">
+      <c r="B47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="4">
         <v>122.33999633789063</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="4">
         <v>-44.970001220703125</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="3">
+      <c r="B48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="4">
         <v>108.19000244140625</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="4">
         <v>-31.8799991607666</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="3">
+      <c r="B49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="4">
         <v>110.19000244140625</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="4">
         <v>-31.8799991607666</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="3">
+      <c r="B50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="4">
         <v>135.35000610351563</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="4">
         <v>-35.060001373291016</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="3">
+      <c r="B51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="4">
         <v>137.35000610351563</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="4">
         <v>-35.060001373291016</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="3">
+      <c r="B52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="4">
         <v>139.35000610351563</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="4">
         <v>-35.060001373291016</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="3">
+      <c r="B53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="4">
         <v>140.75999450683594</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="4">
         <v>-50.229999542236328</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="3">
+      <c r="B54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="4">
         <v>142.75999450683594</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="4">
         <v>-50.229999542236328</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="3">
+      <c r="B55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="4">
         <v>144.75999450683594</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="4">
         <v>-50.229999542236328</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3">
+      <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="3">
+      <c r="B56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="4">
         <v>139.17999267578125</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="4">
         <v>-61.569999694824219</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="3">
+      <c r="B57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="4">
         <v>141.17999267578125</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="4">
         <v>-61.569999694824219</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="3">
+      <c r="B58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="4">
         <v>143.17999267578125</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="4">
         <v>-61.569999694824219</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="3">
+      <c r="B59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="4">
         <v>167.22999572753906</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="4">
         <v>-36.900001525878906</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3">
+      <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="3">
+      <c r="B60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="4">
         <v>169.72999572753906</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="4">
         <v>-36.900001525878906</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3">
+      <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="3">
+      <c r="B61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="4">
         <v>172.22999572753906</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="4">
         <v>-36.900001525878906</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3">
+      <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="3">
+      <c r="B62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="4">
         <v>168.16999816894531</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="4">
         <v>-39.400001525878906</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="3">
+      <c r="B63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="4">
         <v>170.66999816894531</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="4">
         <v>-39.400001525878906</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3">
+      <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="3">
+      <c r="B64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="4">
         <v>173.16999816894531</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="4">
         <v>-39.400001525878906</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="3">
+      <c r="B65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="4">
         <v>158.63999938964844</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="4">
         <v>-54.439998626708984</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3">
+      <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="3">
+      <c r="B66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="4">
         <v>163.86000061035156</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="4">
         <v>-51.430000305175781</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3">
+      <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="3">
+      <c r="B67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="4">
         <v>168.13999938964844</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="4">
         <v>-48.700000762939453</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4493,1057 +5037,1054 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4707741F-BFD4-4FF4-A1EB-A627D15E0B90}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
-    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="2"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="2"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>4.5859999656677246</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>5.8299999237060547</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>41.799999237060547</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>79.800003051757813</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>13.350000381469727</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>3.6159999370574951</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>11.5600004196167</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>-2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
         <v>0.52999997138977051</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>0.52999997138977051</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
         <v>6.619999885559082</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>2.5800004005432129</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
         <v>10.699999809265137</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>5.5900001525878906</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
         <v>2.5899999141693115</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>8.3600006103515625</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
         <v>-0.85000002384185791</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>7.9800000190734863</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
         <v>-2.8299999237060547</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>7.96999979019165</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
         <v>-4.940000057220459</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>8.0299997329711914</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
         <v>-8.4399995803833</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>10.079999923706055</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
         <v>-6.6399998664855957</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>10.119999885559082</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
         <v>-2.5999999046325684</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>11.859999656677246</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
         <v>1.5</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>15.019998550415039</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
         <v>3.7000000476837158</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>17.840000152587891</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
         <v>0.51999998092651367</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>20.75</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2">
         <v>9.1499996185302734</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>23.200000762939453</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2">
         <v>11.409999847412109</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>23.180000305175781</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2">
         <v>3.630000114440918</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>23.170000076293945</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2">
         <v>6.7100000381469727</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>28.360000610351563</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2">
         <v>0.51999998092651367</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>28.8799991607666</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
         <v>-4.5799999237060547</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>30.940000534057617</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2">
         <v>-0.550000011920929</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>34.3900032043457</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2">
         <v>5.6399998664855957</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>36.570003509521484</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
         <v>0.5</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>40.570003509521484</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2">
         <v>8.8900003433227539</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>47.889999389648438</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2">
         <v>1.6000000238418579</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>61.860000610351563</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2">
         <v>46.450000762939453</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>87.260002136230469</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2">
         <v>53.400001525878906</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>101.30000305175781</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>-7.929999828338623</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>1.6299999952316284</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>-7.4499998092651367</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>8.7700004577636719</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>-8.6899995803833</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>31.200000762939453</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>13.260000228881836</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>30.180000305175781</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>12.800000190734863</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>38.354000091552734</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>12.680000305175781</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <v>47.531002044677734</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>-6.21999979019165</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>7.5799999237060547</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <v>11.930000305175781</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <v>22.889999389648438</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>-7.6500000953674316</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>26.8799991607666</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>-16.360000610351563</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>70.830001831054688</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="2">
         <v>19.069999694824219</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>70.80999755859375</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="2">
         <v>-4.8400001525878906</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="2">
         <v>7.5500001907348633</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <v>13.239999771118164</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2">
         <v>22.909999847412109</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="2">
         <v>-8.6700000762939453</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="2">
         <v>27.940000534057617</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <v>-17.569999694824219</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="2">
         <v>70.830001831054688</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="2">
         <v>20.5</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="2">
         <v>70.800003051757813</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="2">
         <v>56</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="2">
         <v>103.5</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="B50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="2">
         <v>10.489999771118164</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="2">
         <v>46.930000305175781</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="B51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <v>-8.869999885559082</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="2">
         <v>70.389999389648438</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <v>15.979999542236328</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="2">
         <v>70.379997253417969</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="2">
         <v>0</v>
       </c>
     </row>
@@ -5565,228 +6106,228 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="5"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="5"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="5"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="6"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="6"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="6"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>4.5859999656677246</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>5.8299999237060547</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>3.4392979145050049</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>0.534288227558136</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>30</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>-1.3919999599456787</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>11.5600004196167</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>-2</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6">
         <v>8</v>
       </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6">
         <v>10</v>
       </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6">
         <v>2</v>
       </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6">
         <v>1</v>
       </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6">
         <v>-3</v>
       </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/SpawnData.xlsx
+++ b/Assets/Data/SpawnData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2312004\Documents\FLUFF_SWING\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E3510D-EFEC-4D30-931D-8ED003459B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D17490-BECD-48D0-A870-EB87C6831A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E4C33777-1E58-4483-B30F-52CA6AAB0A77}"/>
   </bookViews>
@@ -2885,10 +2885,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0451ECB-537D-4FB2-A2D8-B602F91E52CB}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2972,7 +2972,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1">
-        <v>125.69999694824219</v>
+        <v>65.5999984741211</v>
       </c>
       <c r="E4" s="1">
         <v>82.8499984741211</v>
@@ -3526,16 +3526,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D32" s="1">
-        <v>31.899999618530273</v>
+        <v>75.9000015258789</v>
       </c>
       <c r="E32" s="1">
-        <v>57.560001373291016</v>
+        <v>20.799999237060547</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -3546,16 +3546,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1">
-        <v>32.930000305175781</v>
+        <v>76</v>
       </c>
       <c r="E33" s="1">
-        <v>57.560001373291016</v>
+        <v>32.099998474121094</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -3566,16 +3566,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D34" s="1">
-        <v>94.279998779296875</v>
+        <v>76.0999984741211</v>
       </c>
       <c r="E34" s="1">
-        <v>73.040000915527344</v>
+        <v>41.5</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -3586,16 +3586,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D35" s="1">
-        <v>71.279998779296875</v>
+        <v>86.199996948242188</v>
       </c>
       <c r="E35" s="1">
-        <v>27.1200008392334</v>
+        <v>52.099998474121094</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -3606,16 +3606,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D36" s="1">
-        <v>91.5</v>
+        <v>86.300003051757813</v>
       </c>
       <c r="E36" s="1">
-        <v>48.540000915527344</v>
+        <v>76.199996948242188</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -3626,16 +3626,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D37" s="1">
-        <v>72.489997863769531</v>
+        <v>-4.6999998092651367</v>
       </c>
       <c r="E37" s="1">
-        <v>64.860000610351563</v>
+        <v>24.399999618530273</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -3646,18 +3646,158 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-20.75</v>
+      </c>
+      <c r="E38" s="1">
+        <v>-0.99000000953674316</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1">
+        <v>31.899999618530273</v>
+      </c>
+      <c r="E39" s="1">
+        <v>57.560001373291016</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1">
+        <v>32.930000305175781</v>
+      </c>
+      <c r="E40" s="1">
+        <v>57.560001373291016</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D41" s="1">
+        <v>94.279998779296875</v>
+      </c>
+      <c r="E41" s="1">
+        <v>73.040000915527344</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="1">
+        <v>71.279998779296875</v>
+      </c>
+      <c r="E42" s="1">
+        <v>27.1200008392334</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="1">
+        <v>91.5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>48.540000915527344</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1">
+        <v>72.489997863769531</v>
+      </c>
+      <c r="E44" s="1">
+        <v>64.860000610351563</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="1">
         <v>-7.0999999046325684</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E45" s="1">
         <v>86.2699966430664</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F45" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/SpawnData.xlsx
+++ b/Assets/Data/SpawnData.xlsx
@@ -7565,7 +7565,7 @@
         <v>209.33000183105469</v>
       </c>
       <c r="E66" s="1">
-        <v>-6.809999942779541</v>
+        <v>-5.130000114440918</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -7585,7 +7585,7 @@
         <v>216.27999877929688</v>
       </c>
       <c r="E67" s="1">
-        <v>-7.8099989891052246</v>
+        <v>-6.1299986839294434</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -7605,7 +7605,7 @@
         <v>224.75</v>
       </c>
       <c r="E68" s="1">
-        <v>-8.8099994659423828</v>
+        <v>-7.12999963760376</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -7625,7 +7625,7 @@
         <v>232.97999572753906</v>
       </c>
       <c r="E69" s="1">
-        <v>-9.8099994659423828</v>
+        <v>-8.1299991607666016</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -7645,7 +7645,7 @@
         <v>241.3699951171875</v>
       </c>
       <c r="E70" s="1">
-        <v>-10.809999465942383</v>
+        <v>-9.1299991607666016</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -7665,7 +7665,7 @@
         <v>249.52000427246094</v>
       </c>
       <c r="E71" s="1">
-        <v>-11.8100004196167</v>
+        <v>-10.130001068115234</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>

--- a/Assets/Data/SpawnData.xlsx
+++ b/Assets/Data/SpawnData.xlsx
@@ -1450,1428 +1450,1431 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="4"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="4"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="4"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1" style="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
         <v>6.5</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="1">
         <v>-1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
         <v>8.5</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>-1</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
         <v>10.5</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <v>-1</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
         <v>21.5</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
         <v>23</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
         <v>24.5</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
         <v>26</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
         <v>27.5</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4">
-        <v>24.590000152587891</v>
-      </c>
-      <c r="E10" s="4">
-        <v>-24.5</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
+        <v>24.440000534057617</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-22.159999847412109</v>
+      </c>
+      <c r="F10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4">
-        <v>26.090000152587891</v>
-      </c>
-      <c r="E11" s="4">
-        <v>-24.5</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>25.940000534057617</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-22.159999847412109</v>
+      </c>
+      <c r="F11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4">
-        <v>27.590000152587891</v>
-      </c>
-      <c r="E12" s="4">
-        <v>-24.5</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
+        <v>27.440000534057617</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-22.159999847412109</v>
+      </c>
+      <c r="F12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
         <v>25.239999771118164</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="1">
         <v>-17.5</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
         <v>26.739999771118164</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="1">
         <v>-17.5</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4">
-        <v>32.650001525878906</v>
-      </c>
-      <c r="E15" s="4">
-        <v>-22.5</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1">
+        <v>31.779998779296875</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-20.100000381469727</v>
+      </c>
+      <c r="F15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="4">
-        <v>34.150001525878906</v>
-      </c>
-      <c r="E16" s="4">
-        <v>-22.5</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1">
+        <v>33.279998779296875</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-20.100000381469727</v>
+      </c>
+      <c r="F16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4">
-        <v>35.650001525878906</v>
-      </c>
-      <c r="E17" s="4">
-        <v>-22.5</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>34.779998779296875</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-20.100000381469727</v>
+      </c>
+      <c r="F17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
         <v>33.650001525878906</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="1">
         <v>-14.300000190734863</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
         <v>38.560001373291016</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="1">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
         <v>40.060001373291016</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="1">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="4">
-        <v>40.369998931884766</v>
-      </c>
-      <c r="E21" s="4">
-        <v>-20.399999618530273</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1">
+        <v>38.7400016784668</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-18.090000152587891</v>
+      </c>
+      <c r="F21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="4">
-        <v>41.869998931884766</v>
-      </c>
-      <c r="E22" s="4">
-        <v>-20.399999618530273</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1">
+        <v>40.2400016784668</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-18.090000152587891</v>
+      </c>
+      <c r="F22" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="4">
-        <v>43.369998931884766</v>
-      </c>
-      <c r="E23" s="4">
-        <v>-20.399999618530273</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1">
+        <v>41.7400016784668</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-18.090000152587891</v>
+      </c>
+      <c r="F23" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1">
         <v>85.5999984741211</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="1">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1">
         <v>87.0999984741211</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="1">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1">
         <v>88.5999984741211</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="1">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1">
         <v>67.0999984741211</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="1">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="4">
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1">
         <v>68.5999984741211</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="1">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="4">
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1">
         <v>57.909999847412109</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="1">
         <v>-11.300000190734863</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="4">
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1">
         <v>59.409999847412109</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="1">
         <v>-11.300000190734863</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1">
         <v>21.5</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="1">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1">
         <v>23</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="1">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="4">
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1">
         <v>24.5</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="1">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="4">
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1">
         <v>26</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="1">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="4">
+      <c r="B35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1">
         <v>27.5</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="1">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1">
         <v>29</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="1">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="4">
+      <c r="B37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="1">
         <v>18.5</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="1">
         <v>-9</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="4">
+      <c r="B38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="1">
         <v>87.0999984741211</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="1">
         <v>-16</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="4">
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="1">
         <v>88.5999984741211</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="1">
         <v>-16</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="4">
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="1">
         <v>52.310001373291016</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="1">
         <v>-9.3000001907348633</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="4">
+      <c r="B41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="1">
         <v>53.810001373291016</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="1">
         <v>-9.3000001907348633</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="4">
+      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1">
         <v>71.160003662109375</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="1">
         <v>-7.3000001907348633</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="4">
+      <c r="B43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="1">
         <v>72.660003662109375</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="1">
         <v>-7.3000001907348633</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="4">
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="1">
         <v>66.3499984741211</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="1">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="4">
+      <c r="B45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="1">
         <v>67.8499984741211</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="1">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="4">
+      <c r="B46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="1">
         <v>69.3499984741211</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="1">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="4">
+      <c r="B47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="1">
         <v>77.040000915527344</v>
       </c>
-      <c r="E47" s="4">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4">
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="4">
+      <c r="B48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="1">
         <v>86.8499984741211</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="1">
         <v>-0.039999999105930328</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="4">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="4">
+      <c r="B49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="1">
         <v>93.339996337890625</v>
       </c>
-      <c r="E49" s="4">
-        <v>0</v>
-      </c>
-      <c r="F49" s="4">
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="4">
+      <c r="B50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="1">
         <v>98.470001220703125</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="1">
         <v>3.059999942779541</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="4">
+      <c r="B51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="1">
         <v>81.050003051757813</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="1">
         <v>3.8199999332427979</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="4" t="s">
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="1">
         <v>10.779999732971191</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="1">
         <v>5.630000114440918</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="4">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="4" t="s">
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="1">
         <v>28.790000915527344</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="1">
         <v>-25</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="4">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="4" t="s">
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="1">
         <v>89.040000915527344</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="1">
         <v>-17.856000900268555</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="4">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="4" t="s">
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="1">
         <v>121.59999847412109</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="1">
         <v>-6.6100001335144043</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="4">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="4" t="s">
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="1">
         <v>13.430000305175781</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="1">
         <v>-1.5399999618530273</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="4">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="4" t="s">
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="1">
         <v>44</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="1">
         <v>-20.899999618530273</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="4">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="4" t="s">
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="1">
         <v>19.700000762939453</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="1">
         <v>2.2200000286102295</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="4">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="4" t="s">
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="1">
         <v>102.13999938964844</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="1">
         <v>-3.6500000953674316</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="4">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="4" t="s">
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="1">
         <v>77.5199966430664</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="1">
         <v>-10.729999542236328</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="4">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="4" t="s">
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="1">
         <v>59.5</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="1">
         <v>-2.5499999523162842</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="4">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="4">
+      <c r="B62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="1">
         <v>41</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="1">
         <v>-4.0199999809265137</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="4">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="4">
+      <c r="B63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="1">
         <v>43</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="1">
         <v>-4.0199999809265137</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="4">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="4">
+      <c r="B64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="1">
         <v>42</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="1">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="4">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="4">
+      <c r="B65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="1">
         <v>44</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="1">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="4">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="4">
+      <c r="B66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="1">
         <v>46</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="1">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="4">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="4">
+      <c r="B67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="1">
         <v>43</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="1">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="4">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="4">
+      <c r="B68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="1">
         <v>45</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="1">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="4">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="4">
+      <c r="B69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="1">
         <v>47</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="1">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="4">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="4">
+      <c r="B70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="1">
         <v>48</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="1">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="4">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="4">
+      <c r="B71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="1">
         <v>49</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="1">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2893,908 +2896,908 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="2"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="2"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="2"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="3"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="3"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>59.7400016784668</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>80.0199966430664</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>58.659999847412109</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>80.0199966430664</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>65.5999984741211</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>82.8499984741211</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>28.090000152587891</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>-0.43000000715255737</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>55.7400016784668</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>79.569999694824219</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3">
         <v>0.47999998927116394</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>-0.039999999105930328</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3">
         <v>13.819999694824219</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>-0.25</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3">
         <v>27.6200008392334</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>1.6599999666213989</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3">
         <v>45.790000915527344</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>2.059999942779541</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3">
         <v>48.479999542236328</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3">
         <v>64.669998168945313</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>2.4700000286102295</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3">
         <v>68.8499984741211</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>0.949999988079071</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3">
         <v>75.889999389648438</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>-0.60000002384185791</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3">
         <v>75.7699966430664</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>6.4000000953674316</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
         <v>75.669998168945313</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>13.300000190734863</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
         <v>86</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>28.200000762939453</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
         <v>86</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>40.299999237060547</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3">
         <v>76.0999984741211</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>51.599998474121094</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3">
         <v>86.4000015258789</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>64.0999984741211</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3">
         <v>76.120002746582031</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>73.470001220703125</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3">
         <v>82.55999755859375</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>82.129997253417969</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3">
         <v>74.989997863769531</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <v>81.860000610351563</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3">
         <v>69.959999084472656</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="3">
         <v>80.489997863769531</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3">
         <v>67.930000305175781</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <v>80.459999084472656</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3">
         <v>65.889999389648438</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="3">
         <v>80.470001220703125</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3">
         <v>36.680000305175781</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <v>80.44000244140625</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3">
         <v>9.1899995803833</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="3">
         <v>80.660003662109375</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3">
         <v>-1.8999999761581421</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="3">
         <v>76</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3">
         <v>2.8999998569488525</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="3">
         <v>72.199996948242188</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3">
         <v>17.100000381469727</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <v>40.720001220703125</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="B32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3">
         <v>75.9000015258789</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="3">
         <v>20.799999237060547</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="B33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3">
         <v>76</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="3">
         <v>32.099998474121094</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="B34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3">
         <v>76.0999984741211</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="3">
         <v>41.5</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3">
         <v>86.199996948242188</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="3">
         <v>52.099998474121094</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="B36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3">
         <v>86.300003051757813</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="3">
         <v>76.199996948242188</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="B37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3">
         <v>-4.6999998092651367</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="3">
         <v>24.399999618530273</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="B38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="3">
         <v>-20.75</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="3">
         <v>-0.99000000953674316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="3">
         <v>31.899999618530273</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="3">
         <v>57.560001373291016</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="3">
         <v>32.930000305175781</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="3">
         <v>57.560001373291016</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="3">
         <v>94.279998779296875</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="3">
         <v>73.040000915527344</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="3">
         <v>71.279998779296875</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="3">
         <v>27.1200008392334</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="3">
         <v>91.5</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="3">
         <v>48.540000915527344</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="3">
         <v>72.489997863769531</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="3">
         <v>64.860000610351563</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="3">
         <v>-7.0999999046325684</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="3">
         <v>86.2699966430664</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5180,1048 +5183,1048 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="3"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="3"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="3"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="4"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="4"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>4.5859999656677246</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>5.8299999237060547</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>41.799999237060547</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>79.800003051757813</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>13.350000381469727</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>3.6159999370574951</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>11.5600004196167</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>-2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4">
         <v>0.52999997138977051</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>0.52999997138977051</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4">
         <v>6.619999885559082</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>2.5800004005432129</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4">
         <v>10.699999809265137</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>5.5900001525878906</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4">
         <v>2.5899999141693115</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>8.3600006103515625</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4">
         <v>-0.85000002384185791</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>7.9800000190734863</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4">
         <v>-2.8299999237060547</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>7.96999979019165</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4">
         <v>-4.940000057220459</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>8.0299997329711914</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4">
         <v>-8.4399995803833</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>10.079999923706055</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4">
         <v>-6.6399998664855957</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>10.119999885559082</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4">
         <v>-2.5999999046325684</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>11.859999656677246</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4">
         <v>1.5</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <v>15.019998550415039</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4">
         <v>3.7000000476837158</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <v>17.840000152587891</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="4">
         <v>0.51999998092651367</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>20.75</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="4">
         <v>9.1499996185302734</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <v>23.200000762939453</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="4">
         <v>11.409999847412109</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>23.180000305175781</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="4">
         <v>3.630000114440918</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="4">
         <v>23.170000076293945</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="4">
         <v>6.7100000381469727</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>28.360000610351563</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="B24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="4">
         <v>0.51999998092651367</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="4">
         <v>28.8799991607666</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="B25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="4">
         <v>-4.5799999237060547</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="4">
         <v>30.940000534057617</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="B26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="4">
         <v>-0.550000011920929</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="4">
         <v>34.3900032043457</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="4">
         <v>5.6399998664855957</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="4">
         <v>36.570003509521484</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="B28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="4">
         <v>0.5</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="4">
         <v>40.570003509521484</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="B29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="4">
         <v>8.8900003433227539</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="4">
         <v>47.889999389648438</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="B30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="4">
         <v>1.6000000238418579</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="4">
         <v>61.860000610351563</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="B31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="4">
         <v>46.450000762939453</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="4">
         <v>87.260002136230469</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="B32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="4">
         <v>53.400001525878906</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="4">
         <v>101.30000305175781</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="4">
         <v>-7.929999828338623</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="4">
         <v>1.6299999952316284</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="4">
         <v>-7.4499998092651367</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="4">
         <v>8.7700004577636719</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="4">
         <v>-8.6899995803833</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="4">
         <v>31.200000762939453</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="4">
         <v>13.260000228881836</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="4">
         <v>30.180000305175781</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="4">
         <v>12.800000190734863</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="4">
         <v>38.354000091552734</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="4">
         <v>12.680000305175781</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="4">
         <v>47.531002044677734</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="4">
         <v>-6.21999979019165</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="4">
         <v>7.5799999237060547</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="4">
         <v>11.930000305175781</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="4">
         <v>22.889999389648438</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="4">
         <v>-7.6500000953674316</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="4">
         <v>26.8799991607666</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="4">
         <v>-16.360000610351563</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="4">
         <v>70.830001831054688</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="4">
         <v>19.069999694824219</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="4">
         <v>70.80999755859375</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="4">
         <v>-4.8400001525878906</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="4">
         <v>7.5500001907348633</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="4">
         <v>13.239999771118164</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="4">
         <v>22.909999847412109</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="4">
         <v>-8.6700000762939453</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="4">
         <v>27.940000534057617</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="4">
         <v>-17.569999694824219</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="4">
         <v>70.830001831054688</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="B48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="4">
         <v>20.5</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="4">
         <v>70.800003051757813</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="4">
         <v>56</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="4">
         <v>103.5</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="B50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="4">
         <v>10.489999771118164</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="4">
         <v>46.930000305175781</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="B51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="4">
         <v>-8.869999885559082</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="4">
         <v>70.389999389648438</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="B52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="4">
         <v>15.979999542236328</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="4">
         <v>70.379997253417969</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6243,1431 +6246,1431 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
-    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="1"/>
-    <col min="4" max="4" width="11.569690159389" customWidth="1" style="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
+    <col min="2" max="2" width="9.140625" customWidth="1" style="2"/>
+    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="2"/>
+    <col min="4" max="4" width="11.569690159389" customWidth="1" style="2"/>
+    <col min="5" max="5" width="9.140625" customWidth="1" style="2"/>
+    <col min="6" max="6" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2">
         <v>-3.6099998950958252</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>1.5800000429153442</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2">
         <v>-8.6499996185302734</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>2.8199999332427979</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
         <v>0.029999999329447746</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>-6.320000171661377</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
         <v>2.0299999713897705</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>-6.320000171661377</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
         <v>4.0299997329711914</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>-6.320000171661377</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
         <v>0.029999999329447746</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>-10.340000152587891</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
         <v>2.0299999713897705</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>-10.340000152587891</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
         <v>4.03000020980835</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>-10.340000152587891</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
         <v>11.760000228881836</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>-8.0500001907348633</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
         <v>18.899999618530273</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>-8.0500001907348633</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
         <v>23.010000228881836</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>-10.359999656677246</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
         <v>25.010000228881836</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>-10.359999656677246</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
         <v>28.770000457763672</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>-12.329999923706055</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
         <v>32.340000152587891</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>-13.409999847412109</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
         <v>38.209999084472656</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>-8.119999885559082</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
         <v>38.209999084472656</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>-5.6199989318847656</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
         <v>38.209999084472656</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>-3.6199989318847656</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
         <v>57.590000152587891</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>-6.1500000953674316</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2">
         <v>59.590000152587891</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>-6.1500000953674316</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2">
         <v>73.970001220703125</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>-7.119999885559082</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2">
         <v>52.330001831054688</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>6.96999979019165</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2">
         <v>61.369998931884766</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>6.96999979019165</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2">
         <v>63.369998931884766</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>6.96999979019165</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
         <v>75.239997863769531</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>5.0399999618530273</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2">
         <v>46.400001525878906</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>5.0399999618530273</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2">
         <v>46.400001525878906</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>7.5399999618530273</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
         <v>46.400001525878906</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>10.039999961853027</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2">
         <v>57.659999847412109</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>9.2899999618530273</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2">
         <v>69.879997253417969</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>6.130000114440918</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2">
         <v>103.70999908447266</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>-8.0799999237060547</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2">
         <v>103.70999908447266</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>-8.0799999237060547</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2">
         <v>128.5</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>-8.0799999237060547</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2">
         <v>131</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>-8.0799999237060547</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2">
         <v>147.58999633789063</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>-11.140000343322754</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2">
         <v>150.08999633789063</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>-11.140000343322754</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2">
         <v>152.58999633789063</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>-11.140000343322754</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2">
         <v>169.07000732421875</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <v>-12.869999885559082</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="2">
         <v>171.57000732421875</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>-12.869999885559082</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2">
         <v>174.07000732421875</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <v>-12.869999885559082</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="2">
         <v>176.57000732421875</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>-12.869999885559082</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2">
         <v>115.69999694824219</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>-2.630000114440918</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2">
         <v>115.69999694824219</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>-0.12999999523162842</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2">
         <v>115.69999694824219</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="2">
         <v>2.369999885559082</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="2">
         <v>133.11000061035156</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2">
         <v>8.5</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="2">
         <v>150.52999877929688</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="2">
         <v>8.5</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2">
         <v>153.02999877929688</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="2">
         <v>8.5</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="B48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2">
         <v>161.14999389648438</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="2">
         <v>5.3600001335144043</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="B49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="2">
         <v>168.47999572753906</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="2">
         <v>2.1600000858306885</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="2">
         <v>179.14999389648438</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="2">
         <v>-2.7899999618530273</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="2">
         <v>187.72999572753906</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="2">
         <v>-2.7900002002716064</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <v>10.770000457763672</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="2">
         <v>-3.5399999618530273</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="2">
         <v>49.439998626708984</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="2">
         <v>-8.65999984741211</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="2">
         <v>67.889999389648438</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="2">
         <v>-8.65999984741211</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="2">
         <v>119.84600067138672</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="2">
         <v>-4.5970001220703125</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="2">
         <v>149.94099426269531</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="2">
         <v>-6.619999885559082</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="2">
         <v>169.33000183105469</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="2">
         <v>-8.6700000762939453</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="2">
         <v>176.44000244140625</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="2">
         <v>-8.6700000762939453</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="2">
         <v>243.30299377441406</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="2">
         <v>-39.273998260498047</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="B60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="2">
         <v>276.97100830078125</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="2">
         <v>-41.316001892089844</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="B61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="2">
         <v>80.9000015258789</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="2">
         <v>-8.6700000762939453</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="B62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="2">
         <v>111.12000274658203</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="2">
         <v>-10.710000038146973</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1">
+      <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="B63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="2">
         <v>200.1300048828125</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="2">
         <v>-8.65999984741211</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="B64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="2">
         <v>251.44999694824219</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="2">
         <v>-48.419998168945313</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="B65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="2">
         <v>270.79000854492188</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="2">
         <v>-48.419998168945313</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="1">
+      <c r="B66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="2">
         <v>209.33000183105469</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="2">
         <v>-5.130000114440918</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="1">
+      <c r="B67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="2">
         <v>216.27999877929688</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="2">
         <v>-6.1299986839294434</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="1">
+      <c r="B68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="2">
         <v>224.75</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="2">
         <v>-7.12999963760376</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1">
+      <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="1">
+      <c r="B69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="2">
         <v>232.97999572753906</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="2">
         <v>-8.1299991607666016</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1">
+      <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="1">
+      <c r="B70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="2">
         <v>241.3699951171875</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="2">
         <v>-9.1299991607666016</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1">
+      <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="1">
+      <c r="B71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="2">
         <v>249.52000427246094</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="2">
         <v>-10.130001068115234</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/SpawnData.xlsx
+++ b/Assets/Data/SpawnData.xlsx
@@ -1450,1431 +1450,1428 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
-    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="4"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="4"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4">
         <v>6.5</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>-1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4">
         <v>8.5</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>-1</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4">
         <v>10.5</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>-1</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4">
         <v>21.5</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4">
         <v>23</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4">
         <v>24.5</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4">
         <v>26</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4">
         <v>27.5</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>2</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1">
-        <v>24.440000534057617</v>
-      </c>
-      <c r="E10" s="1">
-        <v>-22.159999847412109</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4">
+        <v>24.590000152587891</v>
+      </c>
+      <c r="E10" s="4">
+        <v>-24.5</v>
+      </c>
+      <c r="F10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1">
-        <v>25.940000534057617</v>
-      </c>
-      <c r="E11" s="1">
-        <v>-22.159999847412109</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4">
+        <v>26.090000152587891</v>
+      </c>
+      <c r="E11" s="4">
+        <v>-24.5</v>
+      </c>
+      <c r="F11" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1">
-        <v>27.440000534057617</v>
-      </c>
-      <c r="E12" s="1">
-        <v>-22.159999847412109</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4">
+        <v>27.590000152587891</v>
+      </c>
+      <c r="E12" s="4">
+        <v>-24.5</v>
+      </c>
+      <c r="F12" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4">
         <v>25.239999771118164</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>-17.5</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4">
         <v>26.739999771118164</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>-17.5</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1">
-        <v>31.779998779296875</v>
-      </c>
-      <c r="E15" s="1">
-        <v>-20.100000381469727</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4">
+        <v>32.650001525878906</v>
+      </c>
+      <c r="E15" s="4">
+        <v>-22.5</v>
+      </c>
+      <c r="F15" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1">
-        <v>33.279998779296875</v>
-      </c>
-      <c r="E16" s="1">
-        <v>-20.100000381469727</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4">
+        <v>34.150001525878906</v>
+      </c>
+      <c r="E16" s="4">
+        <v>-22.5</v>
+      </c>
+      <c r="F16" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1">
-        <v>34.779998779296875</v>
-      </c>
-      <c r="E17" s="1">
-        <v>-20.100000381469727</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4">
+        <v>35.650001525878906</v>
+      </c>
+      <c r="E17" s="4">
+        <v>-22.5</v>
+      </c>
+      <c r="F17" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4">
         <v>33.650001525878906</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>-14.300000190734863</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="4">
         <v>38.560001373291016</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="4">
         <v>40.060001373291016</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1">
-        <v>38.7400016784668</v>
-      </c>
-      <c r="E21" s="1">
-        <v>-18.090000152587891</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="4">
+        <v>40.369998931884766</v>
+      </c>
+      <c r="E21" s="4">
+        <v>-20.399999618530273</v>
+      </c>
+      <c r="F21" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1">
-        <v>40.2400016784668</v>
-      </c>
-      <c r="E22" s="1">
-        <v>-18.090000152587891</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="4">
+        <v>41.869998931884766</v>
+      </c>
+      <c r="E22" s="4">
+        <v>-20.399999618530273</v>
+      </c>
+      <c r="F22" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="1">
-        <v>41.7400016784668</v>
-      </c>
-      <c r="E23" s="1">
-        <v>-18.090000152587891</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="4">
+        <v>43.369998931884766</v>
+      </c>
+      <c r="E23" s="4">
+        <v>-20.399999618530273</v>
+      </c>
+      <c r="F23" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="B24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="4">
         <v>85.5999984741211</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="B25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="4">
         <v>87.0999984741211</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="B26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="4">
         <v>88.5999984741211</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="4">
         <v>67.0999984741211</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="B28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="4">
         <v>68.5999984741211</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="B29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="4">
         <v>57.909999847412109</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>-11.300000190734863</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="B30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="4">
         <v>59.409999847412109</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>-11.300000190734863</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="B31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="4">
         <v>21.5</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="B32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="4">
         <v>23</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="B33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="4">
         <v>24.5</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="4">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="B34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="4">
         <v>26</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="4">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="B35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="4">
         <v>27.5</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="4">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="B36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="4">
         <v>29</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="4">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="B37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="4">
         <v>18.5</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="4">
         <v>-9</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="B38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="4">
         <v>87.0999984741211</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="4">
         <v>-16</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="B39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="4">
         <v>88.5999984741211</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="4">
         <v>-16</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="B40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="4">
         <v>52.310001373291016</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="4">
         <v>-9.3000001907348633</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="B41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="4">
         <v>53.810001373291016</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="4">
         <v>-9.3000001907348633</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="B42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="4">
         <v>71.160003662109375</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="4">
         <v>-7.3000001907348633</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="B43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="4">
         <v>72.660003662109375</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="4">
         <v>-7.3000001907348633</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="B44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="4">
         <v>66.3499984741211</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="4">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="B45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="4">
         <v>67.8499984741211</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="4">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="B46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="4">
         <v>69.3499984741211</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="4">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="B47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="4">
         <v>77.040000915527344</v>
       </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="B48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="4">
         <v>86.8499984741211</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="4">
         <v>-0.039999999105930328</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="B49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="4">
         <v>93.339996337890625</v>
       </c>
-      <c r="E49" s="1">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="B50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="4">
         <v>98.470001220703125</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="4">
         <v>3.059999942779541</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="B51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="4">
         <v>81.050003051757813</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="4">
         <v>3.8199999332427979</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="4">
         <v>10.779999732971191</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="4">
         <v>5.630000114440918</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="4">
         <v>28.790000915527344</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="4">
         <v>-25</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="4">
         <v>89.040000915527344</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="4">
         <v>-17.856000900268555</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="4">
         <v>121.59999847412109</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="4">
         <v>-6.6100001335144043</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1">
+      <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="4">
         <v>13.430000305175781</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="4">
         <v>-1.5399999618530273</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="4">
         <v>44</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="4">
         <v>-20.899999618530273</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="4">
         <v>19.700000762939453</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="4">
         <v>2.2200000286102295</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="4">
         <v>102.13999938964844</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="4">
         <v>-3.6500000953674316</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1">
+      <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="B60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="4">
         <v>77.5199966430664</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="4">
         <v>-10.729999542236328</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1">
+      <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="B61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="4">
         <v>59.5</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="4">
         <v>-2.5499999523162842</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1">
+      <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="1">
+      <c r="B62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="4">
         <v>41</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="4">
         <v>-4.0199999809265137</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="1">
+      <c r="B63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="4">
         <v>43</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="4">
         <v>-4.0199999809265137</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1">
+      <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="B64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="4">
         <v>42</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="4">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="1">
+      <c r="B65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="4">
         <v>44</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="4">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1">
+      <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="1">
+      <c r="B66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="4">
         <v>46</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="4">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1">
+      <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="1">
+      <c r="B67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="4">
         <v>43</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="4">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1">
+      <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="1">
+      <c r="B68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="4">
         <v>45</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="4">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1">
+      <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="1">
+      <c r="B69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="4">
         <v>47</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="4">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1">
+      <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="1">
+      <c r="B70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="4">
         <v>48</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="4">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1">
+      <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="1">
+      <c r="B71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="4">
         <v>49</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="4">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2896,908 +2893,908 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="3"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="3"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="3"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="2"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="2"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>59.7400016784668</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>80.0199966430664</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>58.659999847412109</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>80.0199966430664</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>65.5999984741211</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>82.8499984741211</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>28.090000152587891</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>-0.43000000715255737</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>55.7400016784668</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>79.569999694824219</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
         <v>0.47999998927116394</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>-0.039999999105930328</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
         <v>13.819999694824219</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>-0.25</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
         <v>27.6200008392334</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>1.6599999666213989</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
         <v>45.790000915527344</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>2.059999942779541</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
         <v>48.479999542236328</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
         <v>64.669998168945313</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>2.4700000286102295</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
         <v>68.8499984741211</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>0.949999988079071</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
         <v>75.889999389648438</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>-0.60000002384185791</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
         <v>75.7699966430664</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>6.4000000953674316</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
         <v>75.669998168945313</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>13.300000190734863</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
         <v>86</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>28.200000762939453</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
         <v>86</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>40.299999237060547</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
         <v>76.0999984741211</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>51.599998474121094</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2">
         <v>86.4000015258789</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>64.0999984741211</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2">
         <v>76.120002746582031</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>73.470001220703125</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2">
         <v>82.55999755859375</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>82.129997253417969</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2">
         <v>74.989997863769531</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>81.860000610351563</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2">
         <v>69.959999084472656</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>80.489997863769531</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
         <v>67.930000305175781</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>80.459999084472656</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2">
         <v>65.889999389648438</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>80.470001220703125</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2">
         <v>36.680000305175781</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>80.44000244140625</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
         <v>9.1899995803833</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>80.660003662109375</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2">
         <v>-1.8999999761581421</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>76</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2">
         <v>2.8999998569488525</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>72.199996948242188</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2">
         <v>17.100000381469727</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>40.720001220703125</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2">
         <v>75.9000015258789</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>20.799999237060547</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2">
         <v>76</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>32.099998474121094</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2">
         <v>76.0999984741211</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>41.5</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2">
         <v>86.199996948242188</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>52.099998474121094</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2">
         <v>86.300003051757813</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>76.199996948242188</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2">
         <v>-4.6999998092651367</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>24.399999618530273</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2">
         <v>-20.75</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>-0.99000000953674316</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>31.899999618530273</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>57.560001373291016</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>32.930000305175781</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>57.560001373291016</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>94.279998779296875</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>73.040000915527344</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>71.279998779296875</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>27.1200008392334</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>91.5</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>48.540000915527344</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>72.489997863769531</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>64.860000610351563</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <v>-7.0999999046325684</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>86.2699966430664</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <v>0</v>
       </c>
     </row>
@@ -5183,1048 +5180,1048 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="4"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="4"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="4"/>
+    <col min="1" max="2" width="9.125" customWidth="1" style="3"/>
+    <col min="3" max="3" width="44.375" customWidth="1" style="3"/>
+    <col min="4" max="6" width="9.125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>4.5859999656677246</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>5.8299999237060547</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>-1.6239999532699585</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>41.799999237060547</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>79.800003051757813</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>13.350000381469727</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>3.6159999370574951</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>11.5600004196167</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3">
         <v>0.52999997138977051</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0.52999997138977051</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3">
         <v>6.619999885559082</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>2.5800004005432129</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3">
         <v>10.699999809265137</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>5.5900001525878906</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3">
         <v>2.5899999141693115</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>8.3600006103515625</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3">
         <v>-0.85000002384185791</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>7.9800000190734863</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3">
         <v>-2.8299999237060547</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>7.96999979019165</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3">
         <v>-4.940000057220459</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>8.0299997329711914</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3">
         <v>-8.4399995803833</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>10.079999923706055</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3">
         <v>-6.6399998664855957</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>10.119999885559082</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
         <v>-2.5999999046325684</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>11.859999656677246</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
         <v>1.5</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>15.019998550415039</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
         <v>3.7000000476837158</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>17.840000152587891</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3">
         <v>0.51999998092651367</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>20.75</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3">
         <v>9.1499996185302734</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>23.200000762939453</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3">
         <v>11.409999847412109</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>23.180000305175781</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3">
         <v>3.630000114440918</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>23.170000076293945</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3">
         <v>6.7100000381469727</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>28.360000610351563</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3">
         <v>0.51999998092651367</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>28.8799991607666</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3">
         <v>-4.5799999237060547</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>30.940000534057617</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3">
         <v>-0.550000011920929</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>34.3900032043457</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3">
         <v>5.6399998664855957</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>36.570003509521484</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="4">
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3">
         <v>0.5</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>40.570003509521484</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="4">
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3">
         <v>8.8900003433227539</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>47.889999389648438</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="4">
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3">
         <v>1.6000000238418579</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>61.860000610351563</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3">
         <v>46.450000762939453</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>87.260002136230469</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="B32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3">
         <v>53.400001525878906</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>101.30000305175781</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>-7.929999828338623</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>1.6299999952316284</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>-7.4499998092651367</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>8.7700004577636719</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>-8.6899995803833</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>31.200000762939453</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>13.260000228881836</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>30.180000305175781</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>12.800000190734863</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>38.354000091552734</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>12.680000305175781</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>47.531002044677734</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>-6.21999979019165</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>7.5799999237060547</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>11.930000305175781</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>22.889999389648438</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>-7.6500000953674316</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <v>26.8799991607666</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>-16.360000610351563</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <v>70.830001831054688</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>19.069999694824219</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <v>70.80999755859375</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>-4.8400001525878906</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <v>7.5500001907348633</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="4" t="s">
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>13.239999771118164</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <v>22.909999847412109</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="4" t="s">
+      <c r="B46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <v>-8.6700000762939453</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <v>27.940000534057617</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="B47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
         <v>-17.569999694824219</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <v>70.830001831054688</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="4" t="s">
+      <c r="B48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <v>20.5</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <v>70.800003051757813</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="4" t="s">
+      <c r="B49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3">
         <v>56</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <v>103.5</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="4" t="s">
+      <c r="B50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <v>10.489999771118164</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>46.930000305175781</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="4" t="s">
+      <c r="B51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="3">
         <v>-8.869999885559082</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="3">
         <v>70.389999389648438</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="4" t="s">
+      <c r="B52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
         <v>15.979999542236328</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <v>70.379997253417969</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6246,1431 +6243,1431 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
-    <col min="2" max="2" width="9.140625" customWidth="1" style="2"/>
-    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="2"/>
-    <col min="4" max="4" width="11.569690159389" customWidth="1" style="2"/>
-    <col min="5" max="5" width="9.140625" customWidth="1" style="2"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="1"/>
+    <col min="4" max="4" width="11.569690159389" customWidth="1" style="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
         <v>-3.6099998950958252</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>1.5800000429153442</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
         <v>-8.6499996185302734</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>2.8199999332427979</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
         <v>0.029999999329447746</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>-6.320000171661377</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
         <v>2.0299999713897705</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>-6.320000171661377</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
         <v>4.0299997329711914</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>-6.320000171661377</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.029999999329447746</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>-10.340000152587891</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
         <v>2.0299999713897705</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>-10.340000152587891</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
         <v>4.03000020980835</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>-10.340000152587891</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
         <v>11.760000228881836</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>-8.0500001907348633</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
         <v>18.899999618530273</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>-8.0500001907348633</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
         <v>23.010000228881836</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>-10.359999656677246</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
         <v>25.010000228881836</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>-10.359999656677246</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
         <v>28.770000457763672</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>-12.329999923706055</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1">
         <v>32.340000152587891</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>-13.409999847412109</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1">
         <v>38.209999084472656</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>-8.119999885559082</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
         <v>38.209999084472656</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>-5.6199989318847656</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
         <v>38.209999084472656</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>-3.6199989318847656</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
         <v>57.590000152587891</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>-6.1500000953674316</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
         <v>59.590000152587891</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>-6.1500000953674316</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1">
         <v>73.970001220703125</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>-7.119999885559082</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1">
         <v>52.330001831054688</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>6.96999979019165</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1">
         <v>61.369998931884766</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>6.96999979019165</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1">
         <v>63.369998931884766</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>6.96999979019165</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1">
         <v>75.239997863769531</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>5.0399999618530273</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1">
         <v>46.400001525878906</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>5.0399999618530273</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1">
         <v>46.400001525878906</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>7.5399999618530273</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1">
         <v>46.400001525878906</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>10.039999961853027</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1">
         <v>57.659999847412109</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>9.2899999618530273</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1">
         <v>69.879997253417969</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>6.130000114440918</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1">
         <v>103.70999908447266</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>-8.0799999237060547</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1">
         <v>103.70999908447266</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>-8.0799999237060547</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1">
         <v>128.5</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>-8.0799999237060547</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1">
         <v>131</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>-8.0799999237060547</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="B35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1">
         <v>147.58999633789063</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>-11.140000343322754</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1">
         <v>150.08999633789063</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>-11.140000343322754</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="B37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="1">
         <v>152.58999633789063</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>-11.140000343322754</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="B38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="1">
         <v>169.07000732421875</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>-12.869999885559082</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2">
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="1">
         <v>171.57000732421875</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>-12.869999885559082</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="2">
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="1">
         <v>174.07000732421875</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>-12.869999885559082</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="B41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="1">
         <v>176.57000732421875</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>-12.869999885559082</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="2">
+      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1">
         <v>115.69999694824219</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>-2.630000114440918</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="2">
+      <c r="B43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="1">
         <v>115.69999694824219</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>-0.12999999523162842</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="1">
         <v>115.69999694824219</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>2.369999885559082</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="2">
+      <c r="B45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="1">
         <v>133.11000061035156</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>8.5</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="B46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="1">
         <v>150.52999877929688</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>8.5</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="2">
+      <c r="B47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="1">
         <v>153.02999877929688</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>8.5</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="2">
+      <c r="B48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="1">
         <v>161.14999389648438</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>5.3600001335144043</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="2">
+      <c r="B49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="1">
         <v>168.47999572753906</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>2.1600000858306885</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="2">
+      <c r="B50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="1">
         <v>179.14999389648438</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>-2.7899999618530273</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="2">
+      <c r="B51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="1">
         <v>187.72999572753906</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>-2.7900002002716064</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>10.770000457763672</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>-3.5399999618530273</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <v>49.439998626708984</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>-8.65999984741211</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <v>67.889999389648438</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>-8.65999984741211</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <v>119.84600067138672</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>-4.5970001220703125</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="1">
         <v>149.94099426269531</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <v>-6.619999885559082</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="1">
         <v>169.33000183105469</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>-8.6700000762939453</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="1">
         <v>176.44000244140625</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <v>-8.6700000762939453</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="1">
         <v>243.30299377441406</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <v>-39.273998260498047</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="1">
         <v>276.97100830078125</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="1">
         <v>-41.316001892089844</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="1">
         <v>80.9000015258789</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1">
         <v>-8.6700000762939453</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="1">
         <v>111.12000274658203</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="1">
         <v>-10.710000038146973</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="B63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="1">
         <v>200.1300048828125</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="1">
         <v>-8.65999984741211</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="B64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="1">
         <v>251.44999694824219</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="1">
         <v>-48.419998168945313</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="2" t="s">
+      <c r="B65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="1">
         <v>270.79000854492188</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="1">
         <v>-48.419998168945313</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="2">
+      <c r="B66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="1">
         <v>209.33000183105469</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="1">
         <v>-5.130000114440918</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="2">
+      <c r="B67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="1">
         <v>216.27999877929688</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="1">
         <v>-6.1299986839294434</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="2">
+      <c r="B68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="1">
         <v>224.75</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="1">
         <v>-7.12999963760376</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="2">
+      <c r="B69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="1">
         <v>232.97999572753906</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="1">
         <v>-8.1299991607666016</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="2">
+      <c r="B70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="1">
         <v>241.3699951171875</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="1">
         <v>-9.1299991607666016</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="2">
+      <c r="B71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="1">
         <v>249.52000427246094</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="1">
         <v>-10.130001068115234</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/SpawnData.xlsx
+++ b/Assets/Data/SpawnData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2312029\Documents\FLUFF_SWING\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae9d72655d379bd3/ドキュメント/FLUFF_SWING/Assets/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB796B53-597B-4AEC-AB2E-0111EC9645C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{CB796B53-597B-4AEC-AB2E-0111EC9645C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{325002B5-8822-4FB2-ABD9-0521626A2833}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{E4C33777-1E58-4483-B30F-52CA6AAB0A77}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E4C33777-1E58-4483-B30F-52CA6AAB0A77}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage1" sheetId="7" r:id="rId1"/>
@@ -33,9 +33,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -122,16 +119,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="4">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -464,973 +452,971 @@
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="4"/>
-    <col min="2" max="2" width="9.140625" customWidth="1" style="4"/>
-    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="4"/>
-    <col min="4" max="4" width="11.569690159389" customWidth="1" style="4"/>
-    <col min="5" max="5" width="9.140625" customWidth="1" style="4"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="4"/>
+    <col min="1" max="2" width="9.09765625" customWidth="1" style="3"/>
+    <col min="3" max="3" width="44.3984375" customWidth="1" style="3"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1" style="3"/>
+    <col min="5" max="6" width="9.09765625" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>45.569999694824219</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>46.909999847412109</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>-1.5560001134872437</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>96.0999984741211</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>6.5</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>43.139999389648438</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>-1.4420000314712524</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>58.099998474121094</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>-2.0169999599456787</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3">
         <v>1.2699999809265137</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>-0.99000000953674316</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3">
         <v>6.7100000381469727</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>-1.1599999666213989</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3">
         <v>13.779999732971191</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>-1.2799999713897705</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3">
         <v>18.799999237060547</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>-0.2199999988079071</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3">
         <v>24.260000228881836</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>-1.0700000524520874</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3">
         <v>35.020000457763672</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>-1.0499999523162842</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3">
         <v>39.700000762939453</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>-0.99000000953674316</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3">
         <v>56.400001525878906</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>-0.949999988079071</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3">
         <v>68.319999694824219</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>-0.51999998092651367</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
         <v>72.199996948242188</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>-1.1799999475479126</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
         <v>80.529998779296875</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>-0.05000000074505806</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
         <v>85.699996948242188</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>7.1700000762939453</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3">
         <v>90.830001831054688</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>9.9799995422363281</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3">
         <v>101.44000244140625</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>7.820000171661377</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3">
         <v>195.96000671386719</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>3.869999885559082</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3">
         <v>197.00999450683594</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>2.9800000190734863</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3">
         <v>194.89999389648438</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>4.8000001907348633</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3">
         <v>193.41000366210938</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>5.46999979019165</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3">
         <v>193.55999755859375</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>3.7300000190734863</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3">
         <v>195.00999450683594</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>6.4899997711181641</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3">
         <v>193.67999267578125</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>6.8400001525878906</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="4">
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3">
         <v>196.6300048828125</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>6.2300000190734863</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="4">
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3">
         <v>198.11000061035156</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>2.0299999713897705</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="4">
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3">
         <v>129.05999755859375</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>-5.5799999237060547</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3">
         <v>130.22999572753906</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>8.1899995803833</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="B32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3">
         <v>171.30000305175781</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>8</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="4">
+      <c r="B33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3">
         <v>203.27999877929688</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>3</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="4">
+      <c r="B34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3">
         <v>190.69999694824219</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>8.6000003814697266</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="4">
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3">
         <v>181.80000305175781</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>10.300000190734863</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="B36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3">
         <v>177.5</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>8.1000003814697266</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>96.879997253417969</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>125.33000183105469</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>-7.6100001335144043</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>197.89999389648438</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>-0.5</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>94.639999389648438</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>145.19000244140625</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <v>-4.630000114440918</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>153.30000305175781</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <v>14.899999618530273</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>115.59999847412109</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <v>14.831999778747559</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>141.80000305175781</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <v>7.7399997711181641</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="4" t="s">
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>168.19999694824219</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <v>-1.4500000476837158</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="4" t="s">
+      <c r="B46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <v>106.40000152587891</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <v>7.1869997978210449</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="B47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
         <v>185.47000122070313</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <v>-0.99500000476837158</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="4" t="s">
+      <c r="B48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <v>158.39999389648438</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <v>10.569999694824219</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1450,14 +1436,11 @@
       <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="3"/>
-    <col min="2" max="2" width="9.140625" customWidth="1" style="3"/>
-    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="3"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="3"/>
-    <col min="5" max="5" width="9.140625" customWidth="1" style="3"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="3"/>
+    <col min="1" max="2" width="9.09765625" customWidth="1" style="3"/>
+    <col min="3" max="3" width="44.3984375" customWidth="1" style="3"/>
+    <col min="4" max="6" width="9.09765625" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2890,916 +2873,879 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0451ECB-537D-4FB2-A2D8-B602F91E52CB}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="5"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="5"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="5"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
+    <col min="2" max="2" width="9.81274632045201" customWidth="1" style="2"/>
+    <col min="3" max="3" width="55.3020673479353" customWidth="1" style="2"/>
+    <col min="4" max="4" width="9.45723124912807" customWidth="1" style="2"/>
+    <col min="5" max="5" width="9.140625" customWidth="1" style="2"/>
+    <col min="6" max="6" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="2">
         <v>59.7400016784668</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="2">
         <v>80.0199966430664</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <v>58.659999847412109</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2">
         <v>80.0199966430664</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>65.5999984741211</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>82.8499984741211</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>28.090000152587891</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>-0.43000000715255737</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>55.7400016784668</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>79.569999694824219</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
         <v>0.47999998927116394</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <v>-0.039999999105930328</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
         <v>13.819999694824219</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="2">
         <v>-0.25</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
         <v>27.6200008392334</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <v>1.6599999666213989</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
         <v>45.790000915527344</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="2">
         <v>2.059999942779541</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
         <v>48.479999542236328</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
         <v>64.669998168945313</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="2">
         <v>2.4700000286102295</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
         <v>68.8499984741211</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="2">
         <v>0.949999988079071</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
         <v>75.889999389648438</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="2">
         <v>-0.60000002384185791</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
         <v>75.7699966430664</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="2">
         <v>6.4000000953674316</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
         <v>75.669998168945313</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="2">
         <v>13.300000190734863</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="5">
-        <v>86</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>76</v>
+      </c>
+      <c r="E17" s="2">
         <v>28.200000762939453</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="5">
-        <v>86</v>
-      </c>
-      <c r="E18" s="5">
-        <v>40.299999237060547</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
+        <v>75.800003051757813</v>
+      </c>
+      <c r="E18" s="2">
+        <v>63.700000762939453</v>
+      </c>
+      <c r="F18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
         <v>76.0999984741211</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="2">
         <v>51.599998474121094</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="5">
-        <v>86.4000015258789</v>
-      </c>
-      <c r="E20" s="5">
-        <v>64.0999984741211</v>
-      </c>
-      <c r="F20" s="5">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2">
+        <v>76.040000915527344</v>
+      </c>
+      <c r="E20" s="2">
+        <v>68.339996337890625</v>
+      </c>
+      <c r="F20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2">
         <v>76.120002746582031</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="2">
         <v>73.470001220703125</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2">
         <v>82.55999755859375</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="2">
         <v>82.129997253417969</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2">
         <v>74.989997863769531</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="2">
         <v>81.860000610351563</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2">
         <v>69.959999084472656</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="2">
         <v>80.489997863769531</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
         <v>67.930000305175781</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="2">
         <v>80.459999084472656</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2">
         <v>65.889999389648438</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="2">
         <v>80.470001220703125</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2">
         <v>36.680000305175781</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="2">
         <v>80.44000244140625</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
         <v>9.1899995803833</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="2">
         <v>80.660003662109375</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="5">
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2">
         <v>-1.8999999761581421</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="2">
         <v>76</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="5">
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2">
         <v>2.8999998569488525</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="2">
         <v>72.199996948242188</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="5">
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2">
         <v>17.100000381469727</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="2">
         <v>40.720001220703125</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2">
         <v>75.9000015258789</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="2">
         <v>20.799999237060547</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="5">
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2">
         <v>76</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="2">
         <v>32.099998474121094</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="5">
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2">
         <v>76.0999984741211</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="2">
         <v>41.5</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2">
         <v>86.199996948242188</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="2">
         <v>52.099998474121094</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2">
         <v>86.300003051757813</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="2">
         <v>76.199996948242188</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="5">
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2">
         <v>-4.6999998092651367</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="2">
         <v>24.399999618530273</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="5">
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2">
         <v>-20.75</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="2">
         <v>-0.99000000953674316</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="2">
         <v>31.899999618530273</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="2">
         <v>57.560001373291016</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="5" t="s">
+      <c r="B40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="2">
         <v>32.930000305175781</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="2">
         <v>57.560001373291016</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="5">
-        <v>94.279998779296875</v>
-      </c>
-      <c r="E41" s="5">
-        <v>73.040000915527344</v>
-      </c>
-      <c r="F41" s="5">
+      <c r="D41" s="2">
+        <v>71</v>
+      </c>
+      <c r="E41" s="2">
+        <v>43.299999237060547</v>
+      </c>
+      <c r="F41" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="5" t="s">
+      <c r="B42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="5">
-        <v>71.279998779296875</v>
-      </c>
-      <c r="E42" s="5">
-        <v>27.1200008392334</v>
-      </c>
-      <c r="F42" s="5">
+      <c r="D42" s="2">
+        <v>83.2699966430664</v>
+      </c>
+      <c r="E42" s="2">
+        <v>20.399999618530273</v>
+      </c>
+      <c r="F42" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="5" t="s">
+      <c r="B43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="5">
-        <v>91.5</v>
-      </c>
-      <c r="E43" s="5">
-        <v>48.540000915527344</v>
-      </c>
-      <c r="F43" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="5">
-        <v>43</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="5">
-        <v>72.489997863769531</v>
-      </c>
-      <c r="E44" s="5">
-        <v>64.860000610351563</v>
-      </c>
-      <c r="F44" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="5">
-        <v>44</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="5">
+      <c r="D43" s="2">
         <v>-7.0999999046325684</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E43" s="2">
         <v>86.2699966430664</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F43" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3819,1353 +3765,1351 @@
       <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
-    <col min="2" max="2" width="9.140625" customWidth="1" style="2"/>
-    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="2"/>
-    <col min="4" max="4" width="11.569690159389" customWidth="1" style="2"/>
-    <col min="5" max="5" width="9.140625" customWidth="1" style="2"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="2" width="9.09765625" customWidth="1" style="3"/>
+    <col min="3" max="3" width="44.3984375" customWidth="1" style="3"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1" style="3"/>
+    <col min="5" max="6" width="9.09765625" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>12.819999694824219</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>-9.5200004577636719</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>27.799999237060547</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>-9.5699996948242188</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>110.40000152587891</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>-38.799999237060547</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>58.400001525878906</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>-33.799999237060547</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>95.4000015258789</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>-33.799999237060547</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>126.98000335693359</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>-34.080001831054688</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>121.70999908447266</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>-45.360000610351563</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>145.49000549316406</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>-41.2599983215332</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>118.80000305175781</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>-65.9000015258789</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>155.10000610351563</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>-31.899999618530273</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>138</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>-51.412998199462891</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>78.861000061035156</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>-47.3380012512207</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3">
         <v>-13.329999923706055</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3">
         <v>-12.029999732971191</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
         <v>-10.729999542236328</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
         <v>-9.4300003051757813</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
         <v>-8.130000114440918</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3">
         <v>10.079999923706055</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3">
         <v>12.079999923706055</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3">
         <v>22.420000076293945</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3">
         <v>24.420000076293945</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3">
         <v>39.540000915527344</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <v>-13.289999961853027</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3">
         <v>41.540000915527344</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="3">
         <v>-13.289999961853027</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3">
         <v>39.069999694824219</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <v>-15.789999961853027</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3">
         <v>41.069999694824219</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="3">
         <v>-15.789999961853027</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3">
         <v>38.459999084472656</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <v>-18.290000915527344</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3">
         <v>40.459999084472656</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="3">
         <v>-18.290000915527344</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3">
         <v>57.049999237060547</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="3">
         <v>-33.830001831054688</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3">
         <v>59.049999237060547</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="3">
         <v>-33.830001831054688</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3">
         <v>63.369998931884766</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <v>-53.069999694824219</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="B32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3">
         <v>65.870002746582031</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="3">
         <v>-54.0099983215332</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="B33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3">
         <v>68.370002746582031</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="3">
         <v>-55.180000305175781</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="B34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3">
         <v>78.800003051757813</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="3">
         <v>-31.989999771118164</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3">
         <v>80.800003051757813</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="3">
         <v>-31.989999771118164</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="B36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3">
         <v>82.800003051757813</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="3">
         <v>-31.989999771118164</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="B37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3">
         <v>82.080001831054688</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="3">
         <v>-46.090000152587891</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="B38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="3">
         <v>84.080001831054688</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="3">
         <v>-46.090000152587891</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2">
+      <c r="B39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="3">
         <v>81.870002746582031</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="3">
         <v>-60.599998474121094</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="2">
+      <c r="B40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="3">
         <v>84.370002746582031</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="3">
         <v>-61.459999084472656</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="3">
         <v>86.870002746582031</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="3">
         <v>-62.650001525878906</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="2">
+      <c r="B42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="3">
         <v>100.58999633789063</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="3">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="2">
+      <c r="B43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="3">
         <v>102.58999633789063</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="3">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="B44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="3">
         <v>118.80999755859375</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="3">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="2">
+      <c r="B45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="3">
         <v>120.80999755859375</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="3">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="B46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="3">
         <v>120.33999633789063</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="3">
         <v>-44.970001220703125</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="2">
+      <c r="B47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="3">
         <v>122.33999633789063</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="3">
         <v>-44.970001220703125</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="2">
+      <c r="B48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="3">
         <v>108.19000244140625</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="3">
         <v>-31.8799991607666</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="2">
+      <c r="B49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="3">
         <v>110.19000244140625</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="3">
         <v>-31.8799991607666</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="2">
+      <c r="B50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="3">
         <v>135.35000610351563</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="3">
         <v>-35.060001373291016</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="2">
+      <c r="B51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="3">
         <v>137.35000610351563</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="3">
         <v>-35.060001373291016</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="2">
+      <c r="B52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="3">
         <v>139.35000610351563</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="3">
         <v>-35.060001373291016</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="2">
+      <c r="B53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="3">
         <v>140.75999450683594</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="3">
         <v>-50.229999542236328</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="2">
+      <c r="B54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="3">
         <v>142.75999450683594</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="3">
         <v>-50.229999542236328</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="2">
+      <c r="B55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="3">
         <v>144.75999450683594</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="3">
         <v>-50.229999542236328</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="2">
+      <c r="B56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="3">
         <v>139.17999267578125</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="3">
         <v>-61.569999694824219</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="2">
+      <c r="B57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="3">
         <v>141.17999267578125</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="3">
         <v>-61.569999694824219</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="2">
+      <c r="B58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="3">
         <v>143.17999267578125</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="3">
         <v>-61.569999694824219</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="2">
+      <c r="B59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="3">
         <v>167.22999572753906</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="3">
         <v>-36.900001525878906</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="2">
+      <c r="B60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="3">
         <v>169.72999572753906</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="3">
         <v>-36.900001525878906</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="2">
+      <c r="B61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="3">
         <v>172.22999572753906</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="3">
         <v>-36.900001525878906</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="2">
+      <c r="B62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="3">
         <v>168.16999816894531</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="3">
         <v>-39.400001525878906</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="2">
+      <c r="B63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="3">
         <v>170.66999816894531</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="3">
         <v>-39.400001525878906</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="2">
+      <c r="B64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="3">
         <v>173.16999816894531</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="3">
         <v>-39.400001525878906</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="2">
+      <c r="B65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="3">
         <v>158.63999938964844</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="3">
         <v>-54.439998626708984</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="2">
+      <c r="B66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="3">
         <v>163.86000061035156</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="3">
         <v>-51.430000305175781</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="2">
+      <c r="B67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="3">
         <v>168.13999938964844</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="3">
         <v>-48.700000762939453</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5185,1050 +5129,1053 @@
       <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1" style="6"/>
-    <col min="3" max="3" width="44.375" customWidth="1" style="6"/>
-    <col min="4" max="6" width="9.125" customWidth="1" style="6"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
+    <col min="2" max="2" width="9.81274632045201" customWidth="1" style="1"/>
+    <col min="3" max="3" width="55.3020673479353" customWidth="1" style="1"/>
+    <col min="4" max="4" width="9.45723124912807" customWidth="1" style="1"/>
+    <col min="5" max="5" width="14.2835409981864" customWidth="1" style="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="1">
         <v>4.5859999656677246</v>
       </c>
-      <c r="E2" s="6">
-        <v>-1.6239999532699585</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="E2" s="1">
+        <v>-1.559999942779541</v>
+      </c>
+      <c r="F2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6">
-        <v>5.8299999237060547</v>
-      </c>
-      <c r="E3" s="6">
-        <v>-1.6239999532699585</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="D3" s="1">
+        <v>7.28000020980835</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1.5399999618530273</v>
+      </c>
+      <c r="F3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="1">
         <v>41.799999237060547</v>
       </c>
-      <c r="E4" s="6">
-        <v>79.800003051757813</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E4" s="1">
+        <v>174.52400207519531</v>
+      </c>
+      <c r="F4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6">
-        <v>13.350000381469727</v>
-      </c>
-      <c r="E5" s="6">
-        <v>3.6159999370574951</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="D5" s="1">
+        <v>-8.0699996948242188</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.6100000143051147</v>
+      </c>
+      <c r="F5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6">
-        <v>11.5600004196167</v>
-      </c>
-      <c r="E6" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="D6" s="1">
+        <v>39.799999237060547</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.119999885559082</v>
+      </c>
+      <c r="F6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.52999997138977051</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="1">
         <v>0.52999997138977051</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
         <v>6.619999885559082</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="1">
         <v>2.5800004005432129</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
         <v>10.699999809265137</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="1">
         <v>5.5900001525878906</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
         <v>2.5899999141693115</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="1">
         <v>8.3600006103515625</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
         <v>-0.85000002384185791</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="1">
         <v>7.9800000190734863</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
         <v>-2.8299999237060547</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="1">
         <v>7.96999979019165</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
         <v>-4.940000057220459</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="1">
         <v>8.0299997329711914</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
         <v>-8.4399995803833</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="1">
         <v>10.079999923706055</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1">
         <v>-6.6399998664855957</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="1">
         <v>10.119999885559082</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1">
         <v>-2.5999999046325684</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="1">
         <v>11.859999656677246</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
         <v>1.5</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="1">
         <v>15.019998550415039</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
         <v>3.7000000476837158</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="1">
         <v>17.840000152587891</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
         <v>0.51999998092651367</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="1">
         <v>20.75</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="6">
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
         <v>9.1499996185302734</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="1">
         <v>23.200000762939453</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1">
         <v>11.409999847412109</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="1">
         <v>23.180000305175781</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="6">
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1">
         <v>3.630000114440918</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="1">
         <v>23.170000076293945</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1">
         <v>6.7100000381469727</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="1">
         <v>28.360000610351563</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="6">
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1">
         <v>0.51999998092651367</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="1">
         <v>28.8799991607666</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1">
         <v>-4.5799999237060547</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="1">
         <v>30.940000534057617</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="6">
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1">
         <v>-0.550000011920929</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="1">
         <v>34.3900032043457</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="6">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1">
         <v>5.6399998664855957</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="1">
         <v>36.570003509521484</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="6">
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1">
         <v>0.5</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="1">
         <v>40.570003509521484</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="6">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="6">
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1">
         <v>8.8900003433227539</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="1">
         <v>47.889999389648438</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="6">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="6">
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1">
         <v>1.6000000238418579</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="1">
         <v>61.860000610351563</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="6">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="6">
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1">
         <v>46.450000762939453</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="1">
         <v>87.260002136230469</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="6">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="6">
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1">
         <v>53.400001525878906</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="1">
         <v>101.30000305175781</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="1">
         <v>-7.929999828338623</v>
       </c>
-      <c r="E33" s="6">
-        <v>1.6299999952316284</v>
-      </c>
-      <c r="F33" s="6">
+      <c r="E33" s="1">
+        <v>139</v>
+      </c>
+      <c r="F33" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="1">
         <v>-7.4499998092651367</v>
       </c>
-      <c r="E34" s="6">
-        <v>8.7700004577636719</v>
-      </c>
-      <c r="F34" s="6">
+      <c r="E34" s="1">
+        <v>146.13999938964844</v>
+      </c>
+      <c r="F34" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="1">
         <v>-8.6899995803833</v>
       </c>
-      <c r="E35" s="6">
-        <v>31.200000762939453</v>
-      </c>
-      <c r="F35" s="6">
+      <c r="E35" s="1">
+        <v>168.56999206542969</v>
+      </c>
+      <c r="F35" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="1">
         <v>13.260000228881836</v>
       </c>
-      <c r="E36" s="6">
-        <v>30.180000305175781</v>
-      </c>
-      <c r="F36" s="6">
+      <c r="E36" s="1">
+        <v>167.54998779296875</v>
+      </c>
+      <c r="F36" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="1">
         <v>12.800000190734863</v>
       </c>
-      <c r="E37" s="6">
-        <v>38.354000091552734</v>
-      </c>
-      <c r="F37" s="6">
+      <c r="E37" s="1">
+        <v>175.7239990234375</v>
+      </c>
+      <c r="F37" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="1">
         <v>12.680000305175781</v>
       </c>
-      <c r="E38" s="6">
-        <v>47.531002044677734</v>
-      </c>
-      <c r="F38" s="6">
+      <c r="E38" s="1">
+        <v>184.9010009765625</v>
+      </c>
+      <c r="F38" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="6" t="s">
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="1">
         <v>-6.21999979019165</v>
       </c>
-      <c r="E39" s="6">
-        <v>7.5799999237060547</v>
-      </c>
-      <c r="F39" s="6">
+      <c r="E39" s="1">
+        <v>144.94999694824219</v>
+      </c>
+      <c r="F39" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="6" t="s">
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="1">
         <v>11.930000305175781</v>
       </c>
-      <c r="E40" s="6">
-        <v>22.889999389648438</v>
-      </c>
-      <c r="F40" s="6">
+      <c r="E40" s="1">
+        <v>160.25999450683594</v>
+      </c>
+      <c r="F40" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="1">
         <v>-7.6500000953674316</v>
       </c>
-      <c r="E41" s="6">
-        <v>26.8799991607666</v>
-      </c>
-      <c r="F41" s="6">
+      <c r="E41" s="1">
+        <v>164.25</v>
+      </c>
+      <c r="F41" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="1">
         <v>-16.360000610351563</v>
       </c>
-      <c r="E42" s="6">
-        <v>70.830001831054688</v>
-      </c>
-      <c r="F42" s="6">
+      <c r="E42" s="1">
+        <v>208.19999694824219</v>
+      </c>
+      <c r="F42" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="1">
         <v>19.069999694824219</v>
       </c>
-      <c r="E43" s="6">
-        <v>70.80999755859375</v>
-      </c>
-      <c r="F43" s="6">
+      <c r="E43" s="1">
+        <v>208.17999267578125</v>
+      </c>
+      <c r="F43" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="6" t="s">
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="1">
         <v>-4.8400001525878906</v>
       </c>
-      <c r="E44" s="6">
-        <v>7.5500001907348633</v>
-      </c>
-      <c r="F44" s="6">
+      <c r="E44" s="1">
+        <v>144.91999816894531</v>
+      </c>
+      <c r="F44" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="6" t="s">
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="1">
         <v>13.239999771118164</v>
       </c>
-      <c r="E45" s="6">
-        <v>22.909999847412109</v>
-      </c>
-      <c r="F45" s="6">
+      <c r="E45" s="1">
+        <v>160.27999877929688</v>
+      </c>
+      <c r="F45" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="6" t="s">
+      <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="1">
         <v>-8.6700000762939453</v>
       </c>
-      <c r="E46" s="6">
-        <v>27.940000534057617</v>
-      </c>
-      <c r="F46" s="6">
+      <c r="E46" s="1">
+        <v>165.30999755859375</v>
+      </c>
+      <c r="F46" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="6" t="s">
+      <c r="B47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="1">
         <v>-17.569999694824219</v>
       </c>
-      <c r="E47" s="6">
-        <v>70.830001831054688</v>
-      </c>
-      <c r="F47" s="6">
+      <c r="E47" s="1">
+        <v>208.19999694824219</v>
+      </c>
+      <c r="F47" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="6" t="s">
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="1">
         <v>20.5</v>
       </c>
-      <c r="E48" s="6">
-        <v>70.800003051757813</v>
-      </c>
-      <c r="F48" s="6">
+      <c r="E48" s="1">
+        <v>208.16999816894531</v>
+      </c>
+      <c r="F48" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="6" t="s">
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="1">
         <v>56</v>
       </c>
-      <c r="E49" s="6">
-        <v>103.5</v>
-      </c>
-      <c r="F49" s="6">
+      <c r="E49" s="1">
+        <v>240.8699951171875</v>
+      </c>
+      <c r="F49" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="6" t="s">
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="6">
-        <v>10.489999771118164</v>
-      </c>
-      <c r="E50" s="6">
-        <v>46.930000305175781</v>
-      </c>
-      <c r="F50" s="6">
+      <c r="D50" s="1">
+        <v>48.970001220703125</v>
+      </c>
+      <c r="E50" s="1">
+        <v>4.119999885559082</v>
+      </c>
+      <c r="F50" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="6" t="s">
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="6">
-        <v>-8.869999885559082</v>
-      </c>
-      <c r="E51" s="6">
-        <v>70.389999389648438</v>
-      </c>
-      <c r="F51" s="6">
+      <c r="D51" s="1">
+        <v>58.090000152587891</v>
+      </c>
+      <c r="E51" s="1">
+        <v>4.0999999046325684</v>
+      </c>
+      <c r="F51" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="6" t="s">
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="1">
         <v>15.979999542236328</v>
       </c>
-      <c r="E52" s="6">
-        <v>70.379997253417969</v>
-      </c>
-      <c r="F52" s="6">
+      <c r="E52" s="1">
+        <v>207.75</v>
+      </c>
+      <c r="F52" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6244,1437 +6191,1435 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC3EC72-CD05-47A9-88E1-A68A610EEEE2}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
-    <col min="3" max="3" width="44.3845040457589" customWidth="1" style="1"/>
-    <col min="4" max="4" width="11.569690159389" customWidth="1" style="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
+    <col min="1" max="2" width="9.09765625" customWidth="1" style="3"/>
+    <col min="3" max="3" width="44.3984375" customWidth="1" style="3"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1" style="3"/>
+    <col min="5" max="6" width="9.09765625" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
         <v>-3.6099998950958252</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>1.5800000429153442</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3">
         <v>-8.6499996185302734</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>2.8199999332427979</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3">
         <v>0.029999999329447746</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>-6.320000171661377</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3">
         <v>2.0299999713897705</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>-6.320000171661377</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
         <v>4.0299997329711914</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>-6.320000171661377</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3">
         <v>0.029999999329447746</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>-10.340000152587891</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3">
         <v>2.0299999713897705</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>-10.340000152587891</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3">
         <v>4.03000020980835</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <v>-10.340000152587891</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3">
         <v>11.760000228881836</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <v>-8.0500001907348633</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3">
         <v>18.899999618530273</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>-8.0500001907348633</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3">
         <v>23.010000228881836</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="3">
         <v>-10.359999656677246</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3">
         <v>25.010000228881836</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>-10.359999656677246</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3">
         <v>28.770000457763672</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <v>-12.329999923706055</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3">
         <v>32.340000152587891</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <v>-13.409999847412109</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
         <v>38.209999084472656</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <v>-8.119999885559082</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
         <v>38.209999084472656</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
         <v>-5.6199989318847656</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
         <v>38.209999084472656</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="3">
         <v>-3.6199989318847656</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3">
         <v>57.590000152587891</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="3">
         <v>-6.1500000953674316</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3">
         <v>59.590000152587891</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="3">
         <v>-6.1500000953674316</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3">
         <v>73.970001220703125</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="3">
         <v>-7.119999885559082</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3">
         <v>52.330001831054688</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="3">
         <v>6.96999979019165</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3">
         <v>61.369998931884766</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="3">
         <v>6.96999979019165</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3">
         <v>63.369998931884766</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="3">
         <v>6.96999979019165</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3">
         <v>75.239997863769531</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="3">
         <v>5.0399999618530273</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3">
         <v>46.400001525878906</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="3">
         <v>5.0399999618530273</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3">
         <v>46.400001525878906</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="3">
         <v>7.5399999618530273</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3">
         <v>46.400001525878906</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="3">
         <v>10.039999961853027</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3">
         <v>57.659999847412109</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="3">
         <v>9.2899999618530273</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3">
         <v>69.879997253417969</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="3">
         <v>6.130000114440918</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3">
         <v>103.70999908447266</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="3">
         <v>-8.0799999237060547</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="B32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3">
         <v>103.70999908447266</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="3">
         <v>-8.0799999237060547</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="B33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3">
         <v>128.5</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="3">
         <v>-8.0799999237060547</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="B34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3">
         <v>131</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="3">
         <v>-8.0799999237060547</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3">
         <v>147.58999633789063</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="3">
         <v>-11.140000343322754</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="B36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3">
         <v>150.08999633789063</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="3">
         <v>-11.140000343322754</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="B37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3">
         <v>152.58999633789063</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="3">
         <v>-11.140000343322754</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="B38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="3">
         <v>169.07000732421875</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="3">
         <v>-12.869999885559082</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="B39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="3">
         <v>171.57000732421875</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="3">
         <v>-12.869999885559082</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="B40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="3">
         <v>174.07000732421875</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="3">
         <v>-12.869999885559082</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="3">
         <v>176.57000732421875</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="3">
         <v>-12.869999885559082</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="B42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="3">
         <v>115.69999694824219</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="3">
         <v>-2.630000114440918</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="B43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="3">
         <v>115.69999694824219</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="3">
         <v>-0.12999999523162842</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="B44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="3">
         <v>115.69999694824219</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="3">
         <v>2.369999885559082</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="B45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="3">
         <v>133.11000061035156</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="3">
         <v>8.5</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="B46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="3">
         <v>150.52999877929688</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="3">
         <v>8.5</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="B47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="3">
         <v>153.02999877929688</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="3">
         <v>8.5</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="B48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="3">
         <v>161.14999389648438</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="3">
         <v>5.3600001335144043</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="B49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="3">
         <v>168.47999572753906</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="3">
         <v>2.1600000858306885</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="B50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="3">
         <v>179.14999389648438</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="3">
         <v>-2.7899999618530273</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="B51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="3">
         <v>187.72999572753906</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="3">
         <v>-2.7900002002716064</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="3">
         <v>10.770000457763672</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="3">
         <v>-3.4600000381469727</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="3">
         <v>49.439998626708984</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="3">
         <v>-8.5799999237060547</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="3">
         <v>67.889999389648438</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="3">
         <v>-8.5799999237060547</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="3">
         <v>119.84600067138672</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="3">
         <v>-4.5170001983642578</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="3">
         <v>149.94099426269531</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="3">
         <v>-6.5399999618530273</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="3">
         <v>169.33000183105469</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="3">
         <v>-8.59000015258789</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="3">
         <v>176.44000244140625</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="3">
         <v>-8.59000015258789</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="3">
         <v>243.30299377441406</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="3">
         <v>-39.194000244140625</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="B60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="3">
         <v>276.97100830078125</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="3">
         <v>-41.236000061035156</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="B61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="3">
         <v>80.9000015258789</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="3">
         <v>-8.6700000762939453</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="B62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="3">
         <v>111.12000274658203</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="3">
         <v>-10.710000038146973</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="B63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="3">
         <v>200.1300048828125</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="3">
         <v>-8.65999984741211</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="B64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="3">
         <v>251.44999694824219</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="3">
         <v>-48.419998168945313</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="B65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="3">
         <v>270.79000854492188</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="3">
         <v>-48.419998168945313</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="1">
+      <c r="B66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="3">
         <v>209.33000183105469</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="3">
         <v>-5.130000114440918</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="1">
+      <c r="B67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="3">
         <v>216.27999877929688</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="3">
         <v>-6.1299986839294434</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="1">
+      <c r="B68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="3">
         <v>224.75</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="3">
         <v>-7.12999963760376</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="1">
+      <c r="B69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="3">
         <v>232.97999572753906</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="3">
         <v>-8.1299991607666016</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1">
+      <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="1">
+      <c r="B70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="3">
         <v>241.3699951171875</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="3">
         <v>-9.1299991607666016</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="1">
+      <c r="B71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="3">
         <v>249.52000427246094</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="3">
         <v>-10.130001068115234</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/SpawnData.xlsx
+++ b/Assets/Data/SpawnData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae9d72655d379bd3/ドキュメント/FLUFF_SWING/Assets/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{CB796B53-597B-4AEC-AB2E-0111EC9645C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{325002B5-8822-4FB2-ABD9-0521626A2833}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{CB796B53-597B-4AEC-AB2E-0111EC9645C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAF421FE-5368-45DD-AC03-4CAF90626A27}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E4C33777-1E58-4483-B30F-52CA6AAB0A77}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{E4C33777-1E58-4483-B30F-52CA6AAB0A77}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage1" sheetId="7" r:id="rId1"/>
@@ -119,10 +119,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="3">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -147,6 +144,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,969 +455,969 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="9.09765625" customWidth="1" style="3"/>
-    <col min="3" max="3" width="44.3984375" customWidth="1" style="3"/>
-    <col min="4" max="4" width="11.59765625" customWidth="1" style="3"/>
-    <col min="5" max="6" width="9.09765625" customWidth="1" style="3"/>
+    <col min="1" max="2" width="9.09765625" customWidth="1" style="2"/>
+    <col min="3" max="3" width="44.3984375" customWidth="1" style="2"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1" style="2"/>
+    <col min="5" max="6" width="9.09765625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>45.569999694824219</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>46.909999847412109</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>-1.5560001134872437</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>96.0999984741211</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>6.5</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>43.139999389648438</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>-1.4420000314712524</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>58.099998474121094</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>-2.0169999599456787</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
         <v>1.2699999809265137</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>-0.99000000953674316</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
         <v>6.7100000381469727</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>-1.1599999666213989</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
         <v>13.779999732971191</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>-1.2799999713897705</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
         <v>18.799999237060547</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>-0.2199999988079071</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
         <v>24.260000228881836</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>-1.0700000524520874</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
         <v>35.020000457763672</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>-1.0499999523162842</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
         <v>39.700000762939453</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>-0.99000000953674316</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
         <v>56.400001525878906</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>-0.949999988079071</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
         <v>68.319999694824219</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>-0.51999998092651367</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
         <v>72.199996948242188</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>-1.1799999475479126</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
         <v>80.529998779296875</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>-0.05000000074505806</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
         <v>85.699996948242188</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>7.1700000762939453</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
         <v>90.830001831054688</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>9.9799995422363281</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2">
         <v>101.44000244140625</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>7.820000171661377</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2">
         <v>195.96000671386719</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>3.869999885559082</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2">
         <v>197.00999450683594</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>2.9800000190734863</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2">
         <v>194.89999389648438</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>4.8000001907348633</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2">
         <v>193.41000366210938</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>5.46999979019165</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
         <v>193.55999755859375</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>3.7300000190734863</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2">
         <v>195.00999450683594</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>6.4899997711181641</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2">
         <v>193.67999267578125</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>6.8400001525878906</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
         <v>196.6300048828125</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>6.2300000190734863</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2">
         <v>198.11000061035156</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>2.0299999713897705</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2">
         <v>129.05999755859375</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>-5.5799999237060547</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2">
         <v>130.22999572753906</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>8.1899995803833</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2">
         <v>171.30000305175781</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>8</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2">
         <v>203.27999877929688</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>3</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2">
         <v>190.69999694824219</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>8.6000003814697266</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2">
         <v>181.80000305175781</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>10.300000190734863</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2">
         <v>177.5</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>8.1000003814697266</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>96.879997253417969</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>125.33000183105469</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>-7.6100001335144043</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>197.89999389648438</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>-0.5</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>94.639999389648438</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>145.19000244140625</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>-4.630000114440918</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>153.30000305175781</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>14.899999618530273</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>115.59999847412109</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>14.831999778747559</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>141.80000305175781</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>7.7399997711181641</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <v>168.19999694824219</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>-1.4500000476837158</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <v>106.40000152587891</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <v>7.1869997978210449</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <v>185.47000122070313</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>-0.99500000476837158</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="B48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="2">
         <v>158.39999389648438</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>10.569999694824219</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1438,1428 +1439,1428 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="9.09765625" customWidth="1" style="3"/>
-    <col min="3" max="3" width="44.3984375" customWidth="1" style="3"/>
-    <col min="4" max="6" width="9.09765625" customWidth="1" style="3"/>
+    <col min="1" max="2" width="9.09765625" customWidth="1" style="2"/>
+    <col min="3" max="3" width="44.3984375" customWidth="1" style="2"/>
+    <col min="4" max="6" width="9.09765625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2">
         <v>6.5</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>-1</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2">
         <v>8.5</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>-1</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
         <v>10.5</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>-1</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
         <v>21.5</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
         <v>23</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
         <v>24.5</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
         <v>26</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
         <v>27.5</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
         <v>24.440000534057617</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>-22.159999847412109</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
         <v>25.940000534057617</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>-22.159999847412109</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
         <v>27.440000534057617</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>-22.159999847412109</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
         <v>25.239999771118164</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>-17.5</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
         <v>26.739999771118164</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>-17.5</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
         <v>31.779998779296875</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>-20.100000381469727</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
         <v>33.279998779296875</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>-20.100000381469727</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
         <v>34.779998779296875</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>-20.100000381469727</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
         <v>33.650001525878906</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>-14.300000190734863</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
         <v>38.560001373291016</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2">
         <v>40.060001373291016</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2">
         <v>38.7400016784668</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>-18.090000152587891</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2">
         <v>40.2400016784668</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>-18.090000152587891</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2">
         <v>41.7400016784668</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>-18.090000152587891</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2">
         <v>85.5999984741211</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
         <v>87.0999984741211</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2">
         <v>88.5999984741211</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2">
         <v>67.0999984741211</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
         <v>68.5999984741211</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2">
         <v>57.909999847412109</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>-11.300000190734863</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2">
         <v>59.409999847412109</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>-11.300000190734863</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2">
         <v>21.5</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2">
         <v>23</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2">
         <v>24.5</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2">
         <v>26</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2">
         <v>27.5</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2">
         <v>29</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2">
         <v>18.5</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>-9</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2">
         <v>87.0999984741211</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>-16</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="2">
         <v>88.5999984741211</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>-16</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2">
         <v>52.310001373291016</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>-9.3000001907348633</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="2">
         <v>53.810001373291016</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>-9.3000001907348633</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="3">
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2">
         <v>71.160003662109375</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>-7.3000001907348633</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="3">
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2">
         <v>72.660003662109375</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>-7.3000001907348633</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="3">
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2">
         <v>66.3499984741211</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="3">
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="2">
         <v>67.8499984741211</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="3">
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="2">
         <v>69.3499984741211</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="3">
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2">
         <v>77.040000915527344</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="3">
+      <c r="B48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2">
         <v>86.8499984741211</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>-0.039999999105930328</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="3">
+      <c r="B49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="2">
         <v>93.339996337890625</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="3">
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="2">
         <v>98.470001220703125</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>3.059999942779541</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="3">
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="2">
         <v>81.050003051757813</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <v>3.8199999332427979</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="B52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="2">
         <v>10.779999732971191</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <v>5.630000114440918</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="B53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="2">
         <v>28.790000915527344</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <v>-25</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="B54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="2">
         <v>89.040000915527344</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <v>-17.856000900268555</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="B55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <v>121.59999847412109</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>-6.6100001335144043</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="2">
         <v>13.430000305175781</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="2">
         <v>-1.5399999618530273</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="B57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="2">
         <v>44</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="2">
         <v>-20.899999618530273</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="B58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="2">
         <v>19.700000762939453</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="2">
         <v>2.2200000286102295</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="B59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="2">
         <v>102.13999938964844</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="2">
         <v>-3.6500000953674316</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="B60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="2">
         <v>77.5199966430664</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="2">
         <v>-10.609999656677246</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="B61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="2">
         <v>59.5</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="2">
         <v>-2.4569995403289795</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="3">
+      <c r="B62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="2">
         <v>41</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="2">
         <v>-4.0199999809265137</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="3">
+      <c r="B63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="2">
         <v>43</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="2">
         <v>-4.0199999809265137</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="3">
+      <c r="B64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="2">
         <v>42</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="2">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="3">
+      <c r="B65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="2">
         <v>44</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="2">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="3">
+      <c r="B66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="2">
         <v>46</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="2">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="3">
+      <c r="B67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="2">
         <v>43</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="2">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="3">
+      <c r="B68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="2">
         <v>45</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="2">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3">
+      <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="3">
+      <c r="B69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="2">
         <v>47</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="2">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3">
+      <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="3">
+      <c r="B70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="2">
         <v>48</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="2">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3">
+      <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="3">
+      <c r="B71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="2">
         <v>49</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="2">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2875,18 +2876,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0451ECB-537D-4FB2-A2D8-B602F91E52CB}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
-    <col min="2" max="2" width="9.81274632045201" customWidth="1" style="2"/>
-    <col min="3" max="3" width="55.3020673479353" customWidth="1" style="2"/>
-    <col min="4" max="4" width="9.45723124912807" customWidth="1" style="2"/>
-    <col min="5" max="5" width="9.140625" customWidth="1" style="2"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="1" width="9.09765625" customWidth="1" style="2"/>
+    <col min="2" max="2" width="9.796875" customWidth="1" style="2"/>
+    <col min="3" max="3" width="55.296875" customWidth="1" style="2"/>
+    <col min="4" max="4" width="9.5" customWidth="1" style="2"/>
+    <col min="5" max="6" width="9.09765625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3767,1349 +3767,1349 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="9.09765625" customWidth="1" style="3"/>
-    <col min="3" max="3" width="44.3984375" customWidth="1" style="3"/>
-    <col min="4" max="4" width="11.59765625" customWidth="1" style="3"/>
-    <col min="5" max="6" width="9.09765625" customWidth="1" style="3"/>
+    <col min="1" max="2" width="9.09765625" customWidth="1" style="2"/>
+    <col min="3" max="3" width="44.3984375" customWidth="1" style="2"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1" style="2"/>
+    <col min="5" max="6" width="9.09765625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>12.819999694824219</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>-9.5200004577636719</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>27.799999237060547</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>-9.5699996948242188</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>110.40000152587891</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>-38.799999237060547</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>58.400001525878906</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>-33.799999237060547</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>95.4000015258789</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>-33.799999237060547</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>126.98000335693359</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>-34.080001831054688</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>121.70999908447266</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>-45.360000610351563</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>145.49000549316406</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>-41.2599983215332</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>118.80000305175781</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>-65.9000015258789</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>155.10000610351563</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>-31.899999618530273</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>138</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>-51.412998199462891</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>78.861000061035156</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>-47.3380012512207</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
         <v>-13.329999923706055</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
         <v>-12.029999732971191</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
         <v>-10.729999542236328</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
         <v>-9.4300003051757813</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
         <v>-8.130000114440918</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>-6.3000001907348633</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
         <v>10.079999923706055</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2">
         <v>12.079999923706055</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2">
         <v>22.420000076293945</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2">
         <v>24.420000076293945</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>-9.2200002670288086</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2">
         <v>39.540000915527344</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>-13.289999961853027</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2">
         <v>41.540000915527344</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>-13.289999961853027</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
         <v>39.069999694824219</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>-15.789999961853027</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2">
         <v>41.069999694824219</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>-15.789999961853027</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2">
         <v>38.459999084472656</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>-18.290000915527344</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
         <v>40.459999084472656</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>-18.290000915527344</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2">
         <v>57.049999237060547</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>-33.830001831054688</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2">
         <v>59.049999237060547</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>-33.830001831054688</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2">
         <v>63.369998931884766</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>-53.069999694824219</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2">
         <v>65.870002746582031</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>-54.0099983215332</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2">
         <v>68.370002746582031</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>-55.180000305175781</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2">
         <v>78.800003051757813</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>-31.989999771118164</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2">
         <v>80.800003051757813</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>-31.989999771118164</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2">
         <v>82.800003051757813</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>-31.989999771118164</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2">
         <v>82.080001831054688</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>-46.090000152587891</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2">
         <v>84.080001831054688</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>-46.090000152587891</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="2">
         <v>81.870002746582031</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>-60.599998474121094</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2">
         <v>84.370002746582031</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>-61.459999084472656</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="2">
         <v>86.870002746582031</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>-62.650001525878906</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="3">
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2">
         <v>100.58999633789063</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="3">
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2">
         <v>102.58999633789063</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="3">
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2">
         <v>118.80999755859375</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="3">
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="2">
         <v>120.80999755859375</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>-65.2699966430664</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="3">
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="2">
         <v>120.33999633789063</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <v>-44.970001220703125</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="3">
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2">
         <v>122.33999633789063</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>-44.970001220703125</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="3">
+      <c r="B48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2">
         <v>108.19000244140625</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>-31.8799991607666</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="3">
+      <c r="B49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="2">
         <v>110.19000244140625</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>-31.8799991607666</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="3">
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="2">
         <v>135.35000610351563</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>-35.060001373291016</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="3">
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="2">
         <v>137.35000610351563</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <v>-35.060001373291016</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="3">
+      <c r="B52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="2">
         <v>139.35000610351563</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <v>-35.060001373291016</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="3">
+      <c r="B53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="2">
         <v>140.75999450683594</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <v>-50.229999542236328</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="3">
+      <c r="B54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="2">
         <v>142.75999450683594</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <v>-50.229999542236328</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="3">
+      <c r="B55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="2">
         <v>144.75999450683594</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>-50.229999542236328</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="3">
+      <c r="B56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="2">
         <v>139.17999267578125</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="2">
         <v>-61.569999694824219</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="3">
+      <c r="B57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="2">
         <v>141.17999267578125</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="2">
         <v>-61.569999694824219</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="3">
+      <c r="B58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="2">
         <v>143.17999267578125</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="2">
         <v>-61.569999694824219</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="3">
+      <c r="B59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="2">
         <v>167.22999572753906</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="2">
         <v>-36.900001525878906</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="3">
+      <c r="B60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="2">
         <v>169.72999572753906</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="2">
         <v>-36.900001525878906</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="3">
+      <c r="B61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="2">
         <v>172.22999572753906</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="2">
         <v>-36.900001525878906</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="3">
+      <c r="B62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="2">
         <v>168.16999816894531</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="2">
         <v>-39.400001525878906</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="3">
+      <c r="B63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="2">
         <v>170.66999816894531</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="2">
         <v>-39.400001525878906</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="3">
+      <c r="B64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="2">
         <v>173.16999816894531</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="2">
         <v>-39.400001525878906</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="3">
+      <c r="B65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="2">
         <v>158.63999938964844</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="2">
         <v>-54.439998626708984</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="3">
+      <c r="B66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="2">
         <v>163.86000061035156</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="2">
         <v>-51.430000305175781</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="3">
+      <c r="B67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="2">
         <v>168.13999938964844</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="2">
         <v>-48.700000762939453</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="2">
         <v>0</v>
       </c>
     </row>
@@ -5123,10 +5123,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4707741F-BFD4-4FF4-A1EB-A627D15E0B90}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5135,7 +5135,7 @@
     <col min="2" max="2" width="9.81274632045201" customWidth="1" style="1"/>
     <col min="3" max="3" width="55.3020673479353" customWidth="1" style="1"/>
     <col min="4" max="4" width="9.45723124912807" customWidth="1" style="1"/>
-    <col min="5" max="5" width="14.2835409981864" customWidth="1" style="1"/>
+    <col min="5" max="5" width="9.78333336966378" customWidth="1" style="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
@@ -5210,10 +5210,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="1">
-        <v>41.799999237060547</v>
+        <v>65.300003051757813</v>
       </c>
       <c r="E4" s="1">
-        <v>174.52400207519531</v>
+        <v>80.300003051757813</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -5270,10 +5270,10 @@
         <v>13</v>
       </c>
       <c r="D7" s="1">
-        <v>0.52999997138977051</v>
+        <v>15.829999923706055</v>
       </c>
       <c r="E7" s="1">
-        <v>0.52999997138977051</v>
+        <v>1.6399999856948853</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -5290,10 +5290,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="1">
-        <v>6.619999885559082</v>
+        <v>21.930000305175781</v>
       </c>
       <c r="E8" s="1">
-        <v>2.5800004005432129</v>
+        <v>3.7999999523162842</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -5310,10 +5310,10 @@
         <v>13</v>
       </c>
       <c r="D9" s="1">
-        <v>10.699999809265137</v>
+        <v>28.100000381469727</v>
       </c>
       <c r="E9" s="1">
-        <v>5.5900001525878906</v>
+        <v>5.8600001335144043</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -5330,10 +5330,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="1">
-        <v>2.5899999141693115</v>
+        <v>38.139999389648438</v>
       </c>
       <c r="E10" s="1">
-        <v>8.3600006103515625</v>
+        <v>5.7699999809265137</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -5350,10 +5350,10 @@
         <v>13</v>
       </c>
       <c r="D11" s="1">
-        <v>-0.85000002384185791</v>
+        <v>47.380001068115234</v>
       </c>
       <c r="E11" s="1">
-        <v>7.9800000190734863</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -5370,10 +5370,10 @@
         <v>13</v>
       </c>
       <c r="D12" s="1">
-        <v>-2.8299999237060547</v>
+        <v>56.580001831054688</v>
       </c>
       <c r="E12" s="1">
-        <v>7.96999979019165</v>
+        <v>5.6700000762939453</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -5390,10 +5390,10 @@
         <v>13</v>
       </c>
       <c r="D13" s="1">
-        <v>-4.940000057220459</v>
+        <v>62.05999755859375</v>
       </c>
       <c r="E13" s="1">
-        <v>8.0299997329711914</v>
+        <v>5.1699995994567871</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -5410,10 +5410,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="1">
-        <v>-8.4399995803833</v>
+        <v>62.079998016357422</v>
       </c>
       <c r="E14" s="1">
-        <v>10.079999923706055</v>
+        <v>6.4499998092651367</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -5430,10 +5430,10 @@
         <v>13</v>
       </c>
       <c r="D15" s="1">
-        <v>-6.6399998664855957</v>
+        <v>62.099998474121094</v>
       </c>
       <c r="E15" s="1">
-        <v>10.119999885559082</v>
+        <v>7.6899995803833008</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -5450,10 +5450,10 @@
         <v>13</v>
       </c>
       <c r="D16" s="1">
-        <v>-2.5999999046325684</v>
+        <v>60.779998779296875</v>
       </c>
       <c r="E16" s="1">
-        <v>11.859999656677246</v>
+        <v>6.8299999237060547</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -5470,10 +5470,10 @@
         <v>13</v>
       </c>
       <c r="D17" s="1">
-        <v>1.5</v>
+        <v>63.409999847412109</v>
       </c>
       <c r="E17" s="1">
-        <v>15.019998550415039</v>
+        <v>6.8299999237060547</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -5490,10 +5490,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="1">
-        <v>3.7000000476837158</v>
+        <v>28.079999923706055</v>
       </c>
       <c r="E18" s="1">
-        <v>17.840000152587891</v>
+        <v>12.600000381469727</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -5510,10 +5510,10 @@
         <v>13</v>
       </c>
       <c r="D19" s="1">
-        <v>0.51999998092651367</v>
+        <v>21.930000305175781</v>
       </c>
       <c r="E19" s="1">
-        <v>20.75</v>
+        <v>11.789999961853027</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -5530,10 +5530,10 @@
         <v>13</v>
       </c>
       <c r="D20" s="1">
-        <v>9.1499996185302734</v>
+        <v>15.8100004196167</v>
       </c>
       <c r="E20" s="1">
-        <v>23.200000762939453</v>
+        <v>10.729999542236328</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -5550,10 +5550,10 @@
         <v>13</v>
       </c>
       <c r="D21" s="1">
-        <v>11.409999847412109</v>
+        <v>11.890000343322754</v>
       </c>
       <c r="E21" s="1">
-        <v>23.180000305175781</v>
+        <v>9.90999984741211</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -5570,10 +5570,10 @@
         <v>13</v>
       </c>
       <c r="D22" s="1">
-        <v>3.630000114440918</v>
+        <v>-3.5499999523162842</v>
       </c>
       <c r="E22" s="1">
-        <v>23.170000076293945</v>
+        <v>13.079999923706055</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -5590,10 +5590,10 @@
         <v>13</v>
       </c>
       <c r="D23" s="1">
-        <v>6.7100000381469727</v>
+        <v>-3.5099999904632568</v>
       </c>
       <c r="E23" s="1">
-        <v>28.360000610351563</v>
+        <v>18.659999847412109</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -5610,10 +5610,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="1">
-        <v>0.51999998092651367</v>
+        <v>18.950000762939453</v>
       </c>
       <c r="E24" s="1">
-        <v>28.8799991607666</v>
+        <v>29.729999542236328</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -5630,10 +5630,10 @@
         <v>13</v>
       </c>
       <c r="D25" s="1">
-        <v>-4.5799999237060547</v>
+        <v>25.850000381469727</v>
       </c>
       <c r="E25" s="1">
-        <v>30.940000534057617</v>
+        <v>19.430000305175781</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -5650,10 +5650,10 @@
         <v>13</v>
       </c>
       <c r="D26" s="1">
-        <v>-0.550000011920929</v>
+        <v>28.209999084472656</v>
       </c>
       <c r="E26" s="1">
-        <v>34.3900032043457</v>
+        <v>19.420000076293945</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -5670,10 +5670,10 @@
         <v>13</v>
       </c>
       <c r="D27" s="1">
-        <v>5.6399998664855957</v>
+        <v>30.649999618530273</v>
       </c>
       <c r="E27" s="1">
-        <v>36.570003509521484</v>
+        <v>19.440000534057617</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -5690,10 +5690,10 @@
         <v>13</v>
       </c>
       <c r="D28" s="1">
-        <v>0.5</v>
+        <v>46.7400016784668</v>
       </c>
       <c r="E28" s="1">
-        <v>40.570003509521484</v>
+        <v>25.219999313354492</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -5710,10 +5710,10 @@
         <v>13</v>
       </c>
       <c r="D29" s="1">
-        <v>8.8900003433227539</v>
+        <v>58.700000762939453</v>
       </c>
       <c r="E29" s="1">
-        <v>47.889999389648438</v>
+        <v>25.700000762939453</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -5730,10 +5730,10 @@
         <v>13</v>
       </c>
       <c r="D30" s="1">
-        <v>1.6000000238418579</v>
+        <v>58.720001220703125</v>
       </c>
       <c r="E30" s="1">
-        <v>61.860000610351563</v>
+        <v>34.799999237060547</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -5750,10 +5750,10 @@
         <v>13</v>
       </c>
       <c r="D31" s="1">
-        <v>46.450000762939453</v>
+        <v>58.700000762939453</v>
       </c>
       <c r="E31" s="1">
-        <v>87.260002136230469</v>
+        <v>42.299999237060547</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -5784,16 +5784,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1">
-        <v>-7.929999828338623</v>
+        <v>43.419998168945313</v>
       </c>
       <c r="E33" s="1">
-        <v>139</v>
+        <v>42.540000915527344</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -5804,16 +5804,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D34" s="1">
-        <v>-7.4499998092651367</v>
+        <v>37.349998474121094</v>
       </c>
       <c r="E34" s="1">
-        <v>146.13999938964844</v>
+        <v>47.689998626708984</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -5824,16 +5824,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D35" s="1">
-        <v>-8.6899995803833</v>
+        <v>38.330001831054688</v>
       </c>
       <c r="E35" s="1">
-        <v>168.56999206542969</v>
+        <v>53.770000457763672</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -5844,16 +5844,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D36" s="1">
-        <v>13.260000228881836</v>
+        <v>45.430000305175781</v>
       </c>
       <c r="E36" s="1">
-        <v>167.54998779296875</v>
+        <v>66.69000244140625</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -5864,16 +5864,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D37" s="1">
-        <v>12.800000190734863</v>
+        <v>30.170000076293945</v>
       </c>
       <c r="E37" s="1">
-        <v>175.7239990234375</v>
+        <v>75.30999755859375</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -5884,16 +5884,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D38" s="1">
-        <v>12.680000305175781</v>
+        <v>25.079999923706055</v>
       </c>
       <c r="E38" s="1">
-        <v>184.9010009765625</v>
+        <v>78.419998168945313</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -5904,16 +5904,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D39" s="1">
-        <v>-6.21999979019165</v>
+        <v>29.069999694824219</v>
       </c>
       <c r="E39" s="1">
-        <v>144.94999694824219</v>
+        <v>82.080001831054688</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -5924,16 +5924,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D40" s="1">
-        <v>11.930000305175781</v>
+        <v>35.25</v>
       </c>
       <c r="E40" s="1">
-        <v>160.25999450683594</v>
+        <v>81.209999084472656</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -5944,16 +5944,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D41" s="1">
-        <v>-7.6500000953674316</v>
+        <v>3.1700000762939453</v>
       </c>
       <c r="E41" s="1">
-        <v>164.25</v>
+        <v>39.639999389648438</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -5964,16 +5964,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D42" s="1">
-        <v>-16.360000610351563</v>
+        <v>5.809999942779541</v>
       </c>
       <c r="E42" s="1">
-        <v>208.19999694824219</v>
+        <v>39.650001525878906</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -5987,13 +5987,13 @@
         <v>6</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1">
-        <v>19.069999694824219</v>
+        <v>24.969999313354492</v>
       </c>
       <c r="E43" s="1">
-        <v>208.17999267578125</v>
+        <v>25.030000686645508</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -6007,13 +6007,13 @@
         <v>6</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1">
-        <v>-4.8400001525878906</v>
+        <v>31.139999389648438</v>
       </c>
       <c r="E44" s="1">
-        <v>144.91999816894531</v>
+        <v>30.610000610351563</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -6027,13 +6027,13 @@
         <v>6</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D45" s="1">
-        <v>13.239999771118164</v>
+        <v>25.819999694824219</v>
       </c>
       <c r="E45" s="1">
-        <v>160.27999877929688</v>
+        <v>58.700000762939453</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -6047,13 +6047,13 @@
         <v>6</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D46" s="1">
-        <v>-8.6700000762939453</v>
+        <v>20.219999313354492</v>
       </c>
       <c r="E46" s="1">
-        <v>165.30999755859375</v>
+        <v>58.720001220703125</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -6067,13 +6067,13 @@
         <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D47" s="1">
-        <v>-17.569999694824219</v>
+        <v>0.93999999761581421</v>
       </c>
       <c r="E47" s="1">
-        <v>208.19999694824219</v>
+        <v>39.319999694824219</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -6087,13 +6087,13 @@
         <v>6</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D48" s="1">
-        <v>20.5</v>
+        <v>-4.4600000381469727</v>
       </c>
       <c r="E48" s="1">
-        <v>208.16999816894531</v>
+        <v>56.689998626708984</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -6107,13 +6107,13 @@
         <v>6</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D49" s="1">
-        <v>56</v>
+        <v>20.659999847412109</v>
       </c>
       <c r="E49" s="1">
-        <v>240.8699951171875</v>
+        <v>20.899999618530273</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -6127,13 +6127,13 @@
         <v>6</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D50" s="1">
-        <v>48.970001220703125</v>
+        <v>35.880001068115234</v>
       </c>
       <c r="E50" s="1">
-        <v>4.119999885559082</v>
+        <v>20.920000076293945</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -6147,13 +6147,13 @@
         <v>6</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D51" s="1">
-        <v>58.090000152587891</v>
+        <v>45</v>
       </c>
       <c r="E51" s="1">
-        <v>4.0999999046325684</v>
+        <v>18.860000610351563</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -6167,15 +6167,215 @@
         <v>6</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1">
+        <v>-19.020000457763672</v>
+      </c>
+      <c r="E52" s="1">
+        <v>70.870002746582031</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="1">
+        <v>59.849998474121094</v>
+      </c>
+      <c r="E53" s="1">
+        <v>109.65000152587891</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="1">
+        <v>17.559999465942383</v>
+      </c>
+      <c r="E54" s="1">
+        <v>20.909999847412109</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="1">
+        <v>38.709999084472656</v>
+      </c>
+      <c r="E55" s="1">
+        <v>20.920000076293945</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="1">
+        <v>51.799999237060547</v>
+      </c>
+      <c r="E56" s="1">
+        <v>18.860000610351563</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1">
+        <v>-14.899999618530273</v>
+      </c>
+      <c r="E57" s="1">
+        <v>70.9000015258789</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1">
+        <v>67.0999984741211</v>
+      </c>
+      <c r="E58" s="1">
+        <v>109.69999694824219</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="1">
+        <v>65.0999984741211</v>
+      </c>
+      <c r="E59" s="1">
+        <v>91</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="1">
-        <v>15.979999542236328</v>
-      </c>
-      <c r="E52" s="1">
-        <v>207.75</v>
-      </c>
-      <c r="F52" s="1">
+      <c r="D60" s="1">
+        <v>48.970001220703125</v>
+      </c>
+      <c r="E60" s="1">
+        <v>4.119999885559082</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="1">
+        <v>58.090000152587891</v>
+      </c>
+      <c r="E61" s="1">
+        <v>4.0999999046325684</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="1">
+        <v>-6.0799999237060547</v>
+      </c>
+      <c r="E62" s="1">
+        <v>38.810001373291016</v>
+      </c>
+      <c r="F62" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6197,1429 +6397,1429 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="9.09765625" customWidth="1" style="3"/>
-    <col min="3" max="3" width="44.3984375" customWidth="1" style="3"/>
-    <col min="4" max="4" width="11.59765625" customWidth="1" style="3"/>
-    <col min="5" max="6" width="9.09765625" customWidth="1" style="3"/>
+    <col min="1" max="2" width="9.09765625" customWidth="1" style="2"/>
+    <col min="3" max="3" width="44.3984375" customWidth="1" style="2"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1" style="2"/>
+    <col min="5" max="6" width="9.09765625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2">
         <v>-3.6099998950958252</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>1.5800000429153442</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2">
         <v>-8.6499996185302734</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>2.8199999332427979</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
         <v>0.029999999329447746</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>-6.320000171661377</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
         <v>2.0299999713897705</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>-6.320000171661377</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
         <v>4.0299997329711914</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>-6.320000171661377</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
         <v>0.029999999329447746</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>-10.340000152587891</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
         <v>2.0299999713897705</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>-10.340000152587891</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
         <v>4.03000020980835</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>-10.340000152587891</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
         <v>11.760000228881836</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>-8.0500001907348633</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
         <v>18.899999618530273</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>-8.0500001907348633</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
         <v>23.010000228881836</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>-10.359999656677246</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
         <v>25.010000228881836</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>-10.359999656677246</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
         <v>28.770000457763672</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>-12.329999923706055</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
         <v>32.340000152587891</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>-13.409999847412109</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
         <v>38.209999084472656</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>-8.119999885559082</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
         <v>38.209999084472656</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>-5.6199989318847656</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
         <v>38.209999084472656</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>-3.6199989318847656</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
         <v>57.590000152587891</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>-6.1500000953674316</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2">
         <v>59.590000152587891</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>-6.1500000953674316</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2">
         <v>73.970001220703125</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>-7.119999885559082</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2">
         <v>52.330001831054688</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>6.96999979019165</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2">
         <v>61.369998931884766</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>6.96999979019165</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2">
         <v>63.369998931884766</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>6.96999979019165</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
         <v>75.239997863769531</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>5.0399999618530273</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2">
         <v>46.400001525878906</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>5.0399999618530273</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2">
         <v>46.400001525878906</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>7.5399999618530273</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
         <v>46.400001525878906</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>10.039999961853027</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2">
         <v>57.659999847412109</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>9.2899999618530273</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2">
         <v>69.879997253417969</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>6.130000114440918</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2">
         <v>103.70999908447266</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>-8.0799999237060547</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2">
         <v>103.70999908447266</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>-8.0799999237060547</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2">
         <v>128.5</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>-8.0799999237060547</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2">
         <v>131</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>-8.0799999237060547</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2">
         <v>147.58999633789063</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>-11.140000343322754</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2">
         <v>150.08999633789063</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>-11.140000343322754</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2">
         <v>152.58999633789063</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>-11.140000343322754</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2">
         <v>169.07000732421875</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>-12.869999885559082</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="2">
         <v>171.57000732421875</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>-12.869999885559082</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2">
         <v>174.07000732421875</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>-12.869999885559082</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="2">
         <v>176.57000732421875</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>-12.869999885559082</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="3">
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2">
         <v>115.69999694824219</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>-2.630000114440918</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="3">
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2">
         <v>115.69999694824219</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>-0.12999999523162842</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="3">
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2">
         <v>115.69999694824219</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>2.369999885559082</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="3">
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="2">
         <v>133.11000061035156</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>8.5</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="3">
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="2">
         <v>150.52999877929688</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <v>8.5</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="3">
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2">
         <v>153.02999877929688</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>8.5</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="3">
+      <c r="B48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2">
         <v>161.14999389648438</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>5.3600001335144043</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="3">
+      <c r="B49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="2">
         <v>168.47999572753906</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>2.1600000858306885</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="3">
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="2">
         <v>179.14999389648438</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>-2.7899999618530273</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="3">
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="2">
         <v>187.72999572753906</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <v>-2.7900002002716064</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="B52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="2">
         <v>10.770000457763672</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <v>-3.4600000381469727</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="B53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="2">
         <v>49.439998626708984</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <v>-8.5799999237060547</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="B54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="2">
         <v>67.889999389648438</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <v>-8.5799999237060547</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="B55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <v>119.84600067138672</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>-4.5170001983642578</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="2">
         <v>149.94099426269531</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="2">
         <v>-6.5399999618530273</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="B57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="2">
         <v>169.33000183105469</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="2">
         <v>-8.59000015258789</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="B58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="2">
         <v>176.44000244140625</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="2">
         <v>-8.59000015258789</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="B59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="2">
         <v>243.30299377441406</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="2">
         <v>-39.194000244140625</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="B60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="2">
         <v>276.97100830078125</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="2">
         <v>-41.236000061035156</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="B61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="2">
         <v>80.9000015258789</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="2">
         <v>-8.6700000762939453</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="3" t="s">
+      <c r="B62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="2">
         <v>111.12000274658203</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="2">
         <v>-10.710000038146973</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="B63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="2">
         <v>200.1300048828125</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="2">
         <v>-8.65999984741211</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="B64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="2">
         <v>251.44999694824219</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="2">
         <v>-48.419998168945313</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="B65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="2">
         <v>270.79000854492188</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="2">
         <v>-48.419998168945313</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="3">
+      <c r="B66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="2">
         <v>209.33000183105469</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="2">
         <v>-5.130000114440918</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="3">
+      <c r="B67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="2">
         <v>216.27999877929688</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="2">
         <v>-6.1299986839294434</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="3">
+      <c r="B68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="2">
         <v>224.75</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="2">
         <v>-7.12999963760376</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3">
+      <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="3">
+      <c r="B69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="2">
         <v>232.97999572753906</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="2">
         <v>-8.1299991607666016</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3">
+      <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="3">
+      <c r="B70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="2">
         <v>241.3699951171875</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="2">
         <v>-9.1299991607666016</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3">
+      <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="3">
+      <c r="B71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="2">
         <v>249.52000427246094</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="2">
         <v>-10.130001068115234</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/SpawnData.xlsx
+++ b/Assets/Data/SpawnData.xlsx
@@ -5993,7 +5993,7 @@
         <v>24.969999313354492</v>
       </c>
       <c r="E43" s="1">
-        <v>25.030000686645508</v>
+        <v>29.1299991607666</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>

--- a/Assets/Data/SpawnData.xlsx
+++ b/Assets/Data/SpawnData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae9d72655d379bd3/ドキュメント/FLUFF_SWING/Assets/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{CB796B53-597B-4AEC-AB2E-0111EC9645C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAF421FE-5368-45DD-AC03-4CAF90626A27}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{CB796B53-597B-4AEC-AB2E-0111EC9645C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFA7BDA0-FC02-48CF-87D7-2CE721AE3155}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{E4C33777-1E58-4483-B30F-52CA6AAB0A77}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E4C33777-1E58-4483-B30F-52CA6AAB0A77}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage1" sheetId="7" r:id="rId1"/>
@@ -119,10 +119,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="2">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -144,10 +141,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,969 +448,971 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="9.09765625" customWidth="1" style="2"/>
-    <col min="3" max="3" width="44.3984375" customWidth="1" style="2"/>
-    <col min="4" max="4" width="11.59765625" customWidth="1" style="2"/>
-    <col min="5" max="6" width="9.09765625" customWidth="1" style="2"/>
+    <col min="1" max="1" width="9.09765625" customWidth="1" style="1"/>
+    <col min="2" max="2" width="9.796875" customWidth="1" style="1"/>
+    <col min="3" max="3" width="55.296875" customWidth="1" style="1"/>
+    <col min="4" max="4" width="14.296875" customWidth="1" style="1"/>
+    <col min="5" max="5" width="9.796875" customWidth="1" style="1"/>
+    <col min="6" max="6" width="9.09765625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>45.569999694824219</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>46.909999847412109</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>-1.5560001134872437</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>96.0999984741211</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>6.5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>43.139999389648438</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>-1.4420000314712524</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>58.099998474121094</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>-2.0169999599456787</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
         <v>1.2699999809265137</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>-0.99000000953674316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
         <v>6.7100000381469727</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>-1.1599999666213989</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
         <v>13.779999732971191</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>-1.2799999713897705</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
         <v>18.799999237060547</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>-0.2199999988079071</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
         <v>24.260000228881836</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>-1.0700000524520874</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
         <v>35.020000457763672</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>-1.0499999523162842</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
         <v>39.700000762939453</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>-0.99000000953674316</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
         <v>56.400001525878906</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>-0.949999988079071</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1">
         <v>68.319999694824219</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>-0.51999998092651367</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1">
         <v>72.199996948242188</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>-1.1799999475479126</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
         <v>80.529998779296875</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>-0.05000000074505806</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
         <v>85.699996948242188</v>
       </c>
-      <c r="E18" s="2">
-        <v>7.1700000762939453</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="E18" s="1">
+        <v>2.9700000286102295</v>
+      </c>
+      <c r="F18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
         <v>90.830001831054688</v>
       </c>
-      <c r="E19" s="2">
-        <v>9.9799995422363281</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="E19" s="1">
+        <v>6.21999979019165</v>
+      </c>
+      <c r="F19" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
         <v>101.44000244140625</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>7.820000171661377</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1">
         <v>195.96000671386719</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>3.869999885559082</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1">
         <v>197.00999450683594</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>2.9800000190734863</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1">
         <v>194.89999389648438</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>4.8000001907348633</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1">
         <v>193.41000366210938</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>5.46999979019165</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1">
         <v>193.55999755859375</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>3.7300000190734863</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1">
         <v>195.00999450683594</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>6.4899997711181641</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1">
         <v>193.67999267578125</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>6.8400001525878906</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1">
         <v>196.6300048828125</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>6.2300000190734863</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1">
         <v>198.11000061035156</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>2.0299999713897705</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1">
         <v>129.05999755859375</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>-5.5799999237060547</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1">
         <v>130.22999572753906</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>8.1899995803833</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1">
         <v>171.30000305175781</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>8</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1">
         <v>203.27999877929688</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>3</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1">
         <v>190.69999694824219</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>8.6000003814697266</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="B35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1">
         <v>181.80000305175781</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>10.300000190734863</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1">
         <v>177.5</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>8.1000003814697266</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>96.879997253417969</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>125.33000183105469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>-7.6100001335144043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>197.89999389648438</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>-0.5</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>94.639999389648438</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>-1.5499999523162842</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>145.19000244140625</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>-4.630000114440918</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="2">
-        <v>153.30000305175781</v>
-      </c>
-      <c r="E42" s="2">
-        <v>14.899999618530273</v>
-      </c>
-      <c r="F42" s="2">
+      <c r="D42" s="1">
+        <v>155.02999877929688</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3.5699999332427979</v>
+      </c>
+      <c r="F42" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>115.59999847412109</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>14.831999778747559</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>141.80000305175781</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>7.7399997711181641</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>168.19999694824219</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>-1.4500000476837158</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>106.40000152587891</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>7.1869997978210449</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="B47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>185.47000122070313</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>-0.99500000476837158</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>158.39999389648438</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>10.569999694824219</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1439,1428 +1434,1428 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="9.09765625" customWidth="1" style="2"/>
-    <col min="3" max="3" width="44.3984375" customWidth="1" style="2"/>
-    <col min="4" max="6" width="9.09765625" customWidth="1" style="2"/>
+    <col min="1" max="2" width="9.09765625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="44.3984375" customWidth="1" style="1"/>
+    <col min="4" max="6" width="9.09765625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
         <v>6.5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>-1</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
         <v>8.5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>-1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
         <v>10.5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>-1</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
         <v>21.5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
         <v>23</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
         <v>24.5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
         <v>26</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
         <v>27.5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
         <v>24.440000534057617</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>-22.159999847412109</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
         <v>25.940000534057617</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>-22.159999847412109</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
         <v>27.440000534057617</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>-22.159999847412109</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
         <v>25.239999771118164</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>-17.5</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
         <v>26.739999771118164</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>-17.5</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1">
         <v>31.779998779296875</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>-20.100000381469727</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1">
         <v>33.279998779296875</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>-20.100000381469727</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
         <v>34.779998779296875</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>-20.100000381469727</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
         <v>33.650001525878906</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>-14.300000190734863</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
         <v>38.560001373291016</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
         <v>40.060001373291016</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1">
         <v>38.7400016784668</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>-18.090000152587891</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1">
         <v>40.2400016784668</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>-18.090000152587891</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1">
         <v>41.7400016784668</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>-18.090000152587891</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1">
         <v>85.5999984741211</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1">
         <v>87.0999984741211</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1">
         <v>88.5999984741211</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>-17.399999618530273</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1">
         <v>67.0999984741211</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1">
         <v>68.5999984741211</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>-12.399999618530273</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1">
         <v>57.909999847412109</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>-11.300000190734863</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1">
         <v>59.409999847412109</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>-11.300000190734863</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1">
         <v>21.5</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1">
         <v>23</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1">
         <v>24.5</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1">
         <v>26</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="B35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1">
         <v>27.5</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1">
         <v>29</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>3.4000000953674316</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="B37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="1">
         <v>18.5</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>-9</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="B38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="1">
         <v>87.0999984741211</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>-16</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2">
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="1">
         <v>88.5999984741211</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>-16</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="2">
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="1">
         <v>52.310001373291016</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>-9.3000001907348633</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="B41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="1">
         <v>53.810001373291016</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>-9.3000001907348633</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="2">
+      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1">
         <v>71.160003662109375</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>-7.3000001907348633</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="2">
+      <c r="B43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="1">
         <v>72.660003662109375</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>-7.3000001907348633</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="1">
         <v>66.3499984741211</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="2">
+      <c r="B45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="1">
         <v>67.8499984741211</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="B46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="1">
         <v>69.3499984741211</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>1.8999999761581421</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="2">
+      <c r="B47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="1">
         <v>77.040000915527344</v>
       </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2">
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="2">
+      <c r="B48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="1">
         <v>86.8499984741211</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>-0.039999999105930328</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="2">
+      <c r="B49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="1">
         <v>93.339996337890625</v>
       </c>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-      <c r="F49" s="2">
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="2">
+      <c r="B50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="1">
         <v>98.470001220703125</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>3.059999942779541</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="2">
+      <c r="B51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="1">
         <v>81.050003051757813</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>3.8199999332427979</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>10.779999732971191</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>5.630000114440918</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <v>28.790000915527344</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>-25</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <v>89.040000915527344</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>-17.856000900268555</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <v>121.59999847412109</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>-6.6100001335144043</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="1">
         <v>13.430000305175781</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <v>-1.5399999618530273</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="1">
         <v>44</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>-20.899999618530273</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="1">
         <v>19.700000762939453</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <v>2.2200000286102295</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="1">
         <v>102.13999938964844</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <v>-3.6500000953674316</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="1">
         <v>77.5199966430664</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="1">
         <v>-10.609999656677246</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="1">
         <v>59.5</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1">
         <v>-2.4569995403289795</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="2">
+      <c r="B62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="1">
         <v>41</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="1">
         <v>-4.0199999809265137</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="2">
+      <c r="B63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="1">
         <v>43</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="1">
         <v>-4.0199999809265137</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="2">
+      <c r="B64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="1">
         <v>42</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="1">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="2">
+      <c r="B65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="1">
         <v>44</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="1">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="2">
+      <c r="B66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="1">
         <v>46</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="1">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="2">
+      <c r="B67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="1">
         <v>43</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="1">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="2">
+      <c r="B68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="1">
         <v>45</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="1">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="2">
+      <c r="B69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="1">
         <v>47</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="1">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="2">
+      <c r="B70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="1">
         <v>48</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="1">
         <v>-5.4200000762939453</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="2">
+      <c r="B71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="1">
         <v>49</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="1">
         <v>-6.9200000762939453</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2874,878 +2869,999 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0451ECB-537D-4FB2-A2D8-B602F91E52CB}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" customWidth="1" style="2"/>
-    <col min="2" max="2" width="9.796875" customWidth="1" style="2"/>
-    <col min="3" max="3" width="55.296875" customWidth="1" style="2"/>
-    <col min="4" max="4" width="9.5" customWidth="1" style="2"/>
-    <col min="5" max="6" width="9.09765625" customWidth="1" style="2"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
+    <col min="2" max="2" width="9.81274632045201" customWidth="1" style="1"/>
+    <col min="3" max="3" width="55.3020673479353" customWidth="1" style="1"/>
+    <col min="4" max="4" width="9.45723124912807" customWidth="1" style="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>59.7400016784668</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>80.0199966430664</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>58.659999847412109</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>80.0199966430664</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>65.5999984741211</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>82.8499984741211</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>28.090000152587891</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>-0.43000000715255737</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>55.7400016784668</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>79.569999694824219</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.47999998927116394</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>-0.039999999105930328</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
         <v>13.819999694824219</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>-0.25</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
         <v>27.6200008392334</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>1.6599999666213989</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
         <v>45.790000915527344</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>2.059999942779541</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
         <v>48.479999542236328</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
         <v>64.669998168945313</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>2.470000028610